--- a/Iris_Rank_filtering_implementation.xlsx
+++ b/Iris_Rank_filtering_implementation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Decision-Trees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC581177-9FC1-480F-BF5B-48EBDDE809FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB3CD9A-F3B5-41DA-8F7D-A63ED579B4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="340" windowWidth="14440" windowHeight="10200" tabRatio="823" firstSheet="10" activeTab="10" xr2:uid="{6C67A883-E7E1-4B49-B51F-4602C047CF2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="823" firstSheet="9" activeTab="10" xr2:uid="{6C67A883-E7E1-4B49-B51F-4602C047CF2B}"/>
   </bookViews>
   <sheets>
     <sheet name="IRIS_DT_DIST80" sheetId="8" state="hidden" r:id="rId1"/>
@@ -23,14 +23,16 @@
     <sheet name="ace recur LinSVM 75" sheetId="25" state="hidden" r:id="rId8"/>
     <sheet name="ace recur eps 75" sheetId="26" state="hidden" r:id="rId9"/>
     <sheet name="ace svm 20" sheetId="27" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="28" r:id="rId11"/>
-    <sheet name="IRIS_RBF_DIST75" sheetId="5" state="hidden" r:id="rId12"/>
-    <sheet name="IRIS_SVMLin_DIST80" sheetId="10" state="hidden" r:id="rId13"/>
-    <sheet name="IRIS_RBF_DIST80" sheetId="12" state="hidden" r:id="rId14"/>
-    <sheet name="IRIS_Poly_DIST80" sheetId="13" state="hidden" r:id="rId15"/>
-    <sheet name="IRIS_Poly_DIST90" sheetId="14" state="hidden" r:id="rId16"/>
-    <sheet name="IRIS_RBF_DIST90" sheetId="15" state="hidden" r:id="rId17"/>
-    <sheet name="IRIS_SVMlin_DIST90" sheetId="17" state="hidden" r:id="rId18"/>
+    <sheet name="Sheet2" sheetId="29" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="30" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="28" r:id="rId13"/>
+    <sheet name="IRIS_RBF_DIST75" sheetId="5" state="hidden" r:id="rId14"/>
+    <sheet name="IRIS_SVMLin_DIST80" sheetId="10" state="hidden" r:id="rId15"/>
+    <sheet name="IRIS_RBF_DIST80" sheetId="12" state="hidden" r:id="rId16"/>
+    <sheet name="IRIS_Poly_DIST80" sheetId="13" state="hidden" r:id="rId17"/>
+    <sheet name="IRIS_Poly_DIST90" sheetId="14" state="hidden" r:id="rId18"/>
+    <sheet name="IRIS_RBF_DIST90" sheetId="15" state="hidden" r:id="rId19"/>
+    <sheet name="IRIS_SVMlin_DIST90" sheetId="17" state="hidden" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="109">
   <si>
     <t>0</t>
   </si>
@@ -197,12 +199,411 @@
   <si>
     <t>% Label Noise Induced</t>
   </si>
+  <si>
+    <t>SVM with L1PCA dist based Training Data Curation</t>
+  </si>
+  <si>
+    <t>SVM on Original File without Data Curation</t>
+  </si>
+  <si>
+    <t>PREDICTED</t>
+  </si>
+  <si>
+    <t>Recall, power</t>
+  </si>
+  <si>
+    <t>pr of false alarm, type 1err</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Miss rate, type II err</t>
+  </si>
+  <si>
+    <t>Versicolor</t>
+  </si>
+  <si>
+    <t>Virginica</t>
+  </si>
+  <si>
+    <t>Setosa</t>
+  </si>
+  <si>
+    <t>L1TPR_Sentosa</t>
+  </si>
+  <si>
+    <t>L1FNR_Sentosa</t>
+  </si>
+  <si>
+    <t>L1FPR_Sentosa</t>
+  </si>
+  <si>
+    <t>L1TNR_Sentosa</t>
+  </si>
+  <si>
+    <t>L1TPR_Vers</t>
+  </si>
+  <si>
+    <t>L1FPR_Vers</t>
+  </si>
+  <si>
+    <t>L1TNR_Vers</t>
+  </si>
+  <si>
+    <t>L1FNR_Vers</t>
+  </si>
+  <si>
+    <t>L1FPR_Virg</t>
+  </si>
+  <si>
+    <t>L1TNR_Virg</t>
+  </si>
+  <si>
+    <t>L1FNR_Virg</t>
+  </si>
+  <si>
+    <t>L1TPR_Virg</t>
+  </si>
+  <si>
+    <t>TPR_Sentosa</t>
+  </si>
+  <si>
+    <t>FPR_Sentosa</t>
+  </si>
+  <si>
+    <t>TNR_Sentosa</t>
+  </si>
+  <si>
+    <t>FNR_Sentosa</t>
+  </si>
+  <si>
+    <t>TPR_Vers</t>
+  </si>
+  <si>
+    <t>FPR_Vers</t>
+  </si>
+  <si>
+    <t>TNR_Vers</t>
+  </si>
+  <si>
+    <t>FNR_Vers</t>
+  </si>
+  <si>
+    <t>TPR_Virg</t>
+  </si>
+  <si>
+    <t>FPR_Virg</t>
+  </si>
+  <si>
+    <t>TNR_Virg</t>
+  </si>
+  <si>
+    <t>FNR_Virg</t>
+  </si>
+  <si>
+    <t>TP_Sentosa=Avg_1_val</t>
+  </si>
+  <si>
+    <t>FN_Sentosa= (Avg_2_val+ Avg_3_val)</t>
+  </si>
+  <si>
+    <t>FP_Sentosa=(Avg_4_val+Avg_7_val)</t>
+  </si>
+  <si>
+    <t>TN_Sentosa=(Avg_5_val+ Avg_6_val+Avg_8_val+ Avg_9_val)</t>
+  </si>
+  <si>
+    <t>TPR_Sentosa=TP_Sentosa/(TP_Sentosa+FN_Sentosa)</t>
+  </si>
+  <si>
+    <t>FPR_Sentosa=FP_Sentosa/(FP_Sentosa+TN_Sentosa)</t>
+  </si>
+  <si>
+    <t>TNR_Sentosa=TN_Sentosa/(TN_Sentosa+FP_Sentosa)</t>
+  </si>
+  <si>
+    <t>FNR_Sentosa=FN_Sentosa/(FN_Sentosa+TP_Sentosa)</t>
+  </si>
+  <si>
+    <t>TP_Vers=Avg_5_val</t>
+  </si>
+  <si>
+    <t>FN_Vers= (Avg_4_val+ Avg_6_val)</t>
+  </si>
+  <si>
+    <t>FP_Vers=(Avg_2_val+Avg_8_val)</t>
+  </si>
+  <si>
+    <t>TN_Vers=(Avg_1_val+ Avg_3_val+Avg_7_val+ Avg_9_val)</t>
+  </si>
+  <si>
+    <t>TP_Virg=Avg_9_val</t>
+  </si>
+  <si>
+    <t>FN_Virg= (Avg_7_val+ Avg_8_val)</t>
+  </si>
+  <si>
+    <t>FP_Virg=(Avg_3_val+Avg_6_val)</t>
+  </si>
+  <si>
+    <t>TN_Virg=(Avg_1_val+ Avg_2_val+Avg_4_val+ Avg_5_val)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Power/ True Positive Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          Sentosa: 1
+Versicolor: 0.934
+Virginica:0.946</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-Power/ False Negative Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                   Sentosa: 0
+Versicolor: 0.066
+Virginica:0.054</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1-Probability of False Alarm/   True Negative Rate  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                     
+Sentosa: 1
+Versicolor: 0.971
+Virginica:0.965</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Power/ True Positive Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          Sentosa: 1
+Versicolor: 0.856
+Virginica:0.903</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-Power/ False Negative Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                     Sentosa: 0
+Versicolor: 0.144
+Virginica:0.097</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1-Probability of False Alarm/ True Negative Rate  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                     Sentosa: 0.992
+Versicolor: 0.948
+Virginica:0.933</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hamming Loss </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        = 0.04</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prob of False Alarm/
+False Positive Rate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                   
+Sentosa: 0.008
+Versicolor: 0.052
+Virginica:0.067</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prob of False Alarm/ 
+False Positive Rate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                         Sentosa: 0
+Versicolor: 0.029
+Virginica:0.0.035</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hamming Loss  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        
+= 0.08</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,8 +646,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,8 +765,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -657,11 +1103,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -769,6 +1367,148 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -805,18 +1545,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1351,7 +2151,7 @@
       <selection activeCell="P1" sqref="P1:S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
@@ -1361,12 +2161,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -4017,22 +4817,22 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:J3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="10" max="10" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="80"/>
+      <c r="H1" s="130"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2"/>
@@ -4093,6 +4893,10 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G4">
+        <f>100-G3</f>
+        <v>95.849056700000006</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1">
       <c r="A5" s="2"/>
@@ -4123,8 +4927,8 @@
         <v>41</v>
       </c>
       <c r="G6" s="47"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="82"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
@@ -4425,31 +5229,916 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61599D0C-6BD1-4F1A-B3C4-BF78239DA98C}">
+  <dimension ref="A1:N43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="8.77734375" style="75"/>
+    <col min="3" max="3" width="9.33203125" style="75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" style="75" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" style="75" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" style="75" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="75" customWidth="1"/>
+    <col min="8" max="9" width="8.77734375" style="75"/>
+    <col min="10" max="10" width="10" style="75" customWidth="1"/>
+    <col min="11" max="11" width="24.77734375" style="75" customWidth="1"/>
+    <col min="12" max="12" width="25.44140625" style="75" customWidth="1"/>
+    <col min="13" max="13" width="11" style="75" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" style="75" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
+    <row r="2" spans="1:14" ht="15" thickBot="1">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="154" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="155"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="77"/>
+      <c r="K2" s="154" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="155"/>
+      <c r="M2" s="105"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.55" customHeight="1" thickBot="1">
+      <c r="D3" s="137" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="138"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="78"/>
+      <c r="K3" s="143" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="144"/>
+      <c r="M3" s="145"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="D4" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="79"/>
+      <c r="K4" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.55" customHeight="1">
+      <c r="B5" s="140" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="81">
+        <v>16.3</v>
+      </c>
+      <c r="E5" s="96">
+        <v>0</v>
+      </c>
+      <c r="F5" s="82">
+        <v>0</v>
+      </c>
+      <c r="G5" s="133" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="81">
+        <v>16.3</v>
+      </c>
+      <c r="L5" s="96">
+        <v>0</v>
+      </c>
+      <c r="M5" s="82">
+        <v>0</v>
+      </c>
+      <c r="N5" s="152" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1">
+      <c r="B6" s="141"/>
+      <c r="C6" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="81">
+        <v>0</v>
+      </c>
+      <c r="E6" s="96">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F6" s="82">
+        <v>1.2</v>
+      </c>
+      <c r="G6" s="134"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="81">
+        <v>0.3</v>
+      </c>
+      <c r="L6" s="96">
+        <v>15.5</v>
+      </c>
+      <c r="M6" s="82">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N6" s="153"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1">
+      <c r="B7" s="142"/>
+      <c r="C7" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="89">
+        <v>0</v>
+      </c>
+      <c r="E7" s="102">
+        <v>1</v>
+      </c>
+      <c r="F7" s="90">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G7" s="93"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="89">
+        <v>0</v>
+      </c>
+      <c r="L7" s="102">
+        <v>1.8</v>
+      </c>
+      <c r="M7" s="90">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="57.6">
+      <c r="D8" s="146" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="147" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="K8" s="150" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="151" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="72.599999999999994" thickBot="1">
+      <c r="D9" s="148" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="149" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="K9" s="148" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" s="149" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1"/>
+    <row r="13" spans="1:14">
+      <c r="B13" s="75">
+        <v>0</v>
+      </c>
+      <c r="C13" s="75">
+        <v>1</v>
+      </c>
+      <c r="D13" s="75">
+        <v>2</v>
+      </c>
+      <c r="E13" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="86">
+        <v>1</v>
+      </c>
+      <c r="G13" s="75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1">
+      <c r="A14" s="75">
+        <v>0</v>
+      </c>
+      <c r="B14" s="75">
+        <v>16.3</v>
+      </c>
+      <c r="C14" s="75">
+        <v>0</v>
+      </c>
+      <c r="D14" s="75">
+        <v>0</v>
+      </c>
+      <c r="E14" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="104">
+        <v>0</v>
+      </c>
+      <c r="G14" s="75" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="75">
+        <v>1</v>
+      </c>
+      <c r="B15" s="75">
+        <v>0</v>
+      </c>
+      <c r="C15" s="75">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D15" s="75">
+        <v>1.2</v>
+      </c>
+      <c r="E15" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="104">
+        <v>1</v>
+      </c>
+      <c r="G15" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="88"/>
+      <c r="K15" s="75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1">
+      <c r="A16" s="75">
+        <v>2</v>
+      </c>
+      <c r="B16" s="75">
+        <v>0</v>
+      </c>
+      <c r="C16" s="75">
+        <v>1</v>
+      </c>
+      <c r="D16" s="75">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E16" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="108">
+        <v>0</v>
+      </c>
+      <c r="G16" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="91">
+        <f>(D5+E6+F7)/SUM(D5:F7)</f>
+        <v>0.95849056603773575</v>
+      </c>
+      <c r="J16" s="92">
+        <f>(K5+L6+M7)/SUM(K5:M7)</f>
+        <v>0.91698113207547172</v>
+      </c>
+      <c r="K16" s="75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="E17" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="111">
+        <v>0.93370165745856304</v>
+      </c>
+      <c r="I17" s="75">
+        <f>1-I16</f>
+        <v>4.1509433962264253E-2</v>
+      </c>
+      <c r="J17" s="75">
+        <f>1-J16</f>
+        <v>8.3018867924528283E-2</v>
+      </c>
+      <c r="K17" s="75" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="E18" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="112">
+        <v>2.8653295128939799E-2</v>
+      </c>
+      <c r="K18" s="75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="E19" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="112">
+        <v>0.97134670487106001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1">
+      <c r="E20" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="113">
+        <v>6.6298342541436406E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="E21" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="111">
+        <v>0.94623655913978499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="E22" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="112">
+        <v>3.4883720930232502E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="E23" s="110" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="112">
+        <v>0.96511627906976705</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1">
+      <c r="E24" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="113">
+        <v>5.3763440860214999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1"/>
+    <row r="27" spans="1:11">
+      <c r="B27" s="75">
+        <v>0</v>
+      </c>
+      <c r="C27" s="75">
+        <v>1</v>
+      </c>
+      <c r="D27" s="75">
+        <v>2</v>
+      </c>
+      <c r="E27" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="86">
+        <v>1</v>
+      </c>
+      <c r="G27" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="75" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="75">
+        <v>0</v>
+      </c>
+      <c r="B28" s="75">
+        <v>16.3</v>
+      </c>
+      <c r="C28" s="75">
+        <v>0</v>
+      </c>
+      <c r="D28" s="75">
+        <v>0</v>
+      </c>
+      <c r="E28" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="115">
+        <v>8.1743869209809205E-3</v>
+      </c>
+      <c r="G28" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="75">
+        <v>1</v>
+      </c>
+      <c r="B29" s="75">
+        <v>0.3</v>
+      </c>
+      <c r="C29" s="75">
+        <v>15.5</v>
+      </c>
+      <c r="D29" s="75">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E29" s="103" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="115">
+        <v>0.99182561307901895</v>
+      </c>
+      <c r="G29" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="75" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1">
+      <c r="A30" s="75">
+        <v>2</v>
+      </c>
+      <c r="B30" s="75">
+        <v>0</v>
+      </c>
+      <c r="C30" s="75">
+        <v>1.8</v>
+      </c>
+      <c r="D30" s="75">
+        <v>16.8</v>
+      </c>
+      <c r="E30" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="114">
+        <v>0</v>
+      </c>
+      <c r="G30" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" thickBot="1">
+      <c r="E31" s="109" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="111">
+        <v>0.85635359116022003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="88">
+        <v>16.3</v>
+      </c>
+      <c r="E32" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="112">
+        <v>5.1575931232091601E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="95">
+        <v>0</v>
+      </c>
+      <c r="E33" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="112">
+        <v>0.94842406876790797</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1">
+      <c r="A34" s="117" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="95">
+        <v>0.3</v>
+      </c>
+      <c r="E34" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="113">
+        <v>0.143646408839778</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1">
+      <c r="A35" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="118"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="92">
+        <f>SUM(C29:D30)</f>
+        <v>36.400000000000006</v>
+      </c>
+      <c r="E35" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="111">
+        <v>0.90322580645161199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="88">
+        <v>15.5</v>
+      </c>
+      <c r="E36" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="112">
+        <v>6.6860465116278994E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="117" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="95">
+        <v>2.6</v>
+      </c>
+      <c r="E37" s="119" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="112">
+        <v>0.93313953488372103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1">
+      <c r="A38" s="117" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="95">
+        <v>1.8</v>
+      </c>
+      <c r="E38" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="113">
+        <v>9.6774193548387094E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1">
+      <c r="A39" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="118"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="92">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="88">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="117" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="95">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="117" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="95">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1">
+      <c r="A43" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="118"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="92">
+        <v>32.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G5:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBE32DB-7336-4A91-9D53-2D456C062B5F}">
+  <dimension ref="A2:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="J2" s="106"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="106">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="106">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="106">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5">
+        <v>8.1743869209809205E-3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="106">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6">
+        <v>0.99182561307901895</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="106">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="106">
+        <v>0.93370165745856304</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>2.8653295128939799E-2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>0.97134670487106001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="106">
+        <v>0.85635359116022003</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>6.6298342541436406E-2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12">
+        <v>5.1575931232091601E-2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="F13">
+        <v>0.94842406876790797</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="106">
+        <v>0.94623655913978499</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14">
+        <v>0.143646408839778</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>3.4883720930232502E-2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>0.96511627906976705</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>5.3763440860214999E-2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="106">
+        <v>0.90322580645161199</v>
+      </c>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="106">
+        <v>0.90322580645161199</v>
+      </c>
+      <c r="J17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="F18">
+        <v>6.6860465116278994E-2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18">
+        <v>6.6860465116278994E-2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="F19">
+        <v>0.93313953488372103</v>
+      </c>
+      <c r="G19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19">
+        <v>0.93313953488372103</v>
+      </c>
+      <c r="J19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="F20">
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20">
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0290BF90-4B9C-4C55-AD7D-8A534F8FDFB9}">
   <dimension ref="C2:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:6">
-      <c r="C2" s="86"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="87"/>
-      <c r="F2" s="88"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="3:6">
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="72" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="70" t="s">
@@ -4458,7 +6147,7 @@
       <c r="E3" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="72" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4466,21 +6155,21 @@
       <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="83">
+      <c r="D4" s="71">
         <v>4.1509432999999998</v>
       </c>
-      <c r="E4" s="83">
+      <c r="E4" s="71">
         <v>8.3018867000000007</v>
       </c>
-      <c r="F4" s="83">
+      <c r="F4" s="71">
         <v>50.000000602272742</v>
       </c>
     </row>
     <row r="8" spans="3:6">
-      <c r="F8" s="86"/>
+      <c r="F8" s="73"/>
     </row>
     <row r="12" spans="3:6">
-      <c r="D12" s="86"/>
+      <c r="D12" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4490,7 +6179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7B795A-4209-41FA-8414-652B34EEF6E3}">
   <dimension ref="A1:R136"/>
   <sheetViews>
@@ -4498,10 +6187,10 @@
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -4509,12 +6198,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -7133,7 +8822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7083BF07-1AC4-41D3-97F4-EBDBFF07E078}">
   <dimension ref="A1:R100"/>
   <sheetViews>
@@ -7141,19 +8830,19 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -9611,7 +11300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAF0E33-89A0-41E3-BAC2-A12B5AA7D4DB}">
   <dimension ref="A1:R116"/>
   <sheetViews>
@@ -9619,9 +11308,9 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="10" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9630,12 +11319,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -12151,7 +13840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51FC46D-31CC-4642-B6ED-54142E865E85}">
   <dimension ref="A1:R100"/>
   <sheetViews>
@@ -12159,7 +13848,7 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
@@ -12169,12 +13858,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -14610,7 +16299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130C1626-F46B-4E63-BD76-6DAF8FD1642F}">
   <dimension ref="A1:R100"/>
   <sheetViews>
@@ -14618,7 +16307,7 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
@@ -14628,12 +16317,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -17069,7 +18758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0356319-D8E4-45A4-BC5C-DDD8D8911F3D}">
   <dimension ref="A1:R100"/>
   <sheetViews>
@@ -17077,7 +18766,7 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
@@ -17087,12 +18776,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -19528,7 +21217,2554 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0166B07-027D-478F-8A8A-718072FCAFF1}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:R110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="121" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7">
+        <v>2</v>
+      </c>
+      <c r="L2" s="7">
+        <v>3</v>
+      </c>
+      <c r="M2" s="7">
+        <v>4</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="F3" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G3" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <f>SUM(C3,C13,C23,C33,C43,C53,C63,C73,C83,C93)/10</f>
+        <v>4.9056602000000007</v>
+      </c>
+      <c r="K3" s="6">
+        <f>SUM(D3,D13,D23,D33,D43,D53,D63,D73,D83,D93)/10</f>
+        <v>4.9056601999999998</v>
+      </c>
+      <c r="L3" s="6">
+        <f>SUM(E3,E13,E23,E33,E43,E53,E63,E73,E83,E93)/10</f>
+        <v>4.3396224999999991</v>
+      </c>
+      <c r="M3" s="6">
+        <f>SUM(F3,F13,F23,F33,F43,F53,F63,F73,F83,F93)/10</f>
+        <v>6.0377357000000007</v>
+      </c>
+      <c r="N3" s="6">
+        <f>SUM(G3,G13,G23,G33,G43,G53,G63,G73,G83,G93)/10</f>
+        <v>5.6603772000000001</v>
+      </c>
+      <c r="P3">
+        <f>N3-J3</f>
+        <v>0.75471699999999942</v>
+      </c>
+      <c r="Q3">
+        <f>N3-K3</f>
+        <v>0.7547170000000003</v>
+      </c>
+      <c r="R3">
+        <f>N3-L3</f>
+        <v>1.3207547000000011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6">
+        <f>SUM(C4,C14,C24,C34,C44,C54,C64,C74,C84,C94)/10</f>
+        <v>5.0943394</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" ref="K4:K10" si="0">SUM(D4,D14,D24,D34,D44,D54,D64,D74,D84,D94)/10</f>
+        <v>5.2830187999999989</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" ref="L4:L10" si="1">SUM(E4,E14,E24,E34,E44,E54,E64,E74,E84,E94)/10</f>
+        <v>5.471698</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" ref="M4:M10" si="2">SUM(F4,F14,F24,F34,F44,F54,F64,F74,F84,F94)/10</f>
+        <v>5.2830187000000004</v>
+      </c>
+      <c r="N4" s="6">
+        <f t="shared" ref="N4:N10" si="3">SUM(G4,G14,G24,G34,G44,G54,G64,G74,G84,G94)/10</f>
+        <v>5.2830187000000004</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P10" si="4">N4-J4</f>
+        <v>0.18867930000000044</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q10" si="5">N4-K4</f>
+        <v>-9.9999998504074483E-8</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R10" si="6">N4-L4</f>
+        <v>-0.18867929999999955</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="D5" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="E5" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F5" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G5" s="4">
+        <v>11.320755</v>
+      </c>
+      <c r="I5" s="9">
+        <v>5</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" ref="J5:J10" si="7">SUM(C5,C15,C25,C35,C45,C55,C65,C75,C85,C95)/10</f>
+        <v>5.2830187999999989</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" si="0"/>
+        <v>4.7169809999999996</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="1"/>
+        <v>6.415094400000001</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="2"/>
+        <v>5.8490565000000005</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="3"/>
+        <v>6.9811320999999991</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>1.6981133000000002</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>2.2641510999999994</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="6"/>
+        <v>0.56603769999999809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F6" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G6" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="I6" s="9">
+        <v>10</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="7"/>
+        <v>5.6603770999999998</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="0"/>
+        <v>5.0943394000000009</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="1"/>
+        <v>4.5283016999999992</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="2"/>
+        <v>7.7358488999999988</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="3"/>
+        <v>6.7924525999999998</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>1.1320755</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>1.698113199999999</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="6"/>
+        <v>2.2641509000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4">
+        <v>11.320755</v>
+      </c>
+      <c r="D7" s="4">
+        <v>11.320755</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F7" s="4">
+        <v>13.207547</v>
+      </c>
+      <c r="G7" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="I7" s="9">
+        <v>20</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="7"/>
+        <v>7.3584904999999994</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="0"/>
+        <v>7.3584904999999994</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="1"/>
+        <v>7.7358489999999991</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="2"/>
+        <v>9.0566037000000001</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="3"/>
+        <v>7.9245281999999992</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>0.56603769999999987</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>0.56603769999999987</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>0.18867920000000016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4">
+        <v>20.754716999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <v>16.981131999999999</v>
+      </c>
+      <c r="E8" s="4">
+        <v>18.867925</v>
+      </c>
+      <c r="F8" s="4">
+        <v>20.754716999999999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>16.981131999999999</v>
+      </c>
+      <c r="I8" s="9">
+        <v>30</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="7"/>
+        <v>10.754716899999998</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="0"/>
+        <v>10.377358399999999</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="1"/>
+        <v>9.0566037999999995</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="2"/>
+        <v>12.075471699999998</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="3"/>
+        <v>11.509434100000002</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>0.75471720000000353</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>1.1320757000000032</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>2.4528303000000022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4">
+        <v>26.415094</v>
+      </c>
+      <c r="D9" s="4">
+        <v>18.867925</v>
+      </c>
+      <c r="E9" s="4">
+        <v>24.528302</v>
+      </c>
+      <c r="F9" s="4">
+        <v>22.641508999999999</v>
+      </c>
+      <c r="G9" s="4">
+        <v>20.754716999999999</v>
+      </c>
+      <c r="I9" s="9">
+        <v>40</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="7"/>
+        <v>26.981132099999996</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="0"/>
+        <v>25.283018999999999</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="1"/>
+        <v>20.188679299999997</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="2"/>
+        <v>25.094339599999998</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="3"/>
+        <v>20.943396299999996</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>-6.0377358000000001</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>-4.3396227000000032</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="6"/>
+        <v>0.75471699999999942</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>50</v>
+      </c>
+      <c r="C10" s="4">
+        <v>50.943396</v>
+      </c>
+      <c r="D10" s="4">
+        <v>50.943396</v>
+      </c>
+      <c r="E10" s="4">
+        <v>45.283019000000003</v>
+      </c>
+      <c r="F10" s="4">
+        <v>50.943396</v>
+      </c>
+      <c r="G10" s="4">
+        <v>62.264150999999998</v>
+      </c>
+      <c r="I10" s="9">
+        <v>50</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="7"/>
+        <v>43.396226400000003</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="0"/>
+        <v>40.377358599999994</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="1"/>
+        <v>43.584905599999999</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="2"/>
+        <v>47.735848899999993</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="3"/>
+        <v>51.509433999999999</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>8.1132075999999955</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>11.132075400000005</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="6"/>
+        <v>7.9245283999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="O12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12">
+        <f>SUM(P3:P10)/7</f>
+        <v>1.0242588285714285</v>
+      </c>
+      <c r="Q12">
+        <f>SUM(Q3:Q10)/7</f>
+        <v>1.8867924714285722</v>
+      </c>
+      <c r="R12" s="13">
+        <f>SUM(R3:R10)/7</f>
+        <v>2.1832884142857147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="3">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="E13" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="F13" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G13" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="D14" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="E14" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="F14" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G14" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="D15" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="E15" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="F15" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G15" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="3">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="D16" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="E16" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="F16" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G16" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="D17" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="E17" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F17" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G17" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="D18" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="E18" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F18" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G18" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4">
+        <v>40</v>
+      </c>
+      <c r="C19" s="4">
+        <v>16.981131999999999</v>
+      </c>
+      <c r="D19" s="4">
+        <v>16.981131999999999</v>
+      </c>
+      <c r="E19" s="4">
+        <v>16.981131999999999</v>
+      </c>
+      <c r="F19" s="4">
+        <v>30.188679</v>
+      </c>
+      <c r="G19" s="4">
+        <v>24.528302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4">
+        <v>50</v>
+      </c>
+      <c r="C20" s="4">
+        <v>67.924527999999995</v>
+      </c>
+      <c r="D20" s="4">
+        <v>56.603774000000001</v>
+      </c>
+      <c r="E20" s="4">
+        <v>50.943396</v>
+      </c>
+      <c r="F20" s="4">
+        <v>60.377358000000001</v>
+      </c>
+      <c r="G20" s="4">
+        <v>64.150942999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3">
+        <v>0</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1.886792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1.886792</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4">
+        <v>5</v>
+      </c>
+      <c r="C25" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="E25" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F25" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G25" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4">
+        <v>10</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1.886792</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3">
+        <v>4</v>
+      </c>
+      <c r="B27" s="4">
+        <v>20</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="E27" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="F27" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="G27" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3">
+        <v>5</v>
+      </c>
+      <c r="B28" s="4">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="D28" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="E28" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F28" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G28" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3">
+        <v>6</v>
+      </c>
+      <c r="B29" s="4">
+        <v>40</v>
+      </c>
+      <c r="C29" s="4">
+        <v>16.981131999999999</v>
+      </c>
+      <c r="D29" s="4">
+        <v>11.320755</v>
+      </c>
+      <c r="E29" s="4">
+        <v>13.207547</v>
+      </c>
+      <c r="F29" s="4">
+        <v>24.528302</v>
+      </c>
+      <c r="G29" s="4">
+        <v>24.528302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4">
+        <v>50</v>
+      </c>
+      <c r="C30" s="4">
+        <v>58.490566000000001</v>
+      </c>
+      <c r="D30" s="4">
+        <v>49.056604</v>
+      </c>
+      <c r="E30" s="4">
+        <v>41.509433999999999</v>
+      </c>
+      <c r="F30" s="4">
+        <v>52.830188999999997</v>
+      </c>
+      <c r="G30" s="4">
+        <v>50.943396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2">
+        <v>4</v>
+      </c>
+      <c r="G32" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3">
+        <v>0</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E33" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F33" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="G33" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E34" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F34" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="G34" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4">
+        <v>5</v>
+      </c>
+      <c r="C35" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="D35" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="E35" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F35" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="G35" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="3">
+        <v>3</v>
+      </c>
+      <c r="B36" s="4">
+        <v>10</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D36" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="E36" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F36" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G36" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="3">
+        <v>4</v>
+      </c>
+      <c r="B37" s="4">
+        <v>20</v>
+      </c>
+      <c r="C37" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="D37" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="E37" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="F37" s="4">
+        <v>11.320755</v>
+      </c>
+      <c r="G37" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3">
+        <v>5</v>
+      </c>
+      <c r="B38" s="4">
+        <v>30</v>
+      </c>
+      <c r="C38" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="D38" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E38" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F38" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="G38" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="3">
+        <v>6</v>
+      </c>
+      <c r="B39" s="4">
+        <v>40</v>
+      </c>
+      <c r="C39" s="4">
+        <v>33.962263999999998</v>
+      </c>
+      <c r="D39" s="4">
+        <v>33.962263999999998</v>
+      </c>
+      <c r="E39" s="4">
+        <v>13.207547</v>
+      </c>
+      <c r="F39" s="4">
+        <v>33.962263999999998</v>
+      </c>
+      <c r="G39" s="4">
+        <v>13.207547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="3">
+        <v>7</v>
+      </c>
+      <c r="B40" s="4">
+        <v>50</v>
+      </c>
+      <c r="C40" s="4">
+        <v>30.188679</v>
+      </c>
+      <c r="D40" s="4">
+        <v>41.509433999999999</v>
+      </c>
+      <c r="E40" s="4">
+        <v>26.415094</v>
+      </c>
+      <c r="F40" s="4">
+        <v>30.188679</v>
+      </c>
+      <c r="G40" s="4">
+        <v>52.830188999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2">
+        <v>4</v>
+      </c>
+      <c r="G42" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>0</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="D43" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="E43" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F43" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G43" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>1</v>
+      </c>
+      <c r="B44" s="4">
+        <v>2</v>
+      </c>
+      <c r="C44" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="D44" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="E44" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F44" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G44" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3">
+        <v>2</v>
+      </c>
+      <c r="B45" s="4">
+        <v>5</v>
+      </c>
+      <c r="C45" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="D45" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E45" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F45" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G45" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="3">
+        <v>3</v>
+      </c>
+      <c r="B46" s="4">
+        <v>10</v>
+      </c>
+      <c r="C46" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="D46" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="E46" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F46" s="4">
+        <v>15.094340000000001</v>
+      </c>
+      <c r="G46" s="4">
+        <v>11.320755</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="3">
+        <v>4</v>
+      </c>
+      <c r="B47" s="4">
+        <v>20</v>
+      </c>
+      <c r="C47" s="4">
+        <v>15.094340000000001</v>
+      </c>
+      <c r="D47" s="4">
+        <v>16.981131999999999</v>
+      </c>
+      <c r="E47" s="4">
+        <v>16.981131999999999</v>
+      </c>
+      <c r="F47" s="4">
+        <v>11.320755</v>
+      </c>
+      <c r="G47" s="4">
+        <v>13.207547</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="3">
+        <v>5</v>
+      </c>
+      <c r="B48" s="4">
+        <v>30</v>
+      </c>
+      <c r="C48" s="4">
+        <v>13.207547</v>
+      </c>
+      <c r="D48" s="4">
+        <v>13.207547</v>
+      </c>
+      <c r="E48" s="4">
+        <v>13.207547</v>
+      </c>
+      <c r="F48" s="4">
+        <v>16.981131999999999</v>
+      </c>
+      <c r="G48" s="4">
+        <v>16.981131999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="3">
+        <v>6</v>
+      </c>
+      <c r="B49" s="4">
+        <v>40</v>
+      </c>
+      <c r="C49" s="4">
+        <v>26.415094</v>
+      </c>
+      <c r="D49" s="4">
+        <v>28.301887000000001</v>
+      </c>
+      <c r="E49" s="4">
+        <v>28.301887000000001</v>
+      </c>
+      <c r="F49" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G49" s="4">
+        <v>28.301887000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="3">
+        <v>7</v>
+      </c>
+      <c r="B50" s="4">
+        <v>50</v>
+      </c>
+      <c r="C50" s="4">
+        <v>32.075471999999998</v>
+      </c>
+      <c r="D50" s="4">
+        <v>32.075471999999998</v>
+      </c>
+      <c r="E50" s="4">
+        <v>54.716980999999997</v>
+      </c>
+      <c r="F50" s="4">
+        <v>43.396225999999999</v>
+      </c>
+      <c r="G50" s="4">
+        <v>50.943396</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2">
+        <v>3</v>
+      </c>
+      <c r="F52" s="2">
+        <v>4</v>
+      </c>
+      <c r="G52" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="3">
+        <v>0</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
+      <c r="C53" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="E53" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="F53" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1.886792</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="3">
+        <v>1</v>
+      </c>
+      <c r="B54" s="4">
+        <v>2</v>
+      </c>
+      <c r="C54" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="E54" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="G54" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="3">
+        <v>2</v>
+      </c>
+      <c r="B55" s="4">
+        <v>5</v>
+      </c>
+      <c r="C55" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="D55" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="E55" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F55" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="G55" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="3">
+        <v>3</v>
+      </c>
+      <c r="B56" s="4">
+        <v>10</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1.886792</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="3">
+        <v>4</v>
+      </c>
+      <c r="B57" s="4">
+        <v>20</v>
+      </c>
+      <c r="C57" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="D57" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="E57" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="F57" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G57" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="3">
+        <v>5</v>
+      </c>
+      <c r="B58" s="4">
+        <v>30</v>
+      </c>
+      <c r="C58" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="D58" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="F58" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="G58" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="3">
+        <v>6</v>
+      </c>
+      <c r="B59" s="4">
+        <v>40</v>
+      </c>
+      <c r="C59" s="4">
+        <v>28.301887000000001</v>
+      </c>
+      <c r="D59" s="4">
+        <v>28.301887000000001</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="F59" s="4">
+        <v>28.301887000000001</v>
+      </c>
+      <c r="G59" s="4">
+        <v>28.301887000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="3">
+        <v>7</v>
+      </c>
+      <c r="B60" s="4">
+        <v>50</v>
+      </c>
+      <c r="C60" s="4">
+        <v>43.396225999999999</v>
+      </c>
+      <c r="D60" s="4">
+        <v>39.622641999999999</v>
+      </c>
+      <c r="E60" s="4">
+        <v>32.075471999999998</v>
+      </c>
+      <c r="F60" s="4">
+        <v>33.962263999999998</v>
+      </c>
+      <c r="G60" s="4">
+        <v>33.962263999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2">
+        <v>3</v>
+      </c>
+      <c r="F62" s="2">
+        <v>4</v>
+      </c>
+      <c r="G62" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="3">
+        <v>0</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="D63" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="E63" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F63" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G63" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="3">
+        <v>1</v>
+      </c>
+      <c r="B64" s="4">
+        <v>2</v>
+      </c>
+      <c r="C64" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="D64" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="E64" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="F64" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G64" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="3">
+        <v>2</v>
+      </c>
+      <c r="B65" s="4">
+        <v>5</v>
+      </c>
+      <c r="C65" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="D65" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="E65" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="F65" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G65" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="3">
+        <v>3</v>
+      </c>
+      <c r="B66" s="4">
+        <v>10</v>
+      </c>
+      <c r="C66" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="D66" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="E66" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="F66" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G66" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="3">
+        <v>4</v>
+      </c>
+      <c r="B67" s="4">
+        <v>20</v>
+      </c>
+      <c r="C67" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="D67" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="E67" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="F67" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G67" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="3">
+        <v>5</v>
+      </c>
+      <c r="B68" s="4">
+        <v>30</v>
+      </c>
+      <c r="C68" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="D68" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="E68" s="4">
+        <v>11.320755</v>
+      </c>
+      <c r="F68" s="4">
+        <v>26.415094</v>
+      </c>
+      <c r="G68" s="4">
+        <v>11.320755</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="3">
+        <v>6</v>
+      </c>
+      <c r="B69" s="4">
+        <v>40</v>
+      </c>
+      <c r="C69" s="4">
+        <v>28.301887000000001</v>
+      </c>
+      <c r="D69" s="4">
+        <v>16.981131999999999</v>
+      </c>
+      <c r="E69" s="4">
+        <v>24.528302</v>
+      </c>
+      <c r="F69" s="4">
+        <v>24.528302</v>
+      </c>
+      <c r="G69" s="4">
+        <v>30.188679</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="3">
+        <v>7</v>
+      </c>
+      <c r="B70" s="4">
+        <v>50</v>
+      </c>
+      <c r="C70" s="4">
+        <v>35.849057000000002</v>
+      </c>
+      <c r="D70" s="4">
+        <v>35.849057000000002</v>
+      </c>
+      <c r="E70" s="4">
+        <v>41.509433999999999</v>
+      </c>
+      <c r="F70" s="4">
+        <v>66.037735999999995</v>
+      </c>
+      <c r="G70" s="4">
+        <v>66.037735999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2">
+        <v>2</v>
+      </c>
+      <c r="E72" s="2">
+        <v>3</v>
+      </c>
+      <c r="F72" s="2">
+        <v>4</v>
+      </c>
+      <c r="G72" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="3">
+        <v>0</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="G73" s="4">
+        <v>1.886792</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="3">
+        <v>1</v>
+      </c>
+      <c r="B74" s="4">
+        <v>2</v>
+      </c>
+      <c r="C74" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D74" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="G74" s="4">
+        <v>1.886792</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="3">
+        <v>2</v>
+      </c>
+      <c r="B75" s="4">
+        <v>5</v>
+      </c>
+      <c r="C75" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="G75" s="4">
+        <v>1.886792</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="3">
+        <v>3</v>
+      </c>
+      <c r="B76" s="4">
+        <v>10</v>
+      </c>
+      <c r="C76" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="F76" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G76" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="3">
+        <v>4</v>
+      </c>
+      <c r="B77" s="4">
+        <v>20</v>
+      </c>
+      <c r="C77" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="D77" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E77" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F77" s="4">
+        <v>11.320755</v>
+      </c>
+      <c r="G77" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="3">
+        <v>5</v>
+      </c>
+      <c r="B78" s="4">
+        <v>30</v>
+      </c>
+      <c r="C78" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="D78" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E78" s="4">
+        <v>13.207547</v>
+      </c>
+      <c r="F78" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="G78" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="3">
+        <v>6</v>
+      </c>
+      <c r="B79" s="4">
+        <v>40</v>
+      </c>
+      <c r="C79" s="4">
+        <v>11.320755</v>
+      </c>
+      <c r="D79" s="4">
+        <v>35.849057000000002</v>
+      </c>
+      <c r="E79" s="4">
+        <v>18.867925</v>
+      </c>
+      <c r="F79" s="4">
+        <v>33.962263999999998</v>
+      </c>
+      <c r="G79" s="4">
+        <v>16.981131999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="3">
+        <v>7</v>
+      </c>
+      <c r="B80" s="4">
+        <v>50</v>
+      </c>
+      <c r="C80" s="4">
+        <v>45.283019000000003</v>
+      </c>
+      <c r="D80" s="4">
+        <v>33.962263999999998</v>
+      </c>
+      <c r="E80" s="4">
+        <v>47.169811000000003</v>
+      </c>
+      <c r="F80" s="4">
+        <v>30.188679</v>
+      </c>
+      <c r="G80" s="4">
+        <v>49.056604</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2">
+        <v>2</v>
+      </c>
+      <c r="E82" s="2">
+        <v>3</v>
+      </c>
+      <c r="F82" s="2">
+        <v>4</v>
+      </c>
+      <c r="G82" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="3">
+        <v>0</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0</v>
+      </c>
+      <c r="C83" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D83" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="E83" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F83" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="G83" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="3">
+        <v>1</v>
+      </c>
+      <c r="B84" s="4">
+        <v>2</v>
+      </c>
+      <c r="C84" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D84" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E84" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="F84" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="G84" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="3">
+        <v>2</v>
+      </c>
+      <c r="B85" s="4">
+        <v>5</v>
+      </c>
+      <c r="C85" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="D85" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E85" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F85" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="G85" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="3">
+        <v>3</v>
+      </c>
+      <c r="B86" s="4">
+        <v>10</v>
+      </c>
+      <c r="C86" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="F86" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="G86" s="4">
+        <v>1.886792</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="3">
+        <v>4</v>
+      </c>
+      <c r="B87" s="4">
+        <v>20</v>
+      </c>
+      <c r="C87" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D87" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E87" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="G87" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="3">
+        <v>5</v>
+      </c>
+      <c r="B88" s="4">
+        <v>30</v>
+      </c>
+      <c r="C88" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="D88" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="E88" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="F88" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G88" s="4">
+        <v>11.320755</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="3">
+        <v>6</v>
+      </c>
+      <c r="B89" s="4">
+        <v>40</v>
+      </c>
+      <c r="C89" s="4">
+        <v>32.075471999999998</v>
+      </c>
+      <c r="D89" s="4">
+        <v>13.207547</v>
+      </c>
+      <c r="E89" s="4">
+        <v>11.320755</v>
+      </c>
+      <c r="F89" s="4">
+        <v>15.094340000000001</v>
+      </c>
+      <c r="G89" s="4">
+        <v>15.094340000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="3">
+        <v>7</v>
+      </c>
+      <c r="B90" s="4">
+        <v>50</v>
+      </c>
+      <c r="C90" s="4">
+        <v>13.207547</v>
+      </c>
+      <c r="D90" s="4">
+        <v>13.207547</v>
+      </c>
+      <c r="E90" s="4">
+        <v>33.962263999999998</v>
+      </c>
+      <c r="F90" s="4">
+        <v>50.943396</v>
+      </c>
+      <c r="G90" s="4">
+        <v>18.867925</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2">
+        <v>2</v>
+      </c>
+      <c r="E92" s="2">
+        <v>3</v>
+      </c>
+      <c r="F92" s="2">
+        <v>4</v>
+      </c>
+      <c r="G92" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="3">
+        <v>0</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0</v>
+      </c>
+      <c r="C93" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="D93" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E93" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F93" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G93" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="3">
+        <v>1</v>
+      </c>
+      <c r="B94" s="4">
+        <v>2</v>
+      </c>
+      <c r="C94" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="D94" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E94" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F94" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G94" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="3">
+        <v>2</v>
+      </c>
+      <c r="B95" s="4">
+        <v>5</v>
+      </c>
+      <c r="C95" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="D95" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E95" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F95" s="4">
+        <v>0</v>
+      </c>
+      <c r="G95" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="3">
+        <v>3</v>
+      </c>
+      <c r="B96" s="4">
+        <v>10</v>
+      </c>
+      <c r="C96" s="4">
+        <v>11.320755</v>
+      </c>
+      <c r="D96" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="E96" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F96" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G96" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="3">
+        <v>4</v>
+      </c>
+      <c r="B97" s="4">
+        <v>20</v>
+      </c>
+      <c r="C97" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="D97" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="E97" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F97" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G97" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="3">
+        <v>5</v>
+      </c>
+      <c r="B98" s="4">
+        <v>30</v>
+      </c>
+      <c r="C98" s="4">
+        <v>26.415094</v>
+      </c>
+      <c r="D98" s="4">
+        <v>26.415094</v>
+      </c>
+      <c r="E98" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F98" s="4">
+        <v>18.867925</v>
+      </c>
+      <c r="G98" s="4">
+        <v>28.301887000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="3">
+        <v>6</v>
+      </c>
+      <c r="B99" s="4">
+        <v>40</v>
+      </c>
+      <c r="C99" s="4">
+        <v>49.056604</v>
+      </c>
+      <c r="D99" s="4">
+        <v>49.056604</v>
+      </c>
+      <c r="E99" s="4">
+        <v>49.056604</v>
+      </c>
+      <c r="F99" s="4">
+        <v>30.188679</v>
+      </c>
+      <c r="G99" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="3">
+        <v>7</v>
+      </c>
+      <c r="B100" s="4">
+        <v>50</v>
+      </c>
+      <c r="C100" s="4">
+        <v>56.603774000000001</v>
+      </c>
+      <c r="D100" s="4">
+        <v>50.943396</v>
+      </c>
+      <c r="E100" s="4">
+        <v>62.264150999999998</v>
+      </c>
+      <c r="F100" s="4">
+        <v>58.490566000000001</v>
+      </c>
+      <c r="G100" s="4">
+        <v>66.037735999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="3"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="3"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="3"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="3"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="3"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="3"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="3"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="3"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:M1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J3:N10">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
+      <formula>$N3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70B03EC-CF93-4382-A319-A74A800EBC9B}">
   <dimension ref="A1:R100"/>
   <sheetViews>
@@ -19536,12 +23772,12 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -19549,12 +23785,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -21995,2553 +26231,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0166B07-027D-478F-8A8A-718072FCAFF1}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:R110"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="7">
-        <v>1</v>
-      </c>
-      <c r="K2" s="7">
-        <v>2</v>
-      </c>
-      <c r="L2" s="7">
-        <v>3</v>
-      </c>
-      <c r="M2" s="7">
-        <v>4</v>
-      </c>
-      <c r="N2" s="8"/>
-      <c r="P2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="D3" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="E3" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="F3" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G3" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <f>SUM(C3,C13,C23,C33,C43,C53,C63,C73,C83,C93)/10</f>
-        <v>4.9056602000000007</v>
-      </c>
-      <c r="K3" s="6">
-        <f>SUM(D3,D13,D23,D33,D43,D53,D63,D73,D83,D93)/10</f>
-        <v>4.9056601999999998</v>
-      </c>
-      <c r="L3" s="6">
-        <f>SUM(E3,E13,E23,E33,E43,E53,E63,E73,E83,E93)/10</f>
-        <v>4.3396224999999991</v>
-      </c>
-      <c r="M3" s="6">
-        <f>SUM(F3,F13,F23,F33,F43,F53,F63,F73,F83,F93)/10</f>
-        <v>6.0377357000000007</v>
-      </c>
-      <c r="N3" s="6">
-        <f>SUM(G3,G13,G23,G33,G43,G53,G63,G73,G83,G93)/10</f>
-        <v>5.6603772000000001</v>
-      </c>
-      <c r="P3">
-        <f>N3-J3</f>
-        <v>0.75471699999999942</v>
-      </c>
-      <c r="Q3">
-        <f>N3-K3</f>
-        <v>0.7547170000000003</v>
-      </c>
-      <c r="R3">
-        <f>N3-L3</f>
-        <v>1.3207547000000011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="D4" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="E4" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="I4" s="9">
-        <v>2</v>
-      </c>
-      <c r="J4" s="6">
-        <f>SUM(C4,C14,C24,C34,C44,C54,C64,C74,C84,C94)/10</f>
-        <v>5.0943394</v>
-      </c>
-      <c r="K4" s="6">
-        <f t="shared" ref="K4:K10" si="0">SUM(D4,D14,D24,D34,D44,D54,D64,D74,D84,D94)/10</f>
-        <v>5.2830187999999989</v>
-      </c>
-      <c r="L4" s="6">
-        <f t="shared" ref="L4:L10" si="1">SUM(E4,E14,E24,E34,E44,E54,E64,E74,E84,E94)/10</f>
-        <v>5.471698</v>
-      </c>
-      <c r="M4" s="6">
-        <f t="shared" ref="M4:M10" si="2">SUM(F4,F14,F24,F34,F44,F54,F64,F74,F84,F94)/10</f>
-        <v>5.2830187000000004</v>
-      </c>
-      <c r="N4" s="6">
-        <f t="shared" ref="N4:N10" si="3">SUM(G4,G14,G24,G34,G44,G54,G64,G74,G84,G94)/10</f>
-        <v>5.2830187000000004</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P10" si="4">N4-J4</f>
-        <v>0.18867930000000044</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q10" si="5">N4-K4</f>
-        <v>-9.9999998504074483E-8</v>
-      </c>
-      <c r="R4">
-        <f t="shared" ref="R4:R10" si="6">N4-L4</f>
-        <v>-0.18867929999999955</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="D5" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="E5" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F5" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G5" s="4">
-        <v>11.320755</v>
-      </c>
-      <c r="I5" s="9">
-        <v>5</v>
-      </c>
-      <c r="J5" s="6">
-        <f t="shared" ref="J5:J10" si="7">SUM(C5,C15,C25,C35,C45,C55,C65,C75,C85,C95)/10</f>
-        <v>5.2830187999999989</v>
-      </c>
-      <c r="K5" s="6">
-        <f t="shared" si="0"/>
-        <v>4.7169809999999996</v>
-      </c>
-      <c r="L5" s="6">
-        <f t="shared" si="1"/>
-        <v>6.415094400000001</v>
-      </c>
-      <c r="M5" s="6">
-        <f t="shared" si="2"/>
-        <v>5.8490565000000005</v>
-      </c>
-      <c r="N5" s="6">
-        <f t="shared" si="3"/>
-        <v>6.9811320999999991</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="4"/>
-        <v>1.6981133000000002</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="5"/>
-        <v>2.2641510999999994</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="6"/>
-        <v>0.56603769999999809</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="D6" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F6" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G6" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="I6" s="9">
-        <v>10</v>
-      </c>
-      <c r="J6" s="6">
-        <f t="shared" si="7"/>
-        <v>5.6603770999999998</v>
-      </c>
-      <c r="K6" s="6">
-        <f t="shared" si="0"/>
-        <v>5.0943394000000009</v>
-      </c>
-      <c r="L6" s="6">
-        <f t="shared" si="1"/>
-        <v>4.5283016999999992</v>
-      </c>
-      <c r="M6" s="6">
-        <f t="shared" si="2"/>
-        <v>7.7358488999999988</v>
-      </c>
-      <c r="N6" s="6">
-        <f t="shared" si="3"/>
-        <v>6.7924525999999998</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="4"/>
-        <v>1.1320755</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="5"/>
-        <v>1.698113199999999</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="6"/>
-        <v>2.2641509000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4">
-        <v>11.320755</v>
-      </c>
-      <c r="D7" s="4">
-        <v>11.320755</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F7" s="4">
-        <v>13.207547</v>
-      </c>
-      <c r="G7" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="I7" s="9">
-        <v>20</v>
-      </c>
-      <c r="J7" s="6">
-        <f t="shared" si="7"/>
-        <v>7.3584904999999994</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" si="0"/>
-        <v>7.3584904999999994</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" si="1"/>
-        <v>7.7358489999999991</v>
-      </c>
-      <c r="M7" s="6">
-        <f t="shared" si="2"/>
-        <v>9.0566037000000001</v>
-      </c>
-      <c r="N7" s="6">
-        <f t="shared" si="3"/>
-        <v>7.9245281999999992</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="4"/>
-        <v>0.56603769999999987</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="5"/>
-        <v>0.56603769999999987</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="6"/>
-        <v>0.18867920000000016</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4">
-        <v>20.754716999999999</v>
-      </c>
-      <c r="D8" s="4">
-        <v>16.981131999999999</v>
-      </c>
-      <c r="E8" s="4">
-        <v>18.867925</v>
-      </c>
-      <c r="F8" s="4">
-        <v>20.754716999999999</v>
-      </c>
-      <c r="G8" s="4">
-        <v>16.981131999999999</v>
-      </c>
-      <c r="I8" s="9">
-        <v>30</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="7"/>
-        <v>10.754716899999998</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="0"/>
-        <v>10.377358399999999</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" si="1"/>
-        <v>9.0566037999999995</v>
-      </c>
-      <c r="M8" s="6">
-        <f t="shared" si="2"/>
-        <v>12.075471699999998</v>
-      </c>
-      <c r="N8" s="6">
-        <f t="shared" si="3"/>
-        <v>11.509434100000002</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="4"/>
-        <v>0.75471720000000353</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="5"/>
-        <v>1.1320757000000032</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="6"/>
-        <v>2.4528303000000022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>40</v>
-      </c>
-      <c r="C9" s="4">
-        <v>26.415094</v>
-      </c>
-      <c r="D9" s="4">
-        <v>18.867925</v>
-      </c>
-      <c r="E9" s="4">
-        <v>24.528302</v>
-      </c>
-      <c r="F9" s="4">
-        <v>22.641508999999999</v>
-      </c>
-      <c r="G9" s="4">
-        <v>20.754716999999999</v>
-      </c>
-      <c r="I9" s="9">
-        <v>40</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="7"/>
-        <v>26.981132099999996</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" si="0"/>
-        <v>25.283018999999999</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" si="1"/>
-        <v>20.188679299999997</v>
-      </c>
-      <c r="M9" s="6">
-        <f t="shared" si="2"/>
-        <v>25.094339599999998</v>
-      </c>
-      <c r="N9" s="6">
-        <f t="shared" si="3"/>
-        <v>20.943396299999996</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="4"/>
-        <v>-6.0377358000000001</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="5"/>
-        <v>-4.3396227000000032</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="6"/>
-        <v>0.75471699999999942</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4">
-        <v>50</v>
-      </c>
-      <c r="C10" s="4">
-        <v>50.943396</v>
-      </c>
-      <c r="D10" s="4">
-        <v>50.943396</v>
-      </c>
-      <c r="E10" s="4">
-        <v>45.283019000000003</v>
-      </c>
-      <c r="F10" s="4">
-        <v>50.943396</v>
-      </c>
-      <c r="G10" s="4">
-        <v>62.264150999999998</v>
-      </c>
-      <c r="I10" s="9">
-        <v>50</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" si="7"/>
-        <v>43.396226400000003</v>
-      </c>
-      <c r="K10" s="6">
-        <f t="shared" si="0"/>
-        <v>40.377358599999994</v>
-      </c>
-      <c r="L10" s="6">
-        <f t="shared" si="1"/>
-        <v>43.584905599999999</v>
-      </c>
-      <c r="M10" s="6">
-        <f t="shared" si="2"/>
-        <v>47.735848899999993</v>
-      </c>
-      <c r="N10" s="6">
-        <f t="shared" si="3"/>
-        <v>51.509433999999999</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="4"/>
-        <v>8.1132075999999955</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="5"/>
-        <v>11.132075400000005</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="6"/>
-        <v>7.9245283999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2">
-        <v>4</v>
-      </c>
-      <c r="G12" s="2">
-        <v>5</v>
-      </c>
-      <c r="O12" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12">
-        <f>SUM(P3:P10)/7</f>
-        <v>1.0242588285714285</v>
-      </c>
-      <c r="Q12">
-        <f>SUM(Q3:Q10)/7</f>
-        <v>1.8867924714285722</v>
-      </c>
-      <c r="R12" s="13">
-        <f>SUM(R3:R10)/7</f>
-        <v>2.1832884142857147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="3">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="D13" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="E13" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="F13" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G13" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="D14" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="E14" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="F14" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G14" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4">
-        <v>5</v>
-      </c>
-      <c r="C15" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="D15" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="E15" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="F15" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G15" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="3">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="D16" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="E16" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="F16" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G16" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="D17" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="E17" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F17" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G17" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4">
-        <v>30</v>
-      </c>
-      <c r="C18" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="D18" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="E18" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F18" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G18" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3">
-        <v>6</v>
-      </c>
-      <c r="B19" s="4">
-        <v>40</v>
-      </c>
-      <c r="C19" s="4">
-        <v>16.981131999999999</v>
-      </c>
-      <c r="D19" s="4">
-        <v>16.981131999999999</v>
-      </c>
-      <c r="E19" s="4">
-        <v>16.981131999999999</v>
-      </c>
-      <c r="F19" s="4">
-        <v>30.188679</v>
-      </c>
-      <c r="G19" s="4">
-        <v>24.528302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3">
-        <v>7</v>
-      </c>
-      <c r="B20" s="4">
-        <v>50</v>
-      </c>
-      <c r="C20" s="4">
-        <v>67.924527999999995</v>
-      </c>
-      <c r="D20" s="4">
-        <v>56.603774000000001</v>
-      </c>
-      <c r="E20" s="4">
-        <v>50.943396</v>
-      </c>
-      <c r="F20" s="4">
-        <v>60.377358000000001</v>
-      </c>
-      <c r="G20" s="4">
-        <v>64.150942999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>3</v>
-      </c>
-      <c r="F22" s="2">
-        <v>4</v>
-      </c>
-      <c r="G22" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="3">
-        <v>0</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1.886792</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="3">
-        <v>1</v>
-      </c>
-      <c r="B24" s="4">
-        <v>2</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="E24" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1.886792</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="3">
-        <v>2</v>
-      </c>
-      <c r="B25" s="4">
-        <v>5</v>
-      </c>
-      <c r="C25" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="E25" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F25" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G25" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="3">
-        <v>3</v>
-      </c>
-      <c r="B26" s="4">
-        <v>10</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="G26" s="4">
-        <v>1.886792</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="3">
-        <v>4</v>
-      </c>
-      <c r="B27" s="4">
-        <v>20</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="E27" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="F27" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="G27" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="3">
-        <v>5</v>
-      </c>
-      <c r="B28" s="4">
-        <v>30</v>
-      </c>
-      <c r="C28" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="D28" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="E28" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F28" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G28" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="3">
-        <v>6</v>
-      </c>
-      <c r="B29" s="4">
-        <v>40</v>
-      </c>
-      <c r="C29" s="4">
-        <v>16.981131999999999</v>
-      </c>
-      <c r="D29" s="4">
-        <v>11.320755</v>
-      </c>
-      <c r="E29" s="4">
-        <v>13.207547</v>
-      </c>
-      <c r="F29" s="4">
-        <v>24.528302</v>
-      </c>
-      <c r="G29" s="4">
-        <v>24.528302</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="3">
-        <v>7</v>
-      </c>
-      <c r="B30" s="4">
-        <v>50</v>
-      </c>
-      <c r="C30" s="4">
-        <v>58.490566000000001</v>
-      </c>
-      <c r="D30" s="4">
-        <v>49.056604</v>
-      </c>
-      <c r="E30" s="4">
-        <v>41.509433999999999</v>
-      </c>
-      <c r="F30" s="4">
-        <v>52.830188999999997</v>
-      </c>
-      <c r="G30" s="4">
-        <v>50.943396</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2">
-        <v>3</v>
-      </c>
-      <c r="F32" s="2">
-        <v>4</v>
-      </c>
-      <c r="G32" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="3">
-        <v>0</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0</v>
-      </c>
-      <c r="C33" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="D33" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E33" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F33" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="G33" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="3">
-        <v>1</v>
-      </c>
-      <c r="B34" s="4">
-        <v>2</v>
-      </c>
-      <c r="C34" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="D34" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E34" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F34" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="G34" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="3">
-        <v>2</v>
-      </c>
-      <c r="B35" s="4">
-        <v>5</v>
-      </c>
-      <c r="C35" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="D35" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="E35" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F35" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="G35" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="3">
-        <v>3</v>
-      </c>
-      <c r="B36" s="4">
-        <v>10</v>
-      </c>
-      <c r="C36" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D36" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="E36" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F36" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G36" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="3">
-        <v>4</v>
-      </c>
-      <c r="B37" s="4">
-        <v>20</v>
-      </c>
-      <c r="C37" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="D37" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="E37" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="F37" s="4">
-        <v>11.320755</v>
-      </c>
-      <c r="G37" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="3">
-        <v>5</v>
-      </c>
-      <c r="B38" s="4">
-        <v>30</v>
-      </c>
-      <c r="C38" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="D38" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E38" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F38" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="G38" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="3">
-        <v>6</v>
-      </c>
-      <c r="B39" s="4">
-        <v>40</v>
-      </c>
-      <c r="C39" s="4">
-        <v>33.962263999999998</v>
-      </c>
-      <c r="D39" s="4">
-        <v>33.962263999999998</v>
-      </c>
-      <c r="E39" s="4">
-        <v>13.207547</v>
-      </c>
-      <c r="F39" s="4">
-        <v>33.962263999999998</v>
-      </c>
-      <c r="G39" s="4">
-        <v>13.207547</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="3">
-        <v>7</v>
-      </c>
-      <c r="B40" s="4">
-        <v>50</v>
-      </c>
-      <c r="C40" s="4">
-        <v>30.188679</v>
-      </c>
-      <c r="D40" s="4">
-        <v>41.509433999999999</v>
-      </c>
-      <c r="E40" s="4">
-        <v>26.415094</v>
-      </c>
-      <c r="F40" s="4">
-        <v>30.188679</v>
-      </c>
-      <c r="G40" s="4">
-        <v>52.830188999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>2</v>
-      </c>
-      <c r="E42" s="2">
-        <v>3</v>
-      </c>
-      <c r="F42" s="2">
-        <v>4</v>
-      </c>
-      <c r="G42" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>0</v>
-      </c>
-      <c r="B43" s="4">
-        <v>0</v>
-      </c>
-      <c r="C43" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="D43" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="E43" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F43" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G43" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>1</v>
-      </c>
-      <c r="B44" s="4">
-        <v>2</v>
-      </c>
-      <c r="C44" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="D44" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="E44" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F44" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G44" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="3">
-        <v>2</v>
-      </c>
-      <c r="B45" s="4">
-        <v>5</v>
-      </c>
-      <c r="C45" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="D45" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E45" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F45" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G45" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="3">
-        <v>3</v>
-      </c>
-      <c r="B46" s="4">
-        <v>10</v>
-      </c>
-      <c r="C46" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="D46" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="E46" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F46" s="4">
-        <v>15.094340000000001</v>
-      </c>
-      <c r="G46" s="4">
-        <v>11.320755</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="3">
-        <v>4</v>
-      </c>
-      <c r="B47" s="4">
-        <v>20</v>
-      </c>
-      <c r="C47" s="4">
-        <v>15.094340000000001</v>
-      </c>
-      <c r="D47" s="4">
-        <v>16.981131999999999</v>
-      </c>
-      <c r="E47" s="4">
-        <v>16.981131999999999</v>
-      </c>
-      <c r="F47" s="4">
-        <v>11.320755</v>
-      </c>
-      <c r="G47" s="4">
-        <v>13.207547</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="3">
-        <v>5</v>
-      </c>
-      <c r="B48" s="4">
-        <v>30</v>
-      </c>
-      <c r="C48" s="4">
-        <v>13.207547</v>
-      </c>
-      <c r="D48" s="4">
-        <v>13.207547</v>
-      </c>
-      <c r="E48" s="4">
-        <v>13.207547</v>
-      </c>
-      <c r="F48" s="4">
-        <v>16.981131999999999</v>
-      </c>
-      <c r="G48" s="4">
-        <v>16.981131999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="3">
-        <v>6</v>
-      </c>
-      <c r="B49" s="4">
-        <v>40</v>
-      </c>
-      <c r="C49" s="4">
-        <v>26.415094</v>
-      </c>
-      <c r="D49" s="4">
-        <v>28.301887000000001</v>
-      </c>
-      <c r="E49" s="4">
-        <v>28.301887000000001</v>
-      </c>
-      <c r="F49" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G49" s="4">
-        <v>28.301887000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="3">
-        <v>7</v>
-      </c>
-      <c r="B50" s="4">
-        <v>50</v>
-      </c>
-      <c r="C50" s="4">
-        <v>32.075471999999998</v>
-      </c>
-      <c r="D50" s="4">
-        <v>32.075471999999998</v>
-      </c>
-      <c r="E50" s="4">
-        <v>54.716980999999997</v>
-      </c>
-      <c r="F50" s="4">
-        <v>43.396225999999999</v>
-      </c>
-      <c r="G50" s="4">
-        <v>50.943396</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2">
-        <v>2</v>
-      </c>
-      <c r="E52" s="2">
-        <v>3</v>
-      </c>
-      <c r="F52" s="2">
-        <v>4</v>
-      </c>
-      <c r="G52" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="3">
-        <v>0</v>
-      </c>
-      <c r="B53" s="4">
-        <v>0</v>
-      </c>
-      <c r="C53" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="E53" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="F53" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="G53" s="4">
-        <v>1.886792</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="3">
-        <v>1</v>
-      </c>
-      <c r="B54" s="4">
-        <v>2</v>
-      </c>
-      <c r="C54" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="E54" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="F54" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="G54" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="3">
-        <v>2</v>
-      </c>
-      <c r="B55" s="4">
-        <v>5</v>
-      </c>
-      <c r="C55" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="D55" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="E55" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F55" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="G55" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="3">
-        <v>3</v>
-      </c>
-      <c r="B56" s="4">
-        <v>10</v>
-      </c>
-      <c r="C56" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D56" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="E56" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="F56" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="G56" s="4">
-        <v>1.886792</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="3">
-        <v>4</v>
-      </c>
-      <c r="B57" s="4">
-        <v>20</v>
-      </c>
-      <c r="C57" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="D57" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="E57" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="F57" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G57" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="3">
-        <v>5</v>
-      </c>
-      <c r="B58" s="4">
-        <v>30</v>
-      </c>
-      <c r="C58" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="D58" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="E58" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="F58" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="G58" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="3">
-        <v>6</v>
-      </c>
-      <c r="B59" s="4">
-        <v>40</v>
-      </c>
-      <c r="C59" s="4">
-        <v>28.301887000000001</v>
-      </c>
-      <c r="D59" s="4">
-        <v>28.301887000000001</v>
-      </c>
-      <c r="E59" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="F59" s="4">
-        <v>28.301887000000001</v>
-      </c>
-      <c r="G59" s="4">
-        <v>28.301887000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="3">
-        <v>7</v>
-      </c>
-      <c r="B60" s="4">
-        <v>50</v>
-      </c>
-      <c r="C60" s="4">
-        <v>43.396225999999999</v>
-      </c>
-      <c r="D60" s="4">
-        <v>39.622641999999999</v>
-      </c>
-      <c r="E60" s="4">
-        <v>32.075471999999998</v>
-      </c>
-      <c r="F60" s="4">
-        <v>33.962263999999998</v>
-      </c>
-      <c r="G60" s="4">
-        <v>33.962263999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="2">
-        <v>1</v>
-      </c>
-      <c r="D62" s="2">
-        <v>2</v>
-      </c>
-      <c r="E62" s="2">
-        <v>3</v>
-      </c>
-      <c r="F62" s="2">
-        <v>4</v>
-      </c>
-      <c r="G62" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="3">
-        <v>0</v>
-      </c>
-      <c r="B63" s="4">
-        <v>0</v>
-      </c>
-      <c r="C63" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="D63" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="E63" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F63" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G63" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="3">
-        <v>1</v>
-      </c>
-      <c r="B64" s="4">
-        <v>2</v>
-      </c>
-      <c r="C64" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="D64" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="E64" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="F64" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G64" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="3">
-        <v>2</v>
-      </c>
-      <c r="B65" s="4">
-        <v>5</v>
-      </c>
-      <c r="C65" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="D65" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="E65" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="F65" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G65" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="3">
-        <v>3</v>
-      </c>
-      <c r="B66" s="4">
-        <v>10</v>
-      </c>
-      <c r="C66" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="D66" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="E66" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="F66" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G66" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="3">
-        <v>4</v>
-      </c>
-      <c r="B67" s="4">
-        <v>20</v>
-      </c>
-      <c r="C67" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="D67" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="E67" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="F67" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G67" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="3">
-        <v>5</v>
-      </c>
-      <c r="B68" s="4">
-        <v>30</v>
-      </c>
-      <c r="C68" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="D68" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="E68" s="4">
-        <v>11.320755</v>
-      </c>
-      <c r="F68" s="4">
-        <v>26.415094</v>
-      </c>
-      <c r="G68" s="4">
-        <v>11.320755</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="3">
-        <v>6</v>
-      </c>
-      <c r="B69" s="4">
-        <v>40</v>
-      </c>
-      <c r="C69" s="4">
-        <v>28.301887000000001</v>
-      </c>
-      <c r="D69" s="4">
-        <v>16.981131999999999</v>
-      </c>
-      <c r="E69" s="4">
-        <v>24.528302</v>
-      </c>
-      <c r="F69" s="4">
-        <v>24.528302</v>
-      </c>
-      <c r="G69" s="4">
-        <v>30.188679</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="3">
-        <v>7</v>
-      </c>
-      <c r="B70" s="4">
-        <v>50</v>
-      </c>
-      <c r="C70" s="4">
-        <v>35.849057000000002</v>
-      </c>
-      <c r="D70" s="4">
-        <v>35.849057000000002</v>
-      </c>
-      <c r="E70" s="4">
-        <v>41.509433999999999</v>
-      </c>
-      <c r="F70" s="4">
-        <v>66.037735999999995</v>
-      </c>
-      <c r="G70" s="4">
-        <v>66.037735999999995</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" s="2">
-        <v>1</v>
-      </c>
-      <c r="D72" s="2">
-        <v>2</v>
-      </c>
-      <c r="E72" s="2">
-        <v>3</v>
-      </c>
-      <c r="F72" s="2">
-        <v>4</v>
-      </c>
-      <c r="G72" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="3">
-        <v>0</v>
-      </c>
-      <c r="B73" s="4">
-        <v>0</v>
-      </c>
-      <c r="C73" s="4">
-        <v>0</v>
-      </c>
-      <c r="D73" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="E73" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="F73" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="G73" s="4">
-        <v>1.886792</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="3">
-        <v>1</v>
-      </c>
-      <c r="B74" s="4">
-        <v>2</v>
-      </c>
-      <c r="C74" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D74" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E74" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="F74" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="G74" s="4">
-        <v>1.886792</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="3">
-        <v>2</v>
-      </c>
-      <c r="B75" s="4">
-        <v>5</v>
-      </c>
-      <c r="C75" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D75" s="4">
-        <v>0</v>
-      </c>
-      <c r="E75" s="4">
-        <v>0</v>
-      </c>
-      <c r="F75" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="G75" s="4">
-        <v>1.886792</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="3">
-        <v>3</v>
-      </c>
-      <c r="B76" s="4">
-        <v>10</v>
-      </c>
-      <c r="C76" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D76" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="E76" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="F76" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G76" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="3">
-        <v>4</v>
-      </c>
-      <c r="B77" s="4">
-        <v>20</v>
-      </c>
-      <c r="C77" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="D77" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E77" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F77" s="4">
-        <v>11.320755</v>
-      </c>
-      <c r="G77" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="3">
-        <v>5</v>
-      </c>
-      <c r="B78" s="4">
-        <v>30</v>
-      </c>
-      <c r="C78" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="D78" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E78" s="4">
-        <v>13.207547</v>
-      </c>
-      <c r="F78" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="G78" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="3">
-        <v>6</v>
-      </c>
-      <c r="B79" s="4">
-        <v>40</v>
-      </c>
-      <c r="C79" s="4">
-        <v>11.320755</v>
-      </c>
-      <c r="D79" s="4">
-        <v>35.849057000000002</v>
-      </c>
-      <c r="E79" s="4">
-        <v>18.867925</v>
-      </c>
-      <c r="F79" s="4">
-        <v>33.962263999999998</v>
-      </c>
-      <c r="G79" s="4">
-        <v>16.981131999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="3">
-        <v>7</v>
-      </c>
-      <c r="B80" s="4">
-        <v>50</v>
-      </c>
-      <c r="C80" s="4">
-        <v>45.283019000000003</v>
-      </c>
-      <c r="D80" s="4">
-        <v>33.962263999999998</v>
-      </c>
-      <c r="E80" s="4">
-        <v>47.169811000000003</v>
-      </c>
-      <c r="F80" s="4">
-        <v>30.188679</v>
-      </c>
-      <c r="G80" s="4">
-        <v>49.056604</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" s="2">
-        <v>1</v>
-      </c>
-      <c r="D82" s="2">
-        <v>2</v>
-      </c>
-      <c r="E82" s="2">
-        <v>3</v>
-      </c>
-      <c r="F82" s="2">
-        <v>4</v>
-      </c>
-      <c r="G82" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="3">
-        <v>0</v>
-      </c>
-      <c r="B83" s="4">
-        <v>0</v>
-      </c>
-      <c r="C83" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D83" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="E83" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F83" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="G83" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="3">
-        <v>1</v>
-      </c>
-      <c r="B84" s="4">
-        <v>2</v>
-      </c>
-      <c r="C84" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D84" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E84" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="F84" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="G84" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="3">
-        <v>2</v>
-      </c>
-      <c r="B85" s="4">
-        <v>5</v>
-      </c>
-      <c r="C85" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="D85" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E85" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F85" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="G85" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="3">
-        <v>3</v>
-      </c>
-      <c r="B86" s="4">
-        <v>10</v>
-      </c>
-      <c r="C86" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D86" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="E86" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="F86" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="G86" s="4">
-        <v>1.886792</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="3">
-        <v>4</v>
-      </c>
-      <c r="B87" s="4">
-        <v>20</v>
-      </c>
-      <c r="C87" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D87" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E87" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F87" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="G87" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="3">
-        <v>5</v>
-      </c>
-      <c r="B88" s="4">
-        <v>30</v>
-      </c>
-      <c r="C88" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="D88" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="E88" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="F88" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G88" s="4">
-        <v>11.320755</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="3">
-        <v>6</v>
-      </c>
-      <c r="B89" s="4">
-        <v>40</v>
-      </c>
-      <c r="C89" s="4">
-        <v>32.075471999999998</v>
-      </c>
-      <c r="D89" s="4">
-        <v>13.207547</v>
-      </c>
-      <c r="E89" s="4">
-        <v>11.320755</v>
-      </c>
-      <c r="F89" s="4">
-        <v>15.094340000000001</v>
-      </c>
-      <c r="G89" s="4">
-        <v>15.094340000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="3">
-        <v>7</v>
-      </c>
-      <c r="B90" s="4">
-        <v>50</v>
-      </c>
-      <c r="C90" s="4">
-        <v>13.207547</v>
-      </c>
-      <c r="D90" s="4">
-        <v>13.207547</v>
-      </c>
-      <c r="E90" s="4">
-        <v>33.962263999999998</v>
-      </c>
-      <c r="F90" s="4">
-        <v>50.943396</v>
-      </c>
-      <c r="G90" s="4">
-        <v>18.867925</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" s="2">
-        <v>1</v>
-      </c>
-      <c r="D92" s="2">
-        <v>2</v>
-      </c>
-      <c r="E92" s="2">
-        <v>3</v>
-      </c>
-      <c r="F92" s="2">
-        <v>4</v>
-      </c>
-      <c r="G92" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="3">
-        <v>0</v>
-      </c>
-      <c r="B93" s="4">
-        <v>0</v>
-      </c>
-      <c r="C93" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="D93" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E93" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F93" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G93" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="3">
-        <v>1</v>
-      </c>
-      <c r="B94" s="4">
-        <v>2</v>
-      </c>
-      <c r="C94" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="D94" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E94" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F94" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G94" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="3">
-        <v>2</v>
-      </c>
-      <c r="B95" s="4">
-        <v>5</v>
-      </c>
-      <c r="C95" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="D95" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E95" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F95" s="4">
-        <v>0</v>
-      </c>
-      <c r="G95" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="3">
-        <v>3</v>
-      </c>
-      <c r="B96" s="4">
-        <v>10</v>
-      </c>
-      <c r="C96" s="4">
-        <v>11.320755</v>
-      </c>
-      <c r="D96" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="E96" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F96" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G96" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="3">
-        <v>4</v>
-      </c>
-      <c r="B97" s="4">
-        <v>20</v>
-      </c>
-      <c r="C97" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="D97" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="E97" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F97" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G97" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="3">
-        <v>5</v>
-      </c>
-      <c r="B98" s="4">
-        <v>30</v>
-      </c>
-      <c r="C98" s="4">
-        <v>26.415094</v>
-      </c>
-      <c r="D98" s="4">
-        <v>26.415094</v>
-      </c>
-      <c r="E98" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F98" s="4">
-        <v>18.867925</v>
-      </c>
-      <c r="G98" s="4">
-        <v>28.301887000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="3">
-        <v>6</v>
-      </c>
-      <c r="B99" s="4">
-        <v>40</v>
-      </c>
-      <c r="C99" s="4">
-        <v>49.056604</v>
-      </c>
-      <c r="D99" s="4">
-        <v>49.056604</v>
-      </c>
-      <c r="E99" s="4">
-        <v>49.056604</v>
-      </c>
-      <c r="F99" s="4">
-        <v>30.188679</v>
-      </c>
-      <c r="G99" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="3">
-        <v>7</v>
-      </c>
-      <c r="B100" s="4">
-        <v>50</v>
-      </c>
-      <c r="C100" s="4">
-        <v>56.603774000000001</v>
-      </c>
-      <c r="D100" s="4">
-        <v>50.943396</v>
-      </c>
-      <c r="E100" s="4">
-        <v>62.264150999999998</v>
-      </c>
-      <c r="F100" s="4">
-        <v>58.490566000000001</v>
-      </c>
-      <c r="G100" s="4">
-        <v>66.037735999999995</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="3"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="3"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="3"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="3"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="3"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="3"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="3"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="3"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J1:M1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J3:N10">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
-      <formula>$N3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27019BFD-7623-4A29-B0DE-DFB6A23C0DAB}">
   <sheetPr>
@@ -24553,11 +26242,11 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="10" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -24565,12 +26254,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -27243,7 +28932,7 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
@@ -27253,12 +28942,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -29710,19 +31399,19 @@
       <selection activeCell="I16" sqref="I16:P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -30349,16 +32038,16 @@
       <c r="G15" s="4">
         <v>16.981131999999999</v>
       </c>
-      <c r="I15" s="72" t="s">
+      <c r="I15" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="122"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="3">
@@ -32218,9 +33907,9 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="14" max="14" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -32228,20 +33917,20 @@
         <v>13</v>
       </c>
       <c r="I1" s="19"/>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
       <c r="N1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="76" t="s">
+      <c r="P1" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="78"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="128"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2"/>
@@ -32758,13 +34447,13 @@
         <v>1</v>
       </c>
       <c r="I11" s="22"/>
-      <c r="J11" s="74" t="s">
+      <c r="J11" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="75"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="125"/>
       <c r="P11" s="24"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="21"/>
@@ -32873,16 +34562,16 @@
       <c r="G15" s="4">
         <v>16.981131999999999</v>
       </c>
-      <c r="I15" s="72" t="s">
+      <c r="I15" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="122"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="3">
@@ -34741,22 +36430,22 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="10.08984375" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.36328125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="80"/>
+      <c r="H1" s="130"/>
       <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:13">
@@ -35152,10 +36841,10 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
@@ -35559,20 +37248,20 @@
       <selection activeCell="F1" sqref="F1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="80"/>
+      <c r="H1" s="130"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2"/>
@@ -35631,8 +37320,8 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="79"/>
-      <c r="O4" s="80"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="130"/>
     </row>
     <row r="5" spans="1:17" ht="15" thickBot="1">
       <c r="A5" s="2"/>

--- a/Iris_Rank_filtering_implementation.xlsx
+++ b/Iris_Rank_filtering_implementation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Decision-Trees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB3CD9A-F3B5-41DA-8F7D-A63ED579B4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C43B9F-F340-4449-9FF4-8EF664F7DBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="823" firstSheet="9" activeTab="10" xr2:uid="{6C67A883-E7E1-4B49-B51F-4602C047CF2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="823" firstSheet="9" activeTab="17" xr2:uid="{6C67A883-E7E1-4B49-B51F-4602C047CF2B}"/>
   </bookViews>
   <sheets>
     <sheet name="IRIS_DT_DIST80" sheetId="8" state="hidden" r:id="rId1"/>
@@ -26,13 +26,18 @@
     <sheet name="Sheet2" sheetId="29" r:id="rId11"/>
     <sheet name="Sheet3" sheetId="30" r:id="rId12"/>
     <sheet name="Sheet1" sheetId="28" r:id="rId13"/>
-    <sheet name="IRIS_RBF_DIST75" sheetId="5" state="hidden" r:id="rId14"/>
-    <sheet name="IRIS_SVMLin_DIST80" sheetId="10" state="hidden" r:id="rId15"/>
-    <sheet name="IRIS_RBF_DIST80" sheetId="12" state="hidden" r:id="rId16"/>
-    <sheet name="IRIS_Poly_DIST80" sheetId="13" state="hidden" r:id="rId17"/>
-    <sheet name="IRIS_Poly_DIST90" sheetId="14" state="hidden" r:id="rId18"/>
-    <sheet name="IRIS_RBF_DIST90" sheetId="15" state="hidden" r:id="rId19"/>
-    <sheet name="IRIS_SVMlin_DIST90" sheetId="17" state="hidden" r:id="rId20"/>
+    <sheet name="clust" sheetId="31" r:id="rId14"/>
+    <sheet name="clustering l1pca" sheetId="32" r:id="rId15"/>
+    <sheet name="knee_l1pca_2%" sheetId="33" r:id="rId16"/>
+    <sheet name="10%contam" sheetId="34" r:id="rId17"/>
+    <sheet name="0% contam" sheetId="35" r:id="rId18"/>
+    <sheet name="IRIS_RBF_DIST75" sheetId="5" state="hidden" r:id="rId19"/>
+    <sheet name="IRIS_SVMLin_DIST80" sheetId="10" state="hidden" r:id="rId20"/>
+    <sheet name="IRIS_RBF_DIST80" sheetId="12" state="hidden" r:id="rId21"/>
+    <sheet name="IRIS_Poly_DIST80" sheetId="13" state="hidden" r:id="rId22"/>
+    <sheet name="IRIS_Poly_DIST90" sheetId="14" state="hidden" r:id="rId23"/>
+    <sheet name="IRIS_RBF_DIST90" sheetId="15" state="hidden" r:id="rId24"/>
+    <sheet name="IRIS_SVMlin_DIST90" sheetId="17" state="hidden" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="128">
   <si>
     <t>0</t>
   </si>
@@ -595,15 +600,233 @@
 = 0.08</t>
     </r>
   </si>
+  <si>
+    <t>1.0 L1TPR_Sentosa 0.0 L1FPR_Sentosa 1.0 L1TNR_Sentosa 0.0 L1FNR_Sentosa</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hamming Loss </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        = 0.05</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Power/ True Positive Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          Sentosa: 1
+Versicolor: 0.901
+Virginica:0.952</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prob of False Alarm/ 
+False Positive Rate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                         Sentosa: 0
+Versicolor: 0.026
+Virginica:0.0.052</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1-Probability of False Alarm/   True Negative Rate  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                     
+Sentosa: 1
+Versicolor: 0.974
+Virginica:0.948</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-Power/ False Negative Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                   Sentosa: 0
+Versicolor: 0.09
+Virginica:0.048</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1-Probability of False Alarm/ True Negative Rate  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                     Sentosa: 0.992
+Versicolor: 0.948
+Virginica:0.933</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-Power/ False Negative Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                     Sentosa: 0
+Versicolor: 0.144
+Virginica:0.097</t>
+    </r>
+  </si>
+  <si>
+    <t>Probability of False Alarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power </t>
+  </si>
+  <si>
+    <t>Error Rate</t>
+  </si>
+  <si>
+    <t>Curated  Data</t>
+  </si>
+  <si>
+    <t>Raw  Data</t>
+  </si>
+  <si>
+    <t>20% excision</t>
+  </si>
+  <si>
+    <t>knee error</t>
+  </si>
+  <si>
+    <t>knee</t>
+  </si>
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t>knee opt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,8 +896,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -783,8 +1039,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1255,11 +1517,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1509,6 +1855,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1545,63 +2024,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1614,8 +2036,101 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2161,12 +2676,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -4829,10 +5344,10 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="129" t="s">
+      <c r="G1" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="130"/>
+      <c r="H1" s="193"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2"/>
@@ -4927,8 +5442,8 @@
         <v>41</v>
       </c>
       <c r="G6" s="47"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="132"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="195"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
@@ -5232,8 +5747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61599D0C-6BD1-4F1A-B3C4-BF78239DA98C}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -5257,30 +5772,30 @@
     <row r="2" spans="1:14" ht="15" thickBot="1">
       <c r="B2" s="76"/>
       <c r="C2" s="76"/>
-      <c r="D2" s="154" t="s">
+      <c r="D2" s="198" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="77"/>
-      <c r="K2" s="154" t="s">
+      <c r="K2" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="155"/>
+      <c r="L2" s="199"/>
       <c r="M2" s="105"/>
     </row>
     <row r="3" spans="1:14" ht="14.55" customHeight="1" thickBot="1">
-      <c r="D3" s="137" t="s">
+      <c r="D3" s="205" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="138"/>
-      <c r="F3" s="139"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="207"/>
       <c r="G3" s="78"/>
-      <c r="K3" s="143" t="s">
+      <c r="K3" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="144"/>
-      <c r="M3" s="145"/>
+      <c r="L3" s="210"/>
+      <c r="M3" s="211"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="D4" s="100" t="s">
@@ -5304,7 +5819,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.55" customHeight="1">
-      <c r="B5" s="140" t="b">
+      <c r="B5" s="202" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="97" t="s">
@@ -5319,10 +5834,10 @@
       <c r="F5" s="82">
         <v>0</v>
       </c>
-      <c r="G5" s="133" t="s">
+      <c r="G5" s="200" t="s">
         <v>105</v>
       </c>
-      <c r="I5" s="140" t="b">
+      <c r="I5" s="202" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="97" t="s">
@@ -5337,12 +5852,12 @@
       <c r="M5" s="82">
         <v>0</v>
       </c>
-      <c r="N5" s="152" t="s">
+      <c r="N5" s="196" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="B6" s="141"/>
+      <c r="B6" s="203"/>
       <c r="C6" s="98" t="s">
         <v>56</v>
       </c>
@@ -5355,8 +5870,8 @@
       <c r="F6" s="82">
         <v>1.2</v>
       </c>
-      <c r="G6" s="134"/>
-      <c r="I6" s="141"/>
+      <c r="G6" s="201"/>
+      <c r="I6" s="203"/>
       <c r="J6" s="98" t="s">
         <v>56</v>
       </c>
@@ -5369,10 +5884,10 @@
       <c r="M6" s="82">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N6" s="153"/>
+      <c r="N6" s="197"/>
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1">
-      <c r="B7" s="142"/>
+      <c r="B7" s="204"/>
       <c r="C7" s="99" t="s">
         <v>57</v>
       </c>
@@ -5386,7 +5901,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="G7" s="93"/>
-      <c r="I7" s="142"/>
+      <c r="I7" s="204"/>
       <c r="J7" s="99" t="s">
         <v>57</v>
       </c>
@@ -5400,35 +5915,35 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="57.6">
-      <c r="D8" s="146" t="s">
+    <row r="8" spans="1:14" ht="72">
+      <c r="D8" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="147" t="s">
+      <c r="E8" s="122" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="83"/>
       <c r="G8" s="83"/>
-      <c r="K8" s="150" t="s">
+      <c r="K8" s="125" t="s">
         <v>102</v>
       </c>
-      <c r="L8" s="151" t="s">
+      <c r="L8" s="126" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="72.599999999999994" thickBot="1">
-      <c r="D9" s="148" t="s">
+      <c r="D9" s="123" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="149" t="s">
+      <c r="E9" s="124" t="s">
         <v>107</v>
       </c>
       <c r="F9" s="84"/>
       <c r="G9" s="84"/>
-      <c r="K9" s="148" t="s">
+      <c r="K9" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="L9" s="149" t="s">
+      <c r="L9" s="124" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5452,6 +5967,13 @@
       <c r="G13" s="75" t="s">
         <v>51</v>
       </c>
+      <c r="H13" s="75">
+        <f>D5/(D5+E5+F5)</f>
+        <v>1</v>
+      </c>
+      <c r="N13" s="127" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="75">
@@ -5474,6 +5996,10 @@
       </c>
       <c r="G14" s="75" t="s">
         <v>52</v>
+      </c>
+      <c r="H14" s="75">
+        <f>SUM(D6:D7)/SUM(E6:F7)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -5547,6 +6073,10 @@
       <c r="F17" s="111">
         <v>0.93370165745856304</v>
       </c>
+      <c r="H17" s="75">
+        <f>E6/SUM(D6:F6)</f>
+        <v>0.93370165745856359</v>
+      </c>
       <c r="I17" s="75">
         <f>1-I16</f>
         <v>4.1509433962264253E-2</v>
@@ -5565,6 +6095,10 @@
       </c>
       <c r="F18" s="112">
         <v>2.8653295128939799E-2</v>
+      </c>
+      <c r="H18" s="75">
+        <f>(E5+E7)/(E5+E7+F5+D5+D7+F7)</f>
+        <v>2.8653295128939823E-2</v>
       </c>
       <c r="K18" s="75" t="s">
         <v>86</v>
@@ -5881,14 +6415,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5897,18 +6431,40 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBE32DB-7336-4A91-9D53-2D456C062B5F}">
-  <dimension ref="A2:J20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:F20"/>
+      <selection activeCell="N6" sqref="N6:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="1" spans="1:15">
+      <c r="N1" s="128">
+        <v>0.900552486187845</v>
+      </c>
+      <c r="O1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="J2" s="106"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="N2" s="128">
+        <v>2.5787965616045801E-2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="N3" s="128">
+        <v>0.97421203438395398</v>
+      </c>
+      <c r="O3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="106">
         <v>1</v>
       </c>
@@ -5921,8 +6477,14 @@
       <c r="G4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="N4" s="128">
+        <v>9.9447513812154595E-2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="106">
         <v>0</v>
       </c>
@@ -5936,7 +6498,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:15">
       <c r="A6" s="106">
         <v>1</v>
       </c>
@@ -5949,8 +6511,14 @@
       <c r="G6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="N6" s="127">
+        <v>0.95161290322580605</v>
+      </c>
+      <c r="O6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="106">
         <v>0</v>
       </c>
@@ -5963,16 +6531,36 @@
       <c r="G7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="N7" s="127">
+        <v>5.2325581395348798E-2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="N8" s="127">
+        <v>0.94767441860465096</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="106">
         <v>0.93370165745856304</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="N9" s="127">
+        <v>4.8387096774193498E-2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>2.8653295128939799E-2</v>
       </c>
@@ -5980,7 +6568,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>0.97134670487106001</v>
       </c>
@@ -5994,7 +6582,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>6.6298342541436406E-2</v>
       </c>
@@ -6008,7 +6596,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:15">
       <c r="F13">
         <v>0.94842406876790797</v>
       </c>
@@ -6016,7 +6604,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:15">
       <c r="A14" s="106">
         <v>0.94623655913978499</v>
       </c>
@@ -6030,7 +6618,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>3.4883720930232502E-2</v>
       </c>
@@ -6038,7 +6626,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>0.96511627906976705</v>
       </c>
@@ -6131,10 +6719,10 @@
   <sheetData>
     <row r="2" spans="3:6">
       <c r="C2" s="73"/>
-      <c r="D2" s="135" t="s">
+      <c r="D2" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="136"/>
+      <c r="E2" s="213"/>
       <c r="F2" s="74"/>
     </row>
     <row r="3" spans="3:6">
@@ -6180,6 +6768,2363 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5060C04-6AA2-4046-AF6F-3290344BFF5C}">
+  <dimension ref="A1:N43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="8.77734375" style="75"/>
+    <col min="3" max="3" width="9.33203125" style="75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" style="75" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" style="75" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" style="75" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="75" customWidth="1"/>
+    <col min="8" max="9" width="8.77734375" style="75"/>
+    <col min="10" max="10" width="10" style="75" customWidth="1"/>
+    <col min="11" max="11" width="24.77734375" style="75" customWidth="1"/>
+    <col min="12" max="12" width="25.44140625" style="75" customWidth="1"/>
+    <col min="13" max="13" width="11" style="75" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" style="75" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
+    <row r="2" spans="1:14" ht="15" thickBot="1">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="198" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="199"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="77"/>
+      <c r="K2" s="198" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="199"/>
+      <c r="M2" s="105"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.55" customHeight="1" thickBot="1">
+      <c r="D3" s="205" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="206"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="78"/>
+      <c r="K3" s="209" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="210"/>
+      <c r="M3" s="211"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="D4" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="79"/>
+      <c r="K4" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.55" customHeight="1">
+      <c r="B5" s="202" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="81">
+        <v>16.3</v>
+      </c>
+      <c r="E5" s="96">
+        <v>0</v>
+      </c>
+      <c r="F5" s="82">
+        <v>0</v>
+      </c>
+      <c r="G5" s="200" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="202" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="81">
+        <v>16.3</v>
+      </c>
+      <c r="L5" s="96">
+        <v>0</v>
+      </c>
+      <c r="M5" s="82">
+        <v>0</v>
+      </c>
+      <c r="N5" s="196" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1">
+      <c r="B6" s="203"/>
+      <c r="C6" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="81">
+        <v>0</v>
+      </c>
+      <c r="E6" s="96">
+        <f>C15</f>
+        <v>16.3</v>
+      </c>
+      <c r="F6" s="82">
+        <f>D15</f>
+        <v>1.8</v>
+      </c>
+      <c r="G6" s="201"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="81">
+        <v>0.3</v>
+      </c>
+      <c r="L6" s="96">
+        <v>15.5</v>
+      </c>
+      <c r="M6" s="82">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N6" s="197"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1">
+      <c r="B7" s="204"/>
+      <c r="C7" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="89">
+        <v>0</v>
+      </c>
+      <c r="E7" s="102">
+        <f>C16</f>
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="90">
+        <f>D16</f>
+        <v>17.7</v>
+      </c>
+      <c r="G7" s="93"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="89">
+        <v>0</v>
+      </c>
+      <c r="L7" s="102">
+        <v>1.8</v>
+      </c>
+      <c r="M7" s="90">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="72">
+      <c r="D8" s="121" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="130" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="K8" s="125" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="131" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="72.599999999999994" thickBot="1">
+      <c r="D9" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="124" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="K9" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" s="124" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1"/>
+    <row r="13" spans="1:14">
+      <c r="A13" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="75">
+        <v>0</v>
+      </c>
+      <c r="C13" s="75">
+        <v>1</v>
+      </c>
+      <c r="D13" s="75">
+        <v>2</v>
+      </c>
+      <c r="E13" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="86">
+        <v>1</v>
+      </c>
+      <c r="G13" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="127"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1">
+      <c r="A14" s="75">
+        <v>0</v>
+      </c>
+      <c r="B14" s="75">
+        <v>16.3</v>
+      </c>
+      <c r="C14" s="75">
+        <v>0</v>
+      </c>
+      <c r="D14" s="75">
+        <v>0</v>
+      </c>
+      <c r="E14" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="104">
+        <v>0</v>
+      </c>
+      <c r="G14" s="75" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="75">
+        <v>1</v>
+      </c>
+      <c r="B15" s="75">
+        <v>0</v>
+      </c>
+      <c r="C15" s="75">
+        <v>16.3</v>
+      </c>
+      <c r="D15" s="75">
+        <v>1.8</v>
+      </c>
+      <c r="E15" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="104">
+        <v>1</v>
+      </c>
+      <c r="G15" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="88"/>
+      <c r="K15" s="75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1">
+      <c r="A16" s="75">
+        <v>2</v>
+      </c>
+      <c r="B16" s="75">
+        <v>0</v>
+      </c>
+      <c r="C16" s="75">
+        <v>0.9</v>
+      </c>
+      <c r="D16" s="75">
+        <v>17.7</v>
+      </c>
+      <c r="E16" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="108">
+        <v>0</v>
+      </c>
+      <c r="G16" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="91">
+        <f>(D5+E6+F7)/SUM(D5:F7)</f>
+        <v>0.94905660377358481</v>
+      </c>
+      <c r="J16" s="92">
+        <f>(K5+L6+M7)/SUM(K5:M7)</f>
+        <v>0.91698113207547172</v>
+      </c>
+      <c r="K16" s="75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="E17" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="111">
+        <v>0.900552486187845</v>
+      </c>
+      <c r="I17" s="75">
+        <f>1-I16</f>
+        <v>5.0943396226415194E-2</v>
+      </c>
+      <c r="J17" s="75">
+        <f>1-J16</f>
+        <v>8.3018867924528283E-2</v>
+      </c>
+      <c r="K17" s="75" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="E18" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="112">
+        <v>2.5787965616045801E-2</v>
+      </c>
+      <c r="K18" s="75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="E19" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="112">
+        <v>0.97421203438395398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1">
+      <c r="E20" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="113">
+        <v>9.9447513812154595E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="E21" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="111">
+        <v>0.95161290322580605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="E22" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="112">
+        <v>5.2325581395348798E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="E23" s="110" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="112">
+        <v>0.94767441860465096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1">
+      <c r="E24" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="113">
+        <v>4.8387096774193498E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1"/>
+    <row r="27" spans="1:11">
+      <c r="A27" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="75">
+        <v>0</v>
+      </c>
+      <c r="C27" s="75">
+        <v>1</v>
+      </c>
+      <c r="D27" s="75">
+        <v>2</v>
+      </c>
+      <c r="E27" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="86">
+        <v>1</v>
+      </c>
+      <c r="G27" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="75" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="75">
+        <v>0</v>
+      </c>
+      <c r="B28" s="75">
+        <v>16.3</v>
+      </c>
+      <c r="C28" s="75">
+        <v>0</v>
+      </c>
+      <c r="D28" s="75">
+        <v>0</v>
+      </c>
+      <c r="E28" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="115">
+        <v>8.1743869209809205E-3</v>
+      </c>
+      <c r="G28" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="75">
+        <v>1</v>
+      </c>
+      <c r="B29" s="75">
+        <v>0.3</v>
+      </c>
+      <c r="C29" s="75">
+        <v>15.5</v>
+      </c>
+      <c r="D29" s="75">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E29" s="103" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="115">
+        <v>0.99182561307901895</v>
+      </c>
+      <c r="G29" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="75" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1">
+      <c r="A30" s="75">
+        <v>2</v>
+      </c>
+      <c r="B30" s="75">
+        <v>0</v>
+      </c>
+      <c r="C30" s="75">
+        <v>1.8</v>
+      </c>
+      <c r="D30" s="75">
+        <v>16.8</v>
+      </c>
+      <c r="E30" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="114">
+        <v>0</v>
+      </c>
+      <c r="G30" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" thickBot="1">
+      <c r="E31" s="109" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="111">
+        <v>0.85635359116022003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="88">
+        <v>16.3</v>
+      </c>
+      <c r="E32" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="112">
+        <v>5.1575931232091601E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="95">
+        <v>0</v>
+      </c>
+      <c r="E33" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="112">
+        <v>0.94842406876790797</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1">
+      <c r="A34" s="117" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="95">
+        <v>0.3</v>
+      </c>
+      <c r="E34" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="113">
+        <v>0.143646408839778</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1">
+      <c r="A35" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="118"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="92">
+        <f>SUM(C29:D30)</f>
+        <v>36.400000000000006</v>
+      </c>
+      <c r="E35" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="111">
+        <v>0.90322580645161199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="88">
+        <v>15.5</v>
+      </c>
+      <c r="E36" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="112">
+        <v>6.6860465116278994E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="117" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="95">
+        <v>2.6</v>
+      </c>
+      <c r="E37" s="119" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="112">
+        <v>0.93313953488372103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1">
+      <c r="A38" s="117" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="95">
+        <v>1.8</v>
+      </c>
+      <c r="E38" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="113">
+        <v>9.6774193548387094E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1">
+      <c r="A39" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="118"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="92">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="88">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="117" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="95">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="117" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="95">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1">
+      <c r="A43" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="118"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="92">
+        <v>32.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="K3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD2B4AD-4F56-4F40-A0F8-EE6C8E71283E}">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" thickBot="1">
+      <c r="B1" s="217" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="219"/>
+      <c r="H1" s="217" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="219"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1"/>
+    <row r="3" spans="1:13" ht="15" thickBot="1">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="205" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="206"/>
+      <c r="E3" s="207"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="214" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="215"/>
+      <c r="K3" s="216"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1">
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="75"/>
+      <c r="I4" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="202" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="81">
+        <v>16.3</v>
+      </c>
+      <c r="D5" s="96">
+        <v>0</v>
+      </c>
+      <c r="E5" s="82">
+        <v>0</v>
+      </c>
+      <c r="H5" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="81">
+        <v>16.3</v>
+      </c>
+      <c r="J5" s="96">
+        <v>0</v>
+      </c>
+      <c r="K5" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="203"/>
+      <c r="B6" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="81">
+        <v>0</v>
+      </c>
+      <c r="D6" s="96">
+        <v>16.3</v>
+      </c>
+      <c r="E6" s="82">
+        <v>1.8</v>
+      </c>
+      <c r="H6" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="81">
+        <v>0.3</v>
+      </c>
+      <c r="J6" s="96">
+        <v>15.5</v>
+      </c>
+      <c r="K6" s="82">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1">
+      <c r="A7" s="204"/>
+      <c r="B7" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="89">
+        <v>0</v>
+      </c>
+      <c r="D7" s="102">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="90">
+        <v>17.7</v>
+      </c>
+      <c r="H7" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="89">
+        <v>0</v>
+      </c>
+      <c r="J7" s="102">
+        <v>1.8</v>
+      </c>
+      <c r="K7" s="90">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1"/>
+    <row r="10" spans="1:13">
+      <c r="A10" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="133"/>
+      <c r="C10" s="134">
+        <v>1</v>
+      </c>
+      <c r="D10" s="134">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="E10" s="86">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="I10" s="19">
+        <v>1</v>
+      </c>
+      <c r="J10" s="135">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="K10" s="136">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1">
+      <c r="A11" s="137" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="102">
+        <v>0</v>
+      </c>
+      <c r="D11" s="102">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E11" s="90">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I11" s="141">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J11" s="26">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="K11" s="27">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1">
+      <c r="I13" s="132"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1">
+      <c r="A14" s="138" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="139"/>
+      <c r="C14" s="139">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="139"/>
+      <c r="E14" s="140"/>
+      <c r="I14" s="142">
+        <v>0.08</v>
+      </c>
+      <c r="J14" s="139"/>
+      <c r="K14" s="140"/>
+      <c r="M14">
+        <f>(I14-C14)/I14*100</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="132"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530437CA-F5F7-4195-B3B1-6D72A17D47A6}">
+  <dimension ref="A1:Z14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15" thickBot="1">
+      <c r="C1" s="220" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="221"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="220" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="221"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="220" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="221"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="220" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="221"/>
+      <c r="N1" s="222"/>
+      <c r="Q1" s="223" t="s">
+        <v>125</v>
+      </c>
+      <c r="R1" s="224"/>
+      <c r="S1" s="225"/>
+      <c r="T1" s="223" t="s">
+        <v>126</v>
+      </c>
+      <c r="U1" s="224"/>
+      <c r="V1" s="225"/>
+      <c r="W1" s="223" t="s">
+        <v>127</v>
+      </c>
+      <c r="X1" s="224"/>
+      <c r="Y1" s="225"/>
+      <c r="Z1" s="167"/>
+    </row>
+    <row r="2" spans="1:26" ht="15" thickBot="1">
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="167"/>
+    </row>
+    <row r="3" spans="1:26" ht="15" thickBot="1">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="214" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="214" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="215"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="214" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="215"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="214" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="215"/>
+      <c r="N3" s="216"/>
+      <c r="Q3" s="226" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="227"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="226" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="227"/>
+      <c r="V3" s="228"/>
+      <c r="W3" s="226" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" s="227"/>
+      <c r="Y3" s="228"/>
+      <c r="Z3" s="167"/>
+    </row>
+    <row r="4" spans="1:26" ht="15" thickBot="1">
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="168" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" s="169" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="170" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="168" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="169" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" s="170" t="s">
+        <v>57</v>
+      </c>
+      <c r="W4" s="168" t="s">
+        <v>58</v>
+      </c>
+      <c r="X4" s="169" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y4" s="170" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z4" s="167"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="202" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="143">
+        <v>1</v>
+      </c>
+      <c r="D5" s="144">
+        <v>0</v>
+      </c>
+      <c r="E5" s="145">
+        <v>0</v>
+      </c>
+      <c r="F5" s="143">
+        <v>1</v>
+      </c>
+      <c r="G5" s="144">
+        <v>0</v>
+      </c>
+      <c r="H5" s="145">
+        <v>0</v>
+      </c>
+      <c r="I5" s="143">
+        <v>0.993865</v>
+      </c>
+      <c r="J5" s="144">
+        <v>6.1349999999999998E-3</v>
+      </c>
+      <c r="K5" s="145">
+        <v>0</v>
+      </c>
+      <c r="L5" s="143">
+        <v>1</v>
+      </c>
+      <c r="M5" s="144">
+        <v>0</v>
+      </c>
+      <c r="N5" s="145">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="171">
+        <v>1</v>
+      </c>
+      <c r="R5" s="172">
+        <v>0</v>
+      </c>
+      <c r="S5" s="173">
+        <v>0</v>
+      </c>
+      <c r="T5" s="171">
+        <v>1</v>
+      </c>
+      <c r="U5" s="172">
+        <v>0</v>
+      </c>
+      <c r="V5" s="173">
+        <v>0</v>
+      </c>
+      <c r="W5" s="171">
+        <v>1</v>
+      </c>
+      <c r="X5" s="172">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="167"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="203"/>
+      <c r="B6" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="143">
+        <v>0</v>
+      </c>
+      <c r="D6" s="144">
+        <v>0.96685100000000002</v>
+      </c>
+      <c r="E6" s="145">
+        <v>3.3148999999999998E-2</v>
+      </c>
+      <c r="F6" s="143">
+        <v>0</v>
+      </c>
+      <c r="G6" s="144">
+        <v>0.96685100000000002</v>
+      </c>
+      <c r="H6" s="145">
+        <v>3.3148999999999998E-2</v>
+      </c>
+      <c r="I6" s="143">
+        <v>0</v>
+      </c>
+      <c r="J6" s="144">
+        <v>0.92817700000000003</v>
+      </c>
+      <c r="K6" s="145">
+        <v>7.1822999999999998E-2</v>
+      </c>
+      <c r="L6" s="143">
+        <v>0</v>
+      </c>
+      <c r="M6" s="144">
+        <v>0.96132600000000001</v>
+      </c>
+      <c r="N6" s="145">
+        <v>3.8674E-2</v>
+      </c>
+      <c r="Q6" s="171">
+        <v>0</v>
+      </c>
+      <c r="R6" s="172">
+        <v>0.92265200000000003</v>
+      </c>
+      <c r="S6" s="173">
+        <v>7.7348E-2</v>
+      </c>
+      <c r="T6" s="171">
+        <v>4.4199000000000002E-2</v>
+      </c>
+      <c r="U6" s="172">
+        <v>0.90055200000000002</v>
+      </c>
+      <c r="V6" s="173">
+        <v>5.5248999999999999E-2</v>
+      </c>
+      <c r="W6" s="171">
+        <v>0</v>
+      </c>
+      <c r="X6" s="172">
+        <v>0.94475100000000001</v>
+      </c>
+      <c r="Y6" s="173">
+        <v>5.5248999999999999E-2</v>
+      </c>
+      <c r="Z6" s="167"/>
+    </row>
+    <row r="7" spans="1:26" ht="15" thickBot="1">
+      <c r="A7" s="204"/>
+      <c r="B7" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="146">
+        <v>0</v>
+      </c>
+      <c r="D7" s="147">
+        <v>0</v>
+      </c>
+      <c r="E7" s="148">
+        <v>1</v>
+      </c>
+      <c r="F7" s="146">
+        <v>0</v>
+      </c>
+      <c r="G7" s="147">
+        <v>1.0753E-2</v>
+      </c>
+      <c r="H7" s="148">
+        <v>0.98924699999999999</v>
+      </c>
+      <c r="I7" s="146">
+        <v>0</v>
+      </c>
+      <c r="J7" s="147">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="K7" s="148">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="L7" s="146">
+        <v>0</v>
+      </c>
+      <c r="M7" s="147">
+        <v>2.1505E-2</v>
+      </c>
+      <c r="N7" s="148">
+        <v>0.978495</v>
+      </c>
+      <c r="Q7" s="174">
+        <v>0</v>
+      </c>
+      <c r="R7" s="175">
+        <v>7.5269000000000003E-2</v>
+      </c>
+      <c r="S7" s="176">
+        <v>0.92473099999999997</v>
+      </c>
+      <c r="T7" s="174">
+        <v>2.6882E-2</v>
+      </c>
+      <c r="U7" s="175">
+        <v>6.9891999999999996E-2</v>
+      </c>
+      <c r="V7" s="176">
+        <v>0.90322599999999997</v>
+      </c>
+      <c r="W7" s="174">
+        <v>0</v>
+      </c>
+      <c r="X7" s="175">
+        <v>5.3762999999999998E-2</v>
+      </c>
+      <c r="Y7" s="176">
+        <v>0.94623699999999999</v>
+      </c>
+      <c r="Z7" s="167"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" thickBot="1">
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="Q8" s="177"/>
+      <c r="R8" s="177"/>
+      <c r="S8" s="177"/>
+      <c r="T8" s="177"/>
+      <c r="U8" s="177"/>
+      <c r="V8" s="177"/>
+      <c r="W8" s="177"/>
+      <c r="X8" s="177"/>
+      <c r="Y8" s="177"/>
+      <c r="Z8" s="167"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="161" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="150">
+        <v>1</v>
+      </c>
+      <c r="D9" s="150">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="E9" s="151">
+        <v>1</v>
+      </c>
+      <c r="F9" s="152">
+        <v>1</v>
+      </c>
+      <c r="G9" s="153">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="H9" s="154">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="I9" s="152">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J9" s="153">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="K9" s="154">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="L9" s="152">
+        <v>1</v>
+      </c>
+      <c r="M9" s="153">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="N9" s="154">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="Q9" s="178">
+        <v>1</v>
+      </c>
+      <c r="R9" s="179">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="S9" s="180">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="T9" s="178">
+        <v>1</v>
+      </c>
+      <c r="U9" s="179">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="V9" s="180">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="W9" s="178">
+        <v>1</v>
+      </c>
+      <c r="X9" s="179">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="Y9" s="180">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="Z9" s="167"/>
+    </row>
+    <row r="10" spans="1:26" ht="15" thickBot="1">
+      <c r="A10" s="162" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="137" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="147">
+        <v>0</v>
+      </c>
+      <c r="D10" s="147">
+        <v>0</v>
+      </c>
+      <c r="E10" s="148">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F10" s="155">
+        <v>0</v>
+      </c>
+      <c r="G10" s="156">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H10" s="157">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I10" s="155">
+        <v>0</v>
+      </c>
+      <c r="J10" s="156">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="K10" s="157">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L10" s="155">
+        <v>0</v>
+      </c>
+      <c r="M10" s="156">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N10" s="157">
+        <v>0.02</v>
+      </c>
+      <c r="Q10" s="181">
+        <v>0</v>
+      </c>
+      <c r="R10" s="182">
+        <v>0.04</v>
+      </c>
+      <c r="S10" s="183">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="T10" s="181">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="U10" s="182">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="V10" s="183">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="W10" s="181">
+        <v>0</v>
+      </c>
+      <c r="X10" s="182">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="Y10" s="183">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="Z10" s="167"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="L11" s="149"/>
+      <c r="M11" s="149"/>
+      <c r="N11" s="149"/>
+    </row>
+    <row r="12" spans="1:26" ht="15" thickBot="1">
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="L12" s="158"/>
+      <c r="M12" s="149"/>
+      <c r="N12" s="149"/>
+    </row>
+    <row r="13" spans="1:26" ht="15" thickBot="1">
+      <c r="A13" s="138" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="139"/>
+      <c r="C13" s="159">
+        <v>1.1320999999999999E-2</v>
+      </c>
+      <c r="D13" s="159"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="229">
+        <v>1.5094E-2</v>
+      </c>
+      <c r="G13" s="230"/>
+      <c r="H13" s="231"/>
+      <c r="L13" s="229">
+        <v>2.0754999999999999E-2</v>
+      </c>
+      <c r="M13" s="230"/>
+      <c r="N13" s="231"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="132"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q3:S3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE34F46-5B5F-40B1-84FA-2526652B640D}">
+  <dimension ref="A1:S33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" thickBot="1">
+      <c r="C1" s="220" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="221"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="220" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="221"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="220" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="221"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="220" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="221"/>
+      <c r="N1" s="222"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1"/>
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="214" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="214" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="215"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="214" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="215"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="214" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="215"/>
+      <c r="N3" s="216"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1">
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="163" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="164" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="165" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="163" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="164" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="165" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="202" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="143">
+        <v>0.993865</v>
+      </c>
+      <c r="D5" s="144">
+        <v>6.1349999999999998E-3</v>
+      </c>
+      <c r="E5" s="145">
+        <v>0</v>
+      </c>
+      <c r="F5" s="143">
+        <v>0.993865</v>
+      </c>
+      <c r="G5" s="144">
+        <v>6.1349999999999998E-3</v>
+      </c>
+      <c r="H5" s="145">
+        <v>0</v>
+      </c>
+      <c r="I5" s="166">
+        <v>0.993865</v>
+      </c>
+      <c r="J5" s="150">
+        <v>6.1349999999999998E-3</v>
+      </c>
+      <c r="K5" s="151">
+        <v>0</v>
+      </c>
+      <c r="L5" s="166">
+        <v>0.993865</v>
+      </c>
+      <c r="M5" s="150">
+        <v>6.1349999999999998E-3</v>
+      </c>
+      <c r="N5" s="151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="203"/>
+      <c r="B6" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="143">
+        <v>5.5250000000000004E-3</v>
+      </c>
+      <c r="D6" s="144">
+        <v>0.93922700000000003</v>
+      </c>
+      <c r="E6" s="145">
+        <v>5.5248999999999999E-2</v>
+      </c>
+      <c r="F6" s="143">
+        <v>0</v>
+      </c>
+      <c r="G6" s="144">
+        <v>0.96132600000000001</v>
+      </c>
+      <c r="H6" s="145">
+        <v>3.8674E-2</v>
+      </c>
+      <c r="I6" s="143">
+        <v>5.5250000000000004E-3</v>
+      </c>
+      <c r="J6" s="144">
+        <v>0.95027600000000001</v>
+      </c>
+      <c r="K6" s="145">
+        <v>4.4199000000000002E-2</v>
+      </c>
+      <c r="L6" s="143">
+        <v>0</v>
+      </c>
+      <c r="M6" s="144">
+        <v>0.92817700000000003</v>
+      </c>
+      <c r="N6" s="145">
+        <v>7.1822999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" thickBot="1">
+      <c r="A7" s="204"/>
+      <c r="B7" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="146">
+        <v>0</v>
+      </c>
+      <c r="D7" s="147">
+        <v>0.15053800000000001</v>
+      </c>
+      <c r="E7" s="148">
+        <v>0.84946200000000005</v>
+      </c>
+      <c r="F7" s="146">
+        <v>0</v>
+      </c>
+      <c r="G7" s="147">
+        <v>0.12903200000000001</v>
+      </c>
+      <c r="H7" s="148">
+        <v>0.87096799999999996</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0</v>
+      </c>
+      <c r="J7" s="147">
+        <v>0.155914</v>
+      </c>
+      <c r="K7" s="148">
+        <v>0.844086</v>
+      </c>
+      <c r="L7" s="22">
+        <v>0</v>
+      </c>
+      <c r="M7" s="147">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="N7" s="148">
+        <v>0.83333299999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" thickBot="1">
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="161" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="150">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="D9" s="150">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="E9" s="151">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="F9" s="152">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G9" s="153">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="H9" s="154">
+        <v>0.871</v>
+      </c>
+      <c r="I9" s="152">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J9" s="153">
+        <v>0.95</v>
+      </c>
+      <c r="K9" s="154">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="L9" s="152">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="M9" s="153">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="N9" s="154">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" thickBot="1">
+      <c r="A10" s="162" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="137" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="147">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D10" s="147">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E10" s="148">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F10" s="155">
+        <v>0</v>
+      </c>
+      <c r="G10" s="156">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H10" s="157">
+        <v>0.02</v>
+      </c>
+      <c r="I10" s="155">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J10" s="156">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="K10" s="157">
+        <v>2.3E-2</v>
+      </c>
+      <c r="L10" s="155">
+        <v>0</v>
+      </c>
+      <c r="M10" s="156">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="N10" s="157">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="L11" s="149"/>
+      <c r="M11" s="149"/>
+      <c r="N11" s="149"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" thickBot="1">
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="L12" s="158"/>
+      <c r="M12" s="149"/>
+      <c r="N12" s="149"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" thickBot="1">
+      <c r="A13" s="138" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="139"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="229"/>
+      <c r="G13" s="230"/>
+      <c r="H13" s="231"/>
+      <c r="J13" t="e">
+        <f>(L13-C13)/L13*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="229"/>
+      <c r="M13" s="230"/>
+      <c r="N13" s="231"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" thickBot="1">
+      <c r="A14" s="132"/>
+      <c r="Q14" s="220"/>
+      <c r="R14" s="221"/>
+      <c r="S14" s="222"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" thickBot="1"/>
+    <row r="16" spans="1:19" ht="15" thickBot="1">
+      <c r="Q16" s="214"/>
+      <c r="R16" s="215"/>
+      <c r="S16" s="216"/>
+    </row>
+    <row r="17" spans="6:19" ht="15" thickBot="1">
+      <c r="Q17" s="163"/>
+      <c r="R17" s="164"/>
+      <c r="S17" s="165"/>
+    </row>
+    <row r="18" spans="6:19">
+      <c r="Q18" s="166"/>
+      <c r="R18" s="150"/>
+      <c r="S18" s="151"/>
+    </row>
+    <row r="19" spans="6:19">
+      <c r="Q19" s="143"/>
+      <c r="R19" s="144"/>
+      <c r="S19" s="145"/>
+    </row>
+    <row r="20" spans="6:19" ht="15" thickBot="1">
+      <c r="Q20" s="22"/>
+      <c r="R20" s="147"/>
+      <c r="S20" s="148"/>
+    </row>
+    <row r="21" spans="6:19" ht="15" thickBot="1">
+      <c r="F21" s="220"/>
+      <c r="G21" s="221"/>
+      <c r="H21" s="222"/>
+      <c r="Q21" s="149"/>
+      <c r="R21" s="149"/>
+      <c r="S21" s="149"/>
+    </row>
+    <row r="22" spans="6:19" ht="15" thickBot="1">
+      <c r="Q22" s="152"/>
+      <c r="R22" s="153"/>
+      <c r="S22" s="154"/>
+    </row>
+    <row r="23" spans="6:19" ht="15" thickBot="1">
+      <c r="F23" s="214"/>
+      <c r="G23" s="215"/>
+      <c r="H23" s="216"/>
+      <c r="Q23" s="155"/>
+      <c r="R23" s="156"/>
+      <c r="S23" s="157"/>
+    </row>
+    <row r="24" spans="6:19" ht="15" thickBot="1">
+      <c r="F24" s="163"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="220"/>
+      <c r="J24" s="221"/>
+      <c r="K24" s="222"/>
+    </row>
+    <row r="25" spans="6:19" ht="15" thickBot="1">
+      <c r="F25" s="166"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="151"/>
+    </row>
+    <row r="26" spans="6:19" ht="15" thickBot="1">
+      <c r="F26" s="143"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="214"/>
+      <c r="J26" s="215"/>
+      <c r="K26" s="216"/>
+    </row>
+    <row r="27" spans="6:19" ht="15" thickBot="1">
+      <c r="F27" s="22"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="165"/>
+    </row>
+    <row r="28" spans="6:19" ht="15" thickBot="1">
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="151"/>
+    </row>
+    <row r="29" spans="6:19">
+      <c r="F29" s="152"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="145"/>
+    </row>
+    <row r="30" spans="6:19" ht="15" thickBot="1">
+      <c r="F30" s="155"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="148"/>
+    </row>
+    <row r="31" spans="6:19" ht="15" thickBot="1">
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+    </row>
+    <row r="32" spans="6:19">
+      <c r="I32" s="152"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="154"/>
+    </row>
+    <row r="33" spans="9:11" ht="15" thickBot="1">
+      <c r="I33" s="155"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="157"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8628703-0CAA-4F07-98E5-96A9CD16B317}">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" thickBot="1">
+      <c r="B1" s="220" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="221"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="220" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="221"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="220" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="221"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="220" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="221"/>
+      <c r="M1" s="222"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1"/>
+    <row r="3" spans="1:13" ht="15" thickBot="1">
+      <c r="A3" s="75"/>
+      <c r="B3" s="214" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="215"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="214" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="215"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="214" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="215"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="214" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="215"/>
+      <c r="M3" s="216"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1">
+      <c r="A4" s="75"/>
+      <c r="B4" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="163" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="164" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="165" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="163" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="164" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="165" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="143">
+        <v>0.993865</v>
+      </c>
+      <c r="C5" s="144">
+        <v>6.1349999999999998E-3</v>
+      </c>
+      <c r="D5" s="145">
+        <v>0</v>
+      </c>
+      <c r="E5" s="143">
+        <v>1</v>
+      </c>
+      <c r="F5" s="144">
+        <v>0</v>
+      </c>
+      <c r="G5" s="145">
+        <v>0</v>
+      </c>
+      <c r="H5" s="166"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="166">
+        <v>0.993865</v>
+      </c>
+      <c r="L5" s="150">
+        <v>6.1349999999999998E-3</v>
+      </c>
+      <c r="M5" s="151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="143">
+        <v>0</v>
+      </c>
+      <c r="C6" s="144">
+        <v>0.94475100000000001</v>
+      </c>
+      <c r="D6" s="145">
+        <v>5.5248999999999999E-2</v>
+      </c>
+      <c r="E6" s="143">
+        <v>0</v>
+      </c>
+      <c r="F6" s="144">
+        <v>0.96132600000000001</v>
+      </c>
+      <c r="G6" s="145">
+        <v>3.8674E-2</v>
+      </c>
+      <c r="H6" s="143"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="143">
+        <v>0</v>
+      </c>
+      <c r="L6" s="144">
+        <v>0.95580100000000001</v>
+      </c>
+      <c r="M6" s="145">
+        <v>4.4199000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1">
+      <c r="A7" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="146">
+        <v>0</v>
+      </c>
+      <c r="C7" s="147">
+        <v>0.22580600000000001</v>
+      </c>
+      <c r="D7" s="148">
+        <v>0.77419400000000005</v>
+      </c>
+      <c r="E7" s="146">
+        <v>0</v>
+      </c>
+      <c r="F7" s="147">
+        <v>0.155914</v>
+      </c>
+      <c r="G7" s="148">
+        <v>0.844086</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="147">
+        <v>0.14516100000000001</v>
+      </c>
+      <c r="M7" s="148">
+        <v>0.85483900000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1">
+      <c r="B8" s="149"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="150">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="C9" s="150">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="D9" s="151">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="E9" s="152">
+        <v>1</v>
+      </c>
+      <c r="F9" s="153">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="G9" s="154">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="152">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="L9" s="153">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="M9" s="154">
+        <v>0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1">
+      <c r="A10" s="137" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="147">
+        <v>0</v>
+      </c>
+      <c r="C10" s="147">
+        <v>0.123</v>
+      </c>
+      <c r="D10" s="148">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E10" s="155">
+        <v>0</v>
+      </c>
+      <c r="F10" s="156">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G10" s="157">
+        <v>0.02</v>
+      </c>
+      <c r="H10" s="155"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="155">
+        <v>0</v>
+      </c>
+      <c r="L10" s="156">
+        <v>0.08</v>
+      </c>
+      <c r="M10" s="157">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7B795A-4209-41FA-8414-652B34EEF6E3}">
   <dimension ref="A1:R136"/>
   <sheetViews>
@@ -6198,12 +9143,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -8822,7 +11767,2554 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0166B07-027D-478F-8A8A-718072FCAFF1}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:R110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="184" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7">
+        <v>2</v>
+      </c>
+      <c r="L2" s="7">
+        <v>3</v>
+      </c>
+      <c r="M2" s="7">
+        <v>4</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="F3" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G3" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <f>SUM(C3,C13,C23,C33,C43,C53,C63,C73,C83,C93)/10</f>
+        <v>4.9056602000000007</v>
+      </c>
+      <c r="K3" s="6">
+        <f>SUM(D3,D13,D23,D33,D43,D53,D63,D73,D83,D93)/10</f>
+        <v>4.9056601999999998</v>
+      </c>
+      <c r="L3" s="6">
+        <f>SUM(E3,E13,E23,E33,E43,E53,E63,E73,E83,E93)/10</f>
+        <v>4.3396224999999991</v>
+      </c>
+      <c r="M3" s="6">
+        <f>SUM(F3,F13,F23,F33,F43,F53,F63,F73,F83,F93)/10</f>
+        <v>6.0377357000000007</v>
+      </c>
+      <c r="N3" s="6">
+        <f>SUM(G3,G13,G23,G33,G43,G53,G63,G73,G83,G93)/10</f>
+        <v>5.6603772000000001</v>
+      </c>
+      <c r="P3">
+        <f>N3-J3</f>
+        <v>0.75471699999999942</v>
+      </c>
+      <c r="Q3">
+        <f>N3-K3</f>
+        <v>0.7547170000000003</v>
+      </c>
+      <c r="R3">
+        <f>N3-L3</f>
+        <v>1.3207547000000011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6">
+        <f>SUM(C4,C14,C24,C34,C44,C54,C64,C74,C84,C94)/10</f>
+        <v>5.0943394</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" ref="K4:K10" si="0">SUM(D4,D14,D24,D34,D44,D54,D64,D74,D84,D94)/10</f>
+        <v>5.2830187999999989</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" ref="L4:L10" si="1">SUM(E4,E14,E24,E34,E44,E54,E64,E74,E84,E94)/10</f>
+        <v>5.471698</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" ref="M4:M10" si="2">SUM(F4,F14,F24,F34,F44,F54,F64,F74,F84,F94)/10</f>
+        <v>5.2830187000000004</v>
+      </c>
+      <c r="N4" s="6">
+        <f t="shared" ref="N4:N10" si="3">SUM(G4,G14,G24,G34,G44,G54,G64,G74,G84,G94)/10</f>
+        <v>5.2830187000000004</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P10" si="4">N4-J4</f>
+        <v>0.18867930000000044</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q10" si="5">N4-K4</f>
+        <v>-9.9999998504074483E-8</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R10" si="6">N4-L4</f>
+        <v>-0.18867929999999955</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="D5" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="E5" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F5" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G5" s="4">
+        <v>11.320755</v>
+      </c>
+      <c r="I5" s="9">
+        <v>5</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" ref="J5:J10" si="7">SUM(C5,C15,C25,C35,C45,C55,C65,C75,C85,C95)/10</f>
+        <v>5.2830187999999989</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" si="0"/>
+        <v>4.7169809999999996</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="1"/>
+        <v>6.415094400000001</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="2"/>
+        <v>5.8490565000000005</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="3"/>
+        <v>6.9811320999999991</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>1.6981133000000002</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>2.2641510999999994</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="6"/>
+        <v>0.56603769999999809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F6" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G6" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="I6" s="9">
+        <v>10</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="7"/>
+        <v>5.6603770999999998</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="0"/>
+        <v>5.0943394000000009</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="1"/>
+        <v>4.5283016999999992</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="2"/>
+        <v>7.7358488999999988</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="3"/>
+        <v>6.7924525999999998</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>1.1320755</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>1.698113199999999</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="6"/>
+        <v>2.2641509000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4">
+        <v>11.320755</v>
+      </c>
+      <c r="D7" s="4">
+        <v>11.320755</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F7" s="4">
+        <v>13.207547</v>
+      </c>
+      <c r="G7" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="I7" s="9">
+        <v>20</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="7"/>
+        <v>7.3584904999999994</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="0"/>
+        <v>7.3584904999999994</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="1"/>
+        <v>7.7358489999999991</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="2"/>
+        <v>9.0566037000000001</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="3"/>
+        <v>7.9245281999999992</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>0.56603769999999987</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>0.56603769999999987</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>0.18867920000000016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4">
+        <v>20.754716999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <v>16.981131999999999</v>
+      </c>
+      <c r="E8" s="4">
+        <v>18.867925</v>
+      </c>
+      <c r="F8" s="4">
+        <v>20.754716999999999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>16.981131999999999</v>
+      </c>
+      <c r="I8" s="9">
+        <v>30</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="7"/>
+        <v>10.754716899999998</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="0"/>
+        <v>10.377358399999999</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="1"/>
+        <v>9.0566037999999995</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="2"/>
+        <v>12.075471699999998</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="3"/>
+        <v>11.509434100000002</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>0.75471720000000353</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>1.1320757000000032</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>2.4528303000000022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4">
+        <v>26.415094</v>
+      </c>
+      <c r="D9" s="4">
+        <v>18.867925</v>
+      </c>
+      <c r="E9" s="4">
+        <v>24.528302</v>
+      </c>
+      <c r="F9" s="4">
+        <v>22.641508999999999</v>
+      </c>
+      <c r="G9" s="4">
+        <v>20.754716999999999</v>
+      </c>
+      <c r="I9" s="9">
+        <v>40</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="7"/>
+        <v>26.981132099999996</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="0"/>
+        <v>25.283018999999999</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="1"/>
+        <v>20.188679299999997</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="2"/>
+        <v>25.094339599999998</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="3"/>
+        <v>20.943396299999996</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>-6.0377358000000001</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>-4.3396227000000032</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="6"/>
+        <v>0.75471699999999942</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>50</v>
+      </c>
+      <c r="C10" s="4">
+        <v>50.943396</v>
+      </c>
+      <c r="D10" s="4">
+        <v>50.943396</v>
+      </c>
+      <c r="E10" s="4">
+        <v>45.283019000000003</v>
+      </c>
+      <c r="F10" s="4">
+        <v>50.943396</v>
+      </c>
+      <c r="G10" s="4">
+        <v>62.264150999999998</v>
+      </c>
+      <c r="I10" s="9">
+        <v>50</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="7"/>
+        <v>43.396226400000003</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="0"/>
+        <v>40.377358599999994</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="1"/>
+        <v>43.584905599999999</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="2"/>
+        <v>47.735848899999993</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="3"/>
+        <v>51.509433999999999</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>8.1132075999999955</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>11.132075400000005</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="6"/>
+        <v>7.9245283999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="O12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12">
+        <f>SUM(P3:P10)/7</f>
+        <v>1.0242588285714285</v>
+      </c>
+      <c r="Q12">
+        <f>SUM(Q3:Q10)/7</f>
+        <v>1.8867924714285722</v>
+      </c>
+      <c r="R12" s="13">
+        <f>SUM(R3:R10)/7</f>
+        <v>2.1832884142857147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="3">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="E13" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="F13" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G13" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="D14" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="E14" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="F14" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G14" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="D15" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="E15" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="F15" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G15" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="3">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="D16" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="E16" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="F16" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G16" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="D17" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="E17" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F17" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G17" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="D18" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="E18" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F18" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G18" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4">
+        <v>40</v>
+      </c>
+      <c r="C19" s="4">
+        <v>16.981131999999999</v>
+      </c>
+      <c r="D19" s="4">
+        <v>16.981131999999999</v>
+      </c>
+      <c r="E19" s="4">
+        <v>16.981131999999999</v>
+      </c>
+      <c r="F19" s="4">
+        <v>30.188679</v>
+      </c>
+      <c r="G19" s="4">
+        <v>24.528302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4">
+        <v>50</v>
+      </c>
+      <c r="C20" s="4">
+        <v>67.924527999999995</v>
+      </c>
+      <c r="D20" s="4">
+        <v>56.603774000000001</v>
+      </c>
+      <c r="E20" s="4">
+        <v>50.943396</v>
+      </c>
+      <c r="F20" s="4">
+        <v>60.377358000000001</v>
+      </c>
+      <c r="G20" s="4">
+        <v>64.150942999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3">
+        <v>0</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1.886792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1.886792</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4">
+        <v>5</v>
+      </c>
+      <c r="C25" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="E25" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F25" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G25" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4">
+        <v>10</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1.886792</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3">
+        <v>4</v>
+      </c>
+      <c r="B27" s="4">
+        <v>20</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="E27" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="F27" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="G27" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3">
+        <v>5</v>
+      </c>
+      <c r="B28" s="4">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="D28" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="E28" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F28" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G28" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3">
+        <v>6</v>
+      </c>
+      <c r="B29" s="4">
+        <v>40</v>
+      </c>
+      <c r="C29" s="4">
+        <v>16.981131999999999</v>
+      </c>
+      <c r="D29" s="4">
+        <v>11.320755</v>
+      </c>
+      <c r="E29" s="4">
+        <v>13.207547</v>
+      </c>
+      <c r="F29" s="4">
+        <v>24.528302</v>
+      </c>
+      <c r="G29" s="4">
+        <v>24.528302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4">
+        <v>50</v>
+      </c>
+      <c r="C30" s="4">
+        <v>58.490566000000001</v>
+      </c>
+      <c r="D30" s="4">
+        <v>49.056604</v>
+      </c>
+      <c r="E30" s="4">
+        <v>41.509433999999999</v>
+      </c>
+      <c r="F30" s="4">
+        <v>52.830188999999997</v>
+      </c>
+      <c r="G30" s="4">
+        <v>50.943396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2">
+        <v>4</v>
+      </c>
+      <c r="G32" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3">
+        <v>0</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E33" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F33" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="G33" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E34" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F34" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="G34" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4">
+        <v>5</v>
+      </c>
+      <c r="C35" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="D35" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="E35" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F35" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="G35" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="3">
+        <v>3</v>
+      </c>
+      <c r="B36" s="4">
+        <v>10</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D36" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="E36" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F36" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G36" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="3">
+        <v>4</v>
+      </c>
+      <c r="B37" s="4">
+        <v>20</v>
+      </c>
+      <c r="C37" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="D37" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="E37" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="F37" s="4">
+        <v>11.320755</v>
+      </c>
+      <c r="G37" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3">
+        <v>5</v>
+      </c>
+      <c r="B38" s="4">
+        <v>30</v>
+      </c>
+      <c r="C38" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="D38" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E38" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F38" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="G38" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="3">
+        <v>6</v>
+      </c>
+      <c r="B39" s="4">
+        <v>40</v>
+      </c>
+      <c r="C39" s="4">
+        <v>33.962263999999998</v>
+      </c>
+      <c r="D39" s="4">
+        <v>33.962263999999998</v>
+      </c>
+      <c r="E39" s="4">
+        <v>13.207547</v>
+      </c>
+      <c r="F39" s="4">
+        <v>33.962263999999998</v>
+      </c>
+      <c r="G39" s="4">
+        <v>13.207547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="3">
+        <v>7</v>
+      </c>
+      <c r="B40" s="4">
+        <v>50</v>
+      </c>
+      <c r="C40" s="4">
+        <v>30.188679</v>
+      </c>
+      <c r="D40" s="4">
+        <v>41.509433999999999</v>
+      </c>
+      <c r="E40" s="4">
+        <v>26.415094</v>
+      </c>
+      <c r="F40" s="4">
+        <v>30.188679</v>
+      </c>
+      <c r="G40" s="4">
+        <v>52.830188999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2">
+        <v>4</v>
+      </c>
+      <c r="G42" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>0</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="D43" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="E43" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F43" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G43" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>1</v>
+      </c>
+      <c r="B44" s="4">
+        <v>2</v>
+      </c>
+      <c r="C44" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="D44" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="E44" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F44" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G44" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3">
+        <v>2</v>
+      </c>
+      <c r="B45" s="4">
+        <v>5</v>
+      </c>
+      <c r="C45" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="D45" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E45" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F45" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G45" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="3">
+        <v>3</v>
+      </c>
+      <c r="B46" s="4">
+        <v>10</v>
+      </c>
+      <c r="C46" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="D46" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="E46" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F46" s="4">
+        <v>15.094340000000001</v>
+      </c>
+      <c r="G46" s="4">
+        <v>11.320755</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="3">
+        <v>4</v>
+      </c>
+      <c r="B47" s="4">
+        <v>20</v>
+      </c>
+      <c r="C47" s="4">
+        <v>15.094340000000001</v>
+      </c>
+      <c r="D47" s="4">
+        <v>16.981131999999999</v>
+      </c>
+      <c r="E47" s="4">
+        <v>16.981131999999999</v>
+      </c>
+      <c r="F47" s="4">
+        <v>11.320755</v>
+      </c>
+      <c r="G47" s="4">
+        <v>13.207547</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="3">
+        <v>5</v>
+      </c>
+      <c r="B48" s="4">
+        <v>30</v>
+      </c>
+      <c r="C48" s="4">
+        <v>13.207547</v>
+      </c>
+      <c r="D48" s="4">
+        <v>13.207547</v>
+      </c>
+      <c r="E48" s="4">
+        <v>13.207547</v>
+      </c>
+      <c r="F48" s="4">
+        <v>16.981131999999999</v>
+      </c>
+      <c r="G48" s="4">
+        <v>16.981131999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="3">
+        <v>6</v>
+      </c>
+      <c r="B49" s="4">
+        <v>40</v>
+      </c>
+      <c r="C49" s="4">
+        <v>26.415094</v>
+      </c>
+      <c r="D49" s="4">
+        <v>28.301887000000001</v>
+      </c>
+      <c r="E49" s="4">
+        <v>28.301887000000001</v>
+      </c>
+      <c r="F49" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G49" s="4">
+        <v>28.301887000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="3">
+        <v>7</v>
+      </c>
+      <c r="B50" s="4">
+        <v>50</v>
+      </c>
+      <c r="C50" s="4">
+        <v>32.075471999999998</v>
+      </c>
+      <c r="D50" s="4">
+        <v>32.075471999999998</v>
+      </c>
+      <c r="E50" s="4">
+        <v>54.716980999999997</v>
+      </c>
+      <c r="F50" s="4">
+        <v>43.396225999999999</v>
+      </c>
+      <c r="G50" s="4">
+        <v>50.943396</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2">
+        <v>3</v>
+      </c>
+      <c r="F52" s="2">
+        <v>4</v>
+      </c>
+      <c r="G52" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="3">
+        <v>0</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
+      <c r="C53" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="E53" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="F53" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1.886792</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="3">
+        <v>1</v>
+      </c>
+      <c r="B54" s="4">
+        <v>2</v>
+      </c>
+      <c r="C54" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="E54" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="G54" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="3">
+        <v>2</v>
+      </c>
+      <c r="B55" s="4">
+        <v>5</v>
+      </c>
+      <c r="C55" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="D55" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="E55" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F55" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="G55" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="3">
+        <v>3</v>
+      </c>
+      <c r="B56" s="4">
+        <v>10</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1.886792</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="3">
+        <v>4</v>
+      </c>
+      <c r="B57" s="4">
+        <v>20</v>
+      </c>
+      <c r="C57" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="D57" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="E57" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="F57" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G57" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="3">
+        <v>5</v>
+      </c>
+      <c r="B58" s="4">
+        <v>30</v>
+      </c>
+      <c r="C58" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="D58" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="F58" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="G58" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="3">
+        <v>6</v>
+      </c>
+      <c r="B59" s="4">
+        <v>40</v>
+      </c>
+      <c r="C59" s="4">
+        <v>28.301887000000001</v>
+      </c>
+      <c r="D59" s="4">
+        <v>28.301887000000001</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="F59" s="4">
+        <v>28.301887000000001</v>
+      </c>
+      <c r="G59" s="4">
+        <v>28.301887000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="3">
+        <v>7</v>
+      </c>
+      <c r="B60" s="4">
+        <v>50</v>
+      </c>
+      <c r="C60" s="4">
+        <v>43.396225999999999</v>
+      </c>
+      <c r="D60" s="4">
+        <v>39.622641999999999</v>
+      </c>
+      <c r="E60" s="4">
+        <v>32.075471999999998</v>
+      </c>
+      <c r="F60" s="4">
+        <v>33.962263999999998</v>
+      </c>
+      <c r="G60" s="4">
+        <v>33.962263999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2">
+        <v>3</v>
+      </c>
+      <c r="F62" s="2">
+        <v>4</v>
+      </c>
+      <c r="G62" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="3">
+        <v>0</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="D63" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="E63" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F63" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G63" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="3">
+        <v>1</v>
+      </c>
+      <c r="B64" s="4">
+        <v>2</v>
+      </c>
+      <c r="C64" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="D64" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="E64" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="F64" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G64" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="3">
+        <v>2</v>
+      </c>
+      <c r="B65" s="4">
+        <v>5</v>
+      </c>
+      <c r="C65" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="D65" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="E65" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="F65" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G65" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="3">
+        <v>3</v>
+      </c>
+      <c r="B66" s="4">
+        <v>10</v>
+      </c>
+      <c r="C66" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="D66" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="E66" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="F66" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G66" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="3">
+        <v>4</v>
+      </c>
+      <c r="B67" s="4">
+        <v>20</v>
+      </c>
+      <c r="C67" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="D67" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="E67" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="F67" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G67" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="3">
+        <v>5</v>
+      </c>
+      <c r="B68" s="4">
+        <v>30</v>
+      </c>
+      <c r="C68" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="D68" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="E68" s="4">
+        <v>11.320755</v>
+      </c>
+      <c r="F68" s="4">
+        <v>26.415094</v>
+      </c>
+      <c r="G68" s="4">
+        <v>11.320755</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="3">
+        <v>6</v>
+      </c>
+      <c r="B69" s="4">
+        <v>40</v>
+      </c>
+      <c r="C69" s="4">
+        <v>28.301887000000001</v>
+      </c>
+      <c r="D69" s="4">
+        <v>16.981131999999999</v>
+      </c>
+      <c r="E69" s="4">
+        <v>24.528302</v>
+      </c>
+      <c r="F69" s="4">
+        <v>24.528302</v>
+      </c>
+      <c r="G69" s="4">
+        <v>30.188679</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="3">
+        <v>7</v>
+      </c>
+      <c r="B70" s="4">
+        <v>50</v>
+      </c>
+      <c r="C70" s="4">
+        <v>35.849057000000002</v>
+      </c>
+      <c r="D70" s="4">
+        <v>35.849057000000002</v>
+      </c>
+      <c r="E70" s="4">
+        <v>41.509433999999999</v>
+      </c>
+      <c r="F70" s="4">
+        <v>66.037735999999995</v>
+      </c>
+      <c r="G70" s="4">
+        <v>66.037735999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2">
+        <v>2</v>
+      </c>
+      <c r="E72" s="2">
+        <v>3</v>
+      </c>
+      <c r="F72" s="2">
+        <v>4</v>
+      </c>
+      <c r="G72" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="3">
+        <v>0</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="G73" s="4">
+        <v>1.886792</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="3">
+        <v>1</v>
+      </c>
+      <c r="B74" s="4">
+        <v>2</v>
+      </c>
+      <c r="C74" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D74" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="G74" s="4">
+        <v>1.886792</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="3">
+        <v>2</v>
+      </c>
+      <c r="B75" s="4">
+        <v>5</v>
+      </c>
+      <c r="C75" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="G75" s="4">
+        <v>1.886792</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="3">
+        <v>3</v>
+      </c>
+      <c r="B76" s="4">
+        <v>10</v>
+      </c>
+      <c r="C76" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="F76" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G76" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="3">
+        <v>4</v>
+      </c>
+      <c r="B77" s="4">
+        <v>20</v>
+      </c>
+      <c r="C77" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="D77" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E77" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F77" s="4">
+        <v>11.320755</v>
+      </c>
+      <c r="G77" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="3">
+        <v>5</v>
+      </c>
+      <c r="B78" s="4">
+        <v>30</v>
+      </c>
+      <c r="C78" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="D78" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E78" s="4">
+        <v>13.207547</v>
+      </c>
+      <c r="F78" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="G78" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="3">
+        <v>6</v>
+      </c>
+      <c r="B79" s="4">
+        <v>40</v>
+      </c>
+      <c r="C79" s="4">
+        <v>11.320755</v>
+      </c>
+      <c r="D79" s="4">
+        <v>35.849057000000002</v>
+      </c>
+      <c r="E79" s="4">
+        <v>18.867925</v>
+      </c>
+      <c r="F79" s="4">
+        <v>33.962263999999998</v>
+      </c>
+      <c r="G79" s="4">
+        <v>16.981131999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="3">
+        <v>7</v>
+      </c>
+      <c r="B80" s="4">
+        <v>50</v>
+      </c>
+      <c r="C80" s="4">
+        <v>45.283019000000003</v>
+      </c>
+      <c r="D80" s="4">
+        <v>33.962263999999998</v>
+      </c>
+      <c r="E80" s="4">
+        <v>47.169811000000003</v>
+      </c>
+      <c r="F80" s="4">
+        <v>30.188679</v>
+      </c>
+      <c r="G80" s="4">
+        <v>49.056604</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2">
+        <v>2</v>
+      </c>
+      <c r="E82" s="2">
+        <v>3</v>
+      </c>
+      <c r="F82" s="2">
+        <v>4</v>
+      </c>
+      <c r="G82" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="3">
+        <v>0</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0</v>
+      </c>
+      <c r="C83" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D83" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="E83" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F83" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="G83" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="3">
+        <v>1</v>
+      </c>
+      <c r="B84" s="4">
+        <v>2</v>
+      </c>
+      <c r="C84" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D84" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E84" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="F84" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="G84" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="3">
+        <v>2</v>
+      </c>
+      <c r="B85" s="4">
+        <v>5</v>
+      </c>
+      <c r="C85" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="D85" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E85" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F85" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="G85" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="3">
+        <v>3</v>
+      </c>
+      <c r="B86" s="4">
+        <v>10</v>
+      </c>
+      <c r="C86" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="F86" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="G86" s="4">
+        <v>1.886792</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="3">
+        <v>4</v>
+      </c>
+      <c r="B87" s="4">
+        <v>20</v>
+      </c>
+      <c r="C87" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="D87" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E87" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1.886792</v>
+      </c>
+      <c r="G87" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="3">
+        <v>5</v>
+      </c>
+      <c r="B88" s="4">
+        <v>30</v>
+      </c>
+      <c r="C88" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="D88" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="E88" s="4">
+        <v>5.6603770000000004</v>
+      </c>
+      <c r="F88" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G88" s="4">
+        <v>11.320755</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="3">
+        <v>6</v>
+      </c>
+      <c r="B89" s="4">
+        <v>40</v>
+      </c>
+      <c r="C89" s="4">
+        <v>32.075471999999998</v>
+      </c>
+      <c r="D89" s="4">
+        <v>13.207547</v>
+      </c>
+      <c r="E89" s="4">
+        <v>11.320755</v>
+      </c>
+      <c r="F89" s="4">
+        <v>15.094340000000001</v>
+      </c>
+      <c r="G89" s="4">
+        <v>15.094340000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="3">
+        <v>7</v>
+      </c>
+      <c r="B90" s="4">
+        <v>50</v>
+      </c>
+      <c r="C90" s="4">
+        <v>13.207547</v>
+      </c>
+      <c r="D90" s="4">
+        <v>13.207547</v>
+      </c>
+      <c r="E90" s="4">
+        <v>33.962263999999998</v>
+      </c>
+      <c r="F90" s="4">
+        <v>50.943396</v>
+      </c>
+      <c r="G90" s="4">
+        <v>18.867925</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2">
+        <v>2</v>
+      </c>
+      <c r="E92" s="2">
+        <v>3</v>
+      </c>
+      <c r="F92" s="2">
+        <v>4</v>
+      </c>
+      <c r="G92" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="3">
+        <v>0</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0</v>
+      </c>
+      <c r="C93" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="D93" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E93" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F93" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G93" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="3">
+        <v>1</v>
+      </c>
+      <c r="B94" s="4">
+        <v>2</v>
+      </c>
+      <c r="C94" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="D94" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E94" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F94" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="G94" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="3">
+        <v>2</v>
+      </c>
+      <c r="B95" s="4">
+        <v>5</v>
+      </c>
+      <c r="C95" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="D95" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="E95" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F95" s="4">
+        <v>0</v>
+      </c>
+      <c r="G95" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="3">
+        <v>3</v>
+      </c>
+      <c r="B96" s="4">
+        <v>10</v>
+      </c>
+      <c r="C96" s="4">
+        <v>11.320755</v>
+      </c>
+      <c r="D96" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="E96" s="4">
+        <v>3.7735850000000002</v>
+      </c>
+      <c r="F96" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G96" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="3">
+        <v>4</v>
+      </c>
+      <c r="B97" s="4">
+        <v>20</v>
+      </c>
+      <c r="C97" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="D97" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="E97" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F97" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+      <c r="G97" s="4">
+        <v>9.4339619999999993</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="3">
+        <v>5</v>
+      </c>
+      <c r="B98" s="4">
+        <v>30</v>
+      </c>
+      <c r="C98" s="4">
+        <v>26.415094</v>
+      </c>
+      <c r="D98" s="4">
+        <v>26.415094</v>
+      </c>
+      <c r="E98" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+      <c r="F98" s="4">
+        <v>18.867925</v>
+      </c>
+      <c r="G98" s="4">
+        <v>28.301887000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="3">
+        <v>6</v>
+      </c>
+      <c r="B99" s="4">
+        <v>40</v>
+      </c>
+      <c r="C99" s="4">
+        <v>49.056604</v>
+      </c>
+      <c r="D99" s="4">
+        <v>49.056604</v>
+      </c>
+      <c r="E99" s="4">
+        <v>49.056604</v>
+      </c>
+      <c r="F99" s="4">
+        <v>30.188679</v>
+      </c>
+      <c r="G99" s="4">
+        <v>7.5471700000000004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="3">
+        <v>7</v>
+      </c>
+      <c r="B100" s="4">
+        <v>50</v>
+      </c>
+      <c r="C100" s="4">
+        <v>56.603774000000001</v>
+      </c>
+      <c r="D100" s="4">
+        <v>50.943396</v>
+      </c>
+      <c r="E100" s="4">
+        <v>62.264150999999998</v>
+      </c>
+      <c r="F100" s="4">
+        <v>58.490566000000001</v>
+      </c>
+      <c r="G100" s="4">
+        <v>66.037735999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="3"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="3"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="3"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="3"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="3"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="3"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="3"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="3"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:M1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J3:N10">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
+      <formula>$N3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7083BF07-1AC4-41D3-97F4-EBDBFF07E078}">
   <dimension ref="A1:R100"/>
   <sheetViews>
@@ -8837,12 +14329,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -11300,7 +16792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAF0E33-89A0-41E3-BAC2-A12B5AA7D4DB}">
   <dimension ref="A1:R116"/>
   <sheetViews>
@@ -11319,12 +16811,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -13840,7 +19332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51FC46D-31CC-4642-B6ED-54142E865E85}">
   <dimension ref="A1:R100"/>
   <sheetViews>
@@ -13858,12 +19350,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -16299,7 +21791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130C1626-F46B-4E63-BD76-6DAF8FD1642F}">
   <dimension ref="A1:R100"/>
   <sheetViews>
@@ -16317,12 +21809,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -18758,7 +24250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0356319-D8E4-45A4-BC5C-DDD8D8911F3D}">
   <dimension ref="A1:R100"/>
   <sheetViews>
@@ -18776,12 +24268,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -21217,2554 +26709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0166B07-027D-478F-8A8A-718072FCAFF1}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:R110"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="121" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="7">
-        <v>1</v>
-      </c>
-      <c r="K2" s="7">
-        <v>2</v>
-      </c>
-      <c r="L2" s="7">
-        <v>3</v>
-      </c>
-      <c r="M2" s="7">
-        <v>4</v>
-      </c>
-      <c r="N2" s="8"/>
-      <c r="P2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="D3" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="E3" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="F3" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G3" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <f>SUM(C3,C13,C23,C33,C43,C53,C63,C73,C83,C93)/10</f>
-        <v>4.9056602000000007</v>
-      </c>
-      <c r="K3" s="6">
-        <f>SUM(D3,D13,D23,D33,D43,D53,D63,D73,D83,D93)/10</f>
-        <v>4.9056601999999998</v>
-      </c>
-      <c r="L3" s="6">
-        <f>SUM(E3,E13,E23,E33,E43,E53,E63,E73,E83,E93)/10</f>
-        <v>4.3396224999999991</v>
-      </c>
-      <c r="M3" s="6">
-        <f>SUM(F3,F13,F23,F33,F43,F53,F63,F73,F83,F93)/10</f>
-        <v>6.0377357000000007</v>
-      </c>
-      <c r="N3" s="6">
-        <f>SUM(G3,G13,G23,G33,G43,G53,G63,G73,G83,G93)/10</f>
-        <v>5.6603772000000001</v>
-      </c>
-      <c r="P3">
-        <f>N3-J3</f>
-        <v>0.75471699999999942</v>
-      </c>
-      <c r="Q3">
-        <f>N3-K3</f>
-        <v>0.7547170000000003</v>
-      </c>
-      <c r="R3">
-        <f>N3-L3</f>
-        <v>1.3207547000000011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="D4" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="E4" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="I4" s="9">
-        <v>2</v>
-      </c>
-      <c r="J4" s="6">
-        <f>SUM(C4,C14,C24,C34,C44,C54,C64,C74,C84,C94)/10</f>
-        <v>5.0943394</v>
-      </c>
-      <c r="K4" s="6">
-        <f t="shared" ref="K4:K10" si="0">SUM(D4,D14,D24,D34,D44,D54,D64,D74,D84,D94)/10</f>
-        <v>5.2830187999999989</v>
-      </c>
-      <c r="L4" s="6">
-        <f t="shared" ref="L4:L10" si="1">SUM(E4,E14,E24,E34,E44,E54,E64,E74,E84,E94)/10</f>
-        <v>5.471698</v>
-      </c>
-      <c r="M4" s="6">
-        <f t="shared" ref="M4:M10" si="2">SUM(F4,F14,F24,F34,F44,F54,F64,F74,F84,F94)/10</f>
-        <v>5.2830187000000004</v>
-      </c>
-      <c r="N4" s="6">
-        <f t="shared" ref="N4:N10" si="3">SUM(G4,G14,G24,G34,G44,G54,G64,G74,G84,G94)/10</f>
-        <v>5.2830187000000004</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P10" si="4">N4-J4</f>
-        <v>0.18867930000000044</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q10" si="5">N4-K4</f>
-        <v>-9.9999998504074483E-8</v>
-      </c>
-      <c r="R4">
-        <f t="shared" ref="R4:R10" si="6">N4-L4</f>
-        <v>-0.18867929999999955</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="D5" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="E5" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F5" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G5" s="4">
-        <v>11.320755</v>
-      </c>
-      <c r="I5" s="9">
-        <v>5</v>
-      </c>
-      <c r="J5" s="6">
-        <f t="shared" ref="J5:J10" si="7">SUM(C5,C15,C25,C35,C45,C55,C65,C75,C85,C95)/10</f>
-        <v>5.2830187999999989</v>
-      </c>
-      <c r="K5" s="6">
-        <f t="shared" si="0"/>
-        <v>4.7169809999999996</v>
-      </c>
-      <c r="L5" s="6">
-        <f t="shared" si="1"/>
-        <v>6.415094400000001</v>
-      </c>
-      <c r="M5" s="6">
-        <f t="shared" si="2"/>
-        <v>5.8490565000000005</v>
-      </c>
-      <c r="N5" s="6">
-        <f t="shared" si="3"/>
-        <v>6.9811320999999991</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="4"/>
-        <v>1.6981133000000002</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="5"/>
-        <v>2.2641510999999994</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="6"/>
-        <v>0.56603769999999809</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="D6" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F6" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G6" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="I6" s="9">
-        <v>10</v>
-      </c>
-      <c r="J6" s="6">
-        <f t="shared" si="7"/>
-        <v>5.6603770999999998</v>
-      </c>
-      <c r="K6" s="6">
-        <f t="shared" si="0"/>
-        <v>5.0943394000000009</v>
-      </c>
-      <c r="L6" s="6">
-        <f t="shared" si="1"/>
-        <v>4.5283016999999992</v>
-      </c>
-      <c r="M6" s="6">
-        <f t="shared" si="2"/>
-        <v>7.7358488999999988</v>
-      </c>
-      <c r="N6" s="6">
-        <f t="shared" si="3"/>
-        <v>6.7924525999999998</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="4"/>
-        <v>1.1320755</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="5"/>
-        <v>1.698113199999999</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="6"/>
-        <v>2.2641509000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4">
-        <v>11.320755</v>
-      </c>
-      <c r="D7" s="4">
-        <v>11.320755</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F7" s="4">
-        <v>13.207547</v>
-      </c>
-      <c r="G7" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="I7" s="9">
-        <v>20</v>
-      </c>
-      <c r="J7" s="6">
-        <f t="shared" si="7"/>
-        <v>7.3584904999999994</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" si="0"/>
-        <v>7.3584904999999994</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" si="1"/>
-        <v>7.7358489999999991</v>
-      </c>
-      <c r="M7" s="6">
-        <f t="shared" si="2"/>
-        <v>9.0566037000000001</v>
-      </c>
-      <c r="N7" s="6">
-        <f t="shared" si="3"/>
-        <v>7.9245281999999992</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="4"/>
-        <v>0.56603769999999987</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="5"/>
-        <v>0.56603769999999987</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="6"/>
-        <v>0.18867920000000016</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4">
-        <v>20.754716999999999</v>
-      </c>
-      <c r="D8" s="4">
-        <v>16.981131999999999</v>
-      </c>
-      <c r="E8" s="4">
-        <v>18.867925</v>
-      </c>
-      <c r="F8" s="4">
-        <v>20.754716999999999</v>
-      </c>
-      <c r="G8" s="4">
-        <v>16.981131999999999</v>
-      </c>
-      <c r="I8" s="9">
-        <v>30</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="7"/>
-        <v>10.754716899999998</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="0"/>
-        <v>10.377358399999999</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" si="1"/>
-        <v>9.0566037999999995</v>
-      </c>
-      <c r="M8" s="6">
-        <f t="shared" si="2"/>
-        <v>12.075471699999998</v>
-      </c>
-      <c r="N8" s="6">
-        <f t="shared" si="3"/>
-        <v>11.509434100000002</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="4"/>
-        <v>0.75471720000000353</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="5"/>
-        <v>1.1320757000000032</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="6"/>
-        <v>2.4528303000000022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>40</v>
-      </c>
-      <c r="C9" s="4">
-        <v>26.415094</v>
-      </c>
-      <c r="D9" s="4">
-        <v>18.867925</v>
-      </c>
-      <c r="E9" s="4">
-        <v>24.528302</v>
-      </c>
-      <c r="F9" s="4">
-        <v>22.641508999999999</v>
-      </c>
-      <c r="G9" s="4">
-        <v>20.754716999999999</v>
-      </c>
-      <c r="I9" s="9">
-        <v>40</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="7"/>
-        <v>26.981132099999996</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" si="0"/>
-        <v>25.283018999999999</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" si="1"/>
-        <v>20.188679299999997</v>
-      </c>
-      <c r="M9" s="6">
-        <f t="shared" si="2"/>
-        <v>25.094339599999998</v>
-      </c>
-      <c r="N9" s="6">
-        <f t="shared" si="3"/>
-        <v>20.943396299999996</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="4"/>
-        <v>-6.0377358000000001</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="5"/>
-        <v>-4.3396227000000032</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="6"/>
-        <v>0.75471699999999942</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4">
-        <v>50</v>
-      </c>
-      <c r="C10" s="4">
-        <v>50.943396</v>
-      </c>
-      <c r="D10" s="4">
-        <v>50.943396</v>
-      </c>
-      <c r="E10" s="4">
-        <v>45.283019000000003</v>
-      </c>
-      <c r="F10" s="4">
-        <v>50.943396</v>
-      </c>
-      <c r="G10" s="4">
-        <v>62.264150999999998</v>
-      </c>
-      <c r="I10" s="9">
-        <v>50</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" si="7"/>
-        <v>43.396226400000003</v>
-      </c>
-      <c r="K10" s="6">
-        <f t="shared" si="0"/>
-        <v>40.377358599999994</v>
-      </c>
-      <c r="L10" s="6">
-        <f t="shared" si="1"/>
-        <v>43.584905599999999</v>
-      </c>
-      <c r="M10" s="6">
-        <f t="shared" si="2"/>
-        <v>47.735848899999993</v>
-      </c>
-      <c r="N10" s="6">
-        <f t="shared" si="3"/>
-        <v>51.509433999999999</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="4"/>
-        <v>8.1132075999999955</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="5"/>
-        <v>11.132075400000005</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="6"/>
-        <v>7.9245283999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2">
-        <v>4</v>
-      </c>
-      <c r="G12" s="2">
-        <v>5</v>
-      </c>
-      <c r="O12" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12">
-        <f>SUM(P3:P10)/7</f>
-        <v>1.0242588285714285</v>
-      </c>
-      <c r="Q12">
-        <f>SUM(Q3:Q10)/7</f>
-        <v>1.8867924714285722</v>
-      </c>
-      <c r="R12" s="13">
-        <f>SUM(R3:R10)/7</f>
-        <v>2.1832884142857147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="3">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="D13" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="E13" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="F13" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G13" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="D14" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="E14" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="F14" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G14" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4">
-        <v>5</v>
-      </c>
-      <c r="C15" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="D15" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="E15" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="F15" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G15" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="3">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="D16" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="E16" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="F16" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G16" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="D17" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="E17" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F17" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G17" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4">
-        <v>30</v>
-      </c>
-      <c r="C18" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="D18" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="E18" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F18" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G18" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3">
-        <v>6</v>
-      </c>
-      <c r="B19" s="4">
-        <v>40</v>
-      </c>
-      <c r="C19" s="4">
-        <v>16.981131999999999</v>
-      </c>
-      <c r="D19" s="4">
-        <v>16.981131999999999</v>
-      </c>
-      <c r="E19" s="4">
-        <v>16.981131999999999</v>
-      </c>
-      <c r="F19" s="4">
-        <v>30.188679</v>
-      </c>
-      <c r="G19" s="4">
-        <v>24.528302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3">
-        <v>7</v>
-      </c>
-      <c r="B20" s="4">
-        <v>50</v>
-      </c>
-      <c r="C20" s="4">
-        <v>67.924527999999995</v>
-      </c>
-      <c r="D20" s="4">
-        <v>56.603774000000001</v>
-      </c>
-      <c r="E20" s="4">
-        <v>50.943396</v>
-      </c>
-      <c r="F20" s="4">
-        <v>60.377358000000001</v>
-      </c>
-      <c r="G20" s="4">
-        <v>64.150942999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>3</v>
-      </c>
-      <c r="F22" s="2">
-        <v>4</v>
-      </c>
-      <c r="G22" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="3">
-        <v>0</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1.886792</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="3">
-        <v>1</v>
-      </c>
-      <c r="B24" s="4">
-        <v>2</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="E24" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1.886792</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="3">
-        <v>2</v>
-      </c>
-      <c r="B25" s="4">
-        <v>5</v>
-      </c>
-      <c r="C25" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="E25" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F25" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G25" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="3">
-        <v>3</v>
-      </c>
-      <c r="B26" s="4">
-        <v>10</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="G26" s="4">
-        <v>1.886792</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="3">
-        <v>4</v>
-      </c>
-      <c r="B27" s="4">
-        <v>20</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="E27" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="F27" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="G27" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="3">
-        <v>5</v>
-      </c>
-      <c r="B28" s="4">
-        <v>30</v>
-      </c>
-      <c r="C28" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="D28" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="E28" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F28" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G28" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="3">
-        <v>6</v>
-      </c>
-      <c r="B29" s="4">
-        <v>40</v>
-      </c>
-      <c r="C29" s="4">
-        <v>16.981131999999999</v>
-      </c>
-      <c r="D29" s="4">
-        <v>11.320755</v>
-      </c>
-      <c r="E29" s="4">
-        <v>13.207547</v>
-      </c>
-      <c r="F29" s="4">
-        <v>24.528302</v>
-      </c>
-      <c r="G29" s="4">
-        <v>24.528302</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="3">
-        <v>7</v>
-      </c>
-      <c r="B30" s="4">
-        <v>50</v>
-      </c>
-      <c r="C30" s="4">
-        <v>58.490566000000001</v>
-      </c>
-      <c r="D30" s="4">
-        <v>49.056604</v>
-      </c>
-      <c r="E30" s="4">
-        <v>41.509433999999999</v>
-      </c>
-      <c r="F30" s="4">
-        <v>52.830188999999997</v>
-      </c>
-      <c r="G30" s="4">
-        <v>50.943396</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2">
-        <v>3</v>
-      </c>
-      <c r="F32" s="2">
-        <v>4</v>
-      </c>
-      <c r="G32" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="3">
-        <v>0</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0</v>
-      </c>
-      <c r="C33" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="D33" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E33" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F33" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="G33" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="3">
-        <v>1</v>
-      </c>
-      <c r="B34" s="4">
-        <v>2</v>
-      </c>
-      <c r="C34" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="D34" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E34" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F34" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="G34" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="3">
-        <v>2</v>
-      </c>
-      <c r="B35" s="4">
-        <v>5</v>
-      </c>
-      <c r="C35" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="D35" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="E35" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F35" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="G35" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="3">
-        <v>3</v>
-      </c>
-      <c r="B36" s="4">
-        <v>10</v>
-      </c>
-      <c r="C36" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D36" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="E36" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F36" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G36" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="3">
-        <v>4</v>
-      </c>
-      <c r="B37" s="4">
-        <v>20</v>
-      </c>
-      <c r="C37" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="D37" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="E37" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="F37" s="4">
-        <v>11.320755</v>
-      </c>
-      <c r="G37" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="3">
-        <v>5</v>
-      </c>
-      <c r="B38" s="4">
-        <v>30</v>
-      </c>
-      <c r="C38" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="D38" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E38" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F38" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="G38" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="3">
-        <v>6</v>
-      </c>
-      <c r="B39" s="4">
-        <v>40</v>
-      </c>
-      <c r="C39" s="4">
-        <v>33.962263999999998</v>
-      </c>
-      <c r="D39" s="4">
-        <v>33.962263999999998</v>
-      </c>
-      <c r="E39" s="4">
-        <v>13.207547</v>
-      </c>
-      <c r="F39" s="4">
-        <v>33.962263999999998</v>
-      </c>
-      <c r="G39" s="4">
-        <v>13.207547</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="3">
-        <v>7</v>
-      </c>
-      <c r="B40" s="4">
-        <v>50</v>
-      </c>
-      <c r="C40" s="4">
-        <v>30.188679</v>
-      </c>
-      <c r="D40" s="4">
-        <v>41.509433999999999</v>
-      </c>
-      <c r="E40" s="4">
-        <v>26.415094</v>
-      </c>
-      <c r="F40" s="4">
-        <v>30.188679</v>
-      </c>
-      <c r="G40" s="4">
-        <v>52.830188999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>2</v>
-      </c>
-      <c r="E42" s="2">
-        <v>3</v>
-      </c>
-      <c r="F42" s="2">
-        <v>4</v>
-      </c>
-      <c r="G42" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>0</v>
-      </c>
-      <c r="B43" s="4">
-        <v>0</v>
-      </c>
-      <c r="C43" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="D43" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="E43" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F43" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G43" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>1</v>
-      </c>
-      <c r="B44" s="4">
-        <v>2</v>
-      </c>
-      <c r="C44" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="D44" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="E44" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F44" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G44" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="3">
-        <v>2</v>
-      </c>
-      <c r="B45" s="4">
-        <v>5</v>
-      </c>
-      <c r="C45" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="D45" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E45" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F45" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G45" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="3">
-        <v>3</v>
-      </c>
-      <c r="B46" s="4">
-        <v>10</v>
-      </c>
-      <c r="C46" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="D46" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="E46" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F46" s="4">
-        <v>15.094340000000001</v>
-      </c>
-      <c r="G46" s="4">
-        <v>11.320755</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="3">
-        <v>4</v>
-      </c>
-      <c r="B47" s="4">
-        <v>20</v>
-      </c>
-      <c r="C47" s="4">
-        <v>15.094340000000001</v>
-      </c>
-      <c r="D47" s="4">
-        <v>16.981131999999999</v>
-      </c>
-      <c r="E47" s="4">
-        <v>16.981131999999999</v>
-      </c>
-      <c r="F47" s="4">
-        <v>11.320755</v>
-      </c>
-      <c r="G47" s="4">
-        <v>13.207547</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="3">
-        <v>5</v>
-      </c>
-      <c r="B48" s="4">
-        <v>30</v>
-      </c>
-      <c r="C48" s="4">
-        <v>13.207547</v>
-      </c>
-      <c r="D48" s="4">
-        <v>13.207547</v>
-      </c>
-      <c r="E48" s="4">
-        <v>13.207547</v>
-      </c>
-      <c r="F48" s="4">
-        <v>16.981131999999999</v>
-      </c>
-      <c r="G48" s="4">
-        <v>16.981131999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="3">
-        <v>6</v>
-      </c>
-      <c r="B49" s="4">
-        <v>40</v>
-      </c>
-      <c r="C49" s="4">
-        <v>26.415094</v>
-      </c>
-      <c r="D49" s="4">
-        <v>28.301887000000001</v>
-      </c>
-      <c r="E49" s="4">
-        <v>28.301887000000001</v>
-      </c>
-      <c r="F49" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G49" s="4">
-        <v>28.301887000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="3">
-        <v>7</v>
-      </c>
-      <c r="B50" s="4">
-        <v>50</v>
-      </c>
-      <c r="C50" s="4">
-        <v>32.075471999999998</v>
-      </c>
-      <c r="D50" s="4">
-        <v>32.075471999999998</v>
-      </c>
-      <c r="E50" s="4">
-        <v>54.716980999999997</v>
-      </c>
-      <c r="F50" s="4">
-        <v>43.396225999999999</v>
-      </c>
-      <c r="G50" s="4">
-        <v>50.943396</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2">
-        <v>2</v>
-      </c>
-      <c r="E52" s="2">
-        <v>3</v>
-      </c>
-      <c r="F52" s="2">
-        <v>4</v>
-      </c>
-      <c r="G52" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="3">
-        <v>0</v>
-      </c>
-      <c r="B53" s="4">
-        <v>0</v>
-      </c>
-      <c r="C53" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="E53" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="F53" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="G53" s="4">
-        <v>1.886792</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="3">
-        <v>1</v>
-      </c>
-      <c r="B54" s="4">
-        <v>2</v>
-      </c>
-      <c r="C54" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="E54" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="F54" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="G54" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="3">
-        <v>2</v>
-      </c>
-      <c r="B55" s="4">
-        <v>5</v>
-      </c>
-      <c r="C55" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="D55" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="E55" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F55" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="G55" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="3">
-        <v>3</v>
-      </c>
-      <c r="B56" s="4">
-        <v>10</v>
-      </c>
-      <c r="C56" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D56" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="E56" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="F56" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="G56" s="4">
-        <v>1.886792</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="3">
-        <v>4</v>
-      </c>
-      <c r="B57" s="4">
-        <v>20</v>
-      </c>
-      <c r="C57" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="D57" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="E57" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="F57" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G57" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="3">
-        <v>5</v>
-      </c>
-      <c r="B58" s="4">
-        <v>30</v>
-      </c>
-      <c r="C58" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="D58" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="E58" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="F58" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="G58" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="3">
-        <v>6</v>
-      </c>
-      <c r="B59" s="4">
-        <v>40</v>
-      </c>
-      <c r="C59" s="4">
-        <v>28.301887000000001</v>
-      </c>
-      <c r="D59" s="4">
-        <v>28.301887000000001</v>
-      </c>
-      <c r="E59" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="F59" s="4">
-        <v>28.301887000000001</v>
-      </c>
-      <c r="G59" s="4">
-        <v>28.301887000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="3">
-        <v>7</v>
-      </c>
-      <c r="B60" s="4">
-        <v>50</v>
-      </c>
-      <c r="C60" s="4">
-        <v>43.396225999999999</v>
-      </c>
-      <c r="D60" s="4">
-        <v>39.622641999999999</v>
-      </c>
-      <c r="E60" s="4">
-        <v>32.075471999999998</v>
-      </c>
-      <c r="F60" s="4">
-        <v>33.962263999999998</v>
-      </c>
-      <c r="G60" s="4">
-        <v>33.962263999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="2">
-        <v>1</v>
-      </c>
-      <c r="D62" s="2">
-        <v>2</v>
-      </c>
-      <c r="E62" s="2">
-        <v>3</v>
-      </c>
-      <c r="F62" s="2">
-        <v>4</v>
-      </c>
-      <c r="G62" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="3">
-        <v>0</v>
-      </c>
-      <c r="B63" s="4">
-        <v>0</v>
-      </c>
-      <c r="C63" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="D63" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="E63" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F63" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G63" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="3">
-        <v>1</v>
-      </c>
-      <c r="B64" s="4">
-        <v>2</v>
-      </c>
-      <c r="C64" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="D64" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="E64" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="F64" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G64" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="3">
-        <v>2</v>
-      </c>
-      <c r="B65" s="4">
-        <v>5</v>
-      </c>
-      <c r="C65" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="D65" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="E65" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="F65" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G65" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="3">
-        <v>3</v>
-      </c>
-      <c r="B66" s="4">
-        <v>10</v>
-      </c>
-      <c r="C66" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="D66" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="E66" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="F66" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G66" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="3">
-        <v>4</v>
-      </c>
-      <c r="B67" s="4">
-        <v>20</v>
-      </c>
-      <c r="C67" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="D67" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="E67" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="F67" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G67" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="3">
-        <v>5</v>
-      </c>
-      <c r="B68" s="4">
-        <v>30</v>
-      </c>
-      <c r="C68" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="D68" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="E68" s="4">
-        <v>11.320755</v>
-      </c>
-      <c r="F68" s="4">
-        <v>26.415094</v>
-      </c>
-      <c r="G68" s="4">
-        <v>11.320755</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="3">
-        <v>6</v>
-      </c>
-      <c r="B69" s="4">
-        <v>40</v>
-      </c>
-      <c r="C69" s="4">
-        <v>28.301887000000001</v>
-      </c>
-      <c r="D69" s="4">
-        <v>16.981131999999999</v>
-      </c>
-      <c r="E69" s="4">
-        <v>24.528302</v>
-      </c>
-      <c r="F69" s="4">
-        <v>24.528302</v>
-      </c>
-      <c r="G69" s="4">
-        <v>30.188679</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="3">
-        <v>7</v>
-      </c>
-      <c r="B70" s="4">
-        <v>50</v>
-      </c>
-      <c r="C70" s="4">
-        <v>35.849057000000002</v>
-      </c>
-      <c r="D70" s="4">
-        <v>35.849057000000002</v>
-      </c>
-      <c r="E70" s="4">
-        <v>41.509433999999999</v>
-      </c>
-      <c r="F70" s="4">
-        <v>66.037735999999995</v>
-      </c>
-      <c r="G70" s="4">
-        <v>66.037735999999995</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" s="2">
-        <v>1</v>
-      </c>
-      <c r="D72" s="2">
-        <v>2</v>
-      </c>
-      <c r="E72" s="2">
-        <v>3</v>
-      </c>
-      <c r="F72" s="2">
-        <v>4</v>
-      </c>
-      <c r="G72" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="3">
-        <v>0</v>
-      </c>
-      <c r="B73" s="4">
-        <v>0</v>
-      </c>
-      <c r="C73" s="4">
-        <v>0</v>
-      </c>
-      <c r="D73" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="E73" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="F73" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="G73" s="4">
-        <v>1.886792</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="3">
-        <v>1</v>
-      </c>
-      <c r="B74" s="4">
-        <v>2</v>
-      </c>
-      <c r="C74" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D74" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E74" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="F74" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="G74" s="4">
-        <v>1.886792</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="3">
-        <v>2</v>
-      </c>
-      <c r="B75" s="4">
-        <v>5</v>
-      </c>
-      <c r="C75" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D75" s="4">
-        <v>0</v>
-      </c>
-      <c r="E75" s="4">
-        <v>0</v>
-      </c>
-      <c r="F75" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="G75" s="4">
-        <v>1.886792</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="3">
-        <v>3</v>
-      </c>
-      <c r="B76" s="4">
-        <v>10</v>
-      </c>
-      <c r="C76" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D76" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="E76" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="F76" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G76" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="3">
-        <v>4</v>
-      </c>
-      <c r="B77" s="4">
-        <v>20</v>
-      </c>
-      <c r="C77" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="D77" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E77" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F77" s="4">
-        <v>11.320755</v>
-      </c>
-      <c r="G77" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="3">
-        <v>5</v>
-      </c>
-      <c r="B78" s="4">
-        <v>30</v>
-      </c>
-      <c r="C78" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="D78" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E78" s="4">
-        <v>13.207547</v>
-      </c>
-      <c r="F78" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="G78" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="3">
-        <v>6</v>
-      </c>
-      <c r="B79" s="4">
-        <v>40</v>
-      </c>
-      <c r="C79" s="4">
-        <v>11.320755</v>
-      </c>
-      <c r="D79" s="4">
-        <v>35.849057000000002</v>
-      </c>
-      <c r="E79" s="4">
-        <v>18.867925</v>
-      </c>
-      <c r="F79" s="4">
-        <v>33.962263999999998</v>
-      </c>
-      <c r="G79" s="4">
-        <v>16.981131999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="3">
-        <v>7</v>
-      </c>
-      <c r="B80" s="4">
-        <v>50</v>
-      </c>
-      <c r="C80" s="4">
-        <v>45.283019000000003</v>
-      </c>
-      <c r="D80" s="4">
-        <v>33.962263999999998</v>
-      </c>
-      <c r="E80" s="4">
-        <v>47.169811000000003</v>
-      </c>
-      <c r="F80" s="4">
-        <v>30.188679</v>
-      </c>
-      <c r="G80" s="4">
-        <v>49.056604</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" s="2">
-        <v>1</v>
-      </c>
-      <c r="D82" s="2">
-        <v>2</v>
-      </c>
-      <c r="E82" s="2">
-        <v>3</v>
-      </c>
-      <c r="F82" s="2">
-        <v>4</v>
-      </c>
-      <c r="G82" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="3">
-        <v>0</v>
-      </c>
-      <c r="B83" s="4">
-        <v>0</v>
-      </c>
-      <c r="C83" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D83" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="E83" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F83" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="G83" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="3">
-        <v>1</v>
-      </c>
-      <c r="B84" s="4">
-        <v>2</v>
-      </c>
-      <c r="C84" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D84" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E84" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="F84" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="G84" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="3">
-        <v>2</v>
-      </c>
-      <c r="B85" s="4">
-        <v>5</v>
-      </c>
-      <c r="C85" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="D85" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E85" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F85" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="G85" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="3">
-        <v>3</v>
-      </c>
-      <c r="B86" s="4">
-        <v>10</v>
-      </c>
-      <c r="C86" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D86" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="E86" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="F86" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="G86" s="4">
-        <v>1.886792</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="3">
-        <v>4</v>
-      </c>
-      <c r="B87" s="4">
-        <v>20</v>
-      </c>
-      <c r="C87" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="D87" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E87" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F87" s="4">
-        <v>1.886792</v>
-      </c>
-      <c r="G87" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="3">
-        <v>5</v>
-      </c>
-      <c r="B88" s="4">
-        <v>30</v>
-      </c>
-      <c r="C88" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="D88" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="E88" s="4">
-        <v>5.6603770000000004</v>
-      </c>
-      <c r="F88" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G88" s="4">
-        <v>11.320755</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="3">
-        <v>6</v>
-      </c>
-      <c r="B89" s="4">
-        <v>40</v>
-      </c>
-      <c r="C89" s="4">
-        <v>32.075471999999998</v>
-      </c>
-      <c r="D89" s="4">
-        <v>13.207547</v>
-      </c>
-      <c r="E89" s="4">
-        <v>11.320755</v>
-      </c>
-      <c r="F89" s="4">
-        <v>15.094340000000001</v>
-      </c>
-      <c r="G89" s="4">
-        <v>15.094340000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="3">
-        <v>7</v>
-      </c>
-      <c r="B90" s="4">
-        <v>50</v>
-      </c>
-      <c r="C90" s="4">
-        <v>13.207547</v>
-      </c>
-      <c r="D90" s="4">
-        <v>13.207547</v>
-      </c>
-      <c r="E90" s="4">
-        <v>33.962263999999998</v>
-      </c>
-      <c r="F90" s="4">
-        <v>50.943396</v>
-      </c>
-      <c r="G90" s="4">
-        <v>18.867925</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" s="2">
-        <v>1</v>
-      </c>
-      <c r="D92" s="2">
-        <v>2</v>
-      </c>
-      <c r="E92" s="2">
-        <v>3</v>
-      </c>
-      <c r="F92" s="2">
-        <v>4</v>
-      </c>
-      <c r="G92" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="3">
-        <v>0</v>
-      </c>
-      <c r="B93" s="4">
-        <v>0</v>
-      </c>
-      <c r="C93" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="D93" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E93" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F93" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G93" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="3">
-        <v>1</v>
-      </c>
-      <c r="B94" s="4">
-        <v>2</v>
-      </c>
-      <c r="C94" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="D94" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E94" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F94" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="G94" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="3">
-        <v>2</v>
-      </c>
-      <c r="B95" s="4">
-        <v>5</v>
-      </c>
-      <c r="C95" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="D95" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="E95" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F95" s="4">
-        <v>0</v>
-      </c>
-      <c r="G95" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="3">
-        <v>3</v>
-      </c>
-      <c r="B96" s="4">
-        <v>10</v>
-      </c>
-      <c r="C96" s="4">
-        <v>11.320755</v>
-      </c>
-      <c r="D96" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="E96" s="4">
-        <v>3.7735850000000002</v>
-      </c>
-      <c r="F96" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G96" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="3">
-        <v>4</v>
-      </c>
-      <c r="B97" s="4">
-        <v>20</v>
-      </c>
-      <c r="C97" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="D97" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="E97" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F97" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-      <c r="G97" s="4">
-        <v>9.4339619999999993</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="3">
-        <v>5</v>
-      </c>
-      <c r="B98" s="4">
-        <v>30</v>
-      </c>
-      <c r="C98" s="4">
-        <v>26.415094</v>
-      </c>
-      <c r="D98" s="4">
-        <v>26.415094</v>
-      </c>
-      <c r="E98" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-      <c r="F98" s="4">
-        <v>18.867925</v>
-      </c>
-      <c r="G98" s="4">
-        <v>28.301887000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="3">
-        <v>6</v>
-      </c>
-      <c r="B99" s="4">
-        <v>40</v>
-      </c>
-      <c r="C99" s="4">
-        <v>49.056604</v>
-      </c>
-      <c r="D99" s="4">
-        <v>49.056604</v>
-      </c>
-      <c r="E99" s="4">
-        <v>49.056604</v>
-      </c>
-      <c r="F99" s="4">
-        <v>30.188679</v>
-      </c>
-      <c r="G99" s="4">
-        <v>7.5471700000000004</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="3">
-        <v>7</v>
-      </c>
-      <c r="B100" s="4">
-        <v>50</v>
-      </c>
-      <c r="C100" s="4">
-        <v>56.603774000000001</v>
-      </c>
-      <c r="D100" s="4">
-        <v>50.943396</v>
-      </c>
-      <c r="E100" s="4">
-        <v>62.264150999999998</v>
-      </c>
-      <c r="F100" s="4">
-        <v>58.490566000000001</v>
-      </c>
-      <c r="G100" s="4">
-        <v>66.037735999999995</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="3"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="3"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="3"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="3"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="3"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="3"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="3"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="3"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J1:M1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J3:N10">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
-      <formula>$N3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70B03EC-CF93-4382-A319-A74A800EBC9B}">
   <dimension ref="A1:R100"/>
   <sheetViews>
@@ -23785,12 +26730,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -26254,12 +29199,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -28942,12 +31887,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -31406,12 +34351,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -32038,16 +34983,16 @@
       <c r="G15" s="4">
         <v>16.981131999999999</v>
       </c>
-      <c r="I15" s="122" t="s">
+      <c r="I15" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="122"/>
-      <c r="O15" s="122"/>
-      <c r="P15" s="122"/>
+      <c r="J15" s="185"/>
+      <c r="K15" s="185"/>
+      <c r="L15" s="185"/>
+      <c r="M15" s="185"/>
+      <c r="N15" s="185"/>
+      <c r="O15" s="185"/>
+      <c r="P15" s="185"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="3">
@@ -33917,20 +36862,20 @@
         <v>13</v>
       </c>
       <c r="I1" s="19"/>
-      <c r="J1" s="123" t="s">
+      <c r="J1" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
       <c r="N1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="126" t="s">
+      <c r="P1" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="128"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="191"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2"/>
@@ -34447,13 +37392,13 @@
         <v>1</v>
       </c>
       <c r="I11" s="22"/>
-      <c r="J11" s="124" t="s">
+      <c r="J11" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="125"/>
+      <c r="K11" s="187"/>
+      <c r="L11" s="187"/>
+      <c r="M11" s="187"/>
+      <c r="N11" s="188"/>
       <c r="P11" s="24"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="21"/>
@@ -34562,16 +37507,16 @@
       <c r="G15" s="4">
         <v>16.981131999999999</v>
       </c>
-      <c r="I15" s="122" t="s">
+      <c r="I15" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="122"/>
-      <c r="O15" s="122"/>
-      <c r="P15" s="122"/>
+      <c r="J15" s="185"/>
+      <c r="K15" s="185"/>
+      <c r="L15" s="185"/>
+      <c r="M15" s="185"/>
+      <c r="N15" s="185"/>
+      <c r="O15" s="185"/>
+      <c r="P15" s="185"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="3">
@@ -36442,10 +39387,10 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="129" t="s">
+      <c r="G1" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="130"/>
+      <c r="H1" s="193"/>
       <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:13">
@@ -37258,10 +40203,10 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="129" t="s">
+      <c r="G1" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="130"/>
+      <c r="H1" s="193"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2"/>
@@ -37320,8 +40265,8 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="129"/>
-      <c r="O4" s="130"/>
+      <c r="N4" s="192"/>
+      <c r="O4" s="193"/>
     </row>
     <row r="5" spans="1:17" ht="15" thickBot="1">
       <c r="A5" s="2"/>

--- a/Iris_Rank_filtering_implementation.xlsx
+++ b/Iris_Rank_filtering_implementation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Decision-Trees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C43B9F-F340-4449-9FF4-8EF664F7DBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3213431E-906D-4324-82D8-9F21D0BC1930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="823" firstSheet="9" activeTab="17" xr2:uid="{6C67A883-E7E1-4B49-B51F-4602C047CF2B}"/>
   </bookViews>
@@ -29,8 +29,8 @@
     <sheet name="clust" sheetId="31" r:id="rId14"/>
     <sheet name="clustering l1pca" sheetId="32" r:id="rId15"/>
     <sheet name="knee_l1pca_2%" sheetId="33" r:id="rId16"/>
-    <sheet name="10%contam" sheetId="34" r:id="rId17"/>
-    <sheet name="0% contam" sheetId="35" r:id="rId18"/>
+    <sheet name="0%_contam" sheetId="34" r:id="rId17"/>
+    <sheet name="10% contam" sheetId="35" r:id="rId18"/>
     <sheet name="IRIS_RBF_DIST75" sheetId="5" state="hidden" r:id="rId19"/>
     <sheet name="IRIS_SVMLin_DIST80" sheetId="10" state="hidden" r:id="rId20"/>
     <sheet name="IRIS_RBF_DIST80" sheetId="12" state="hidden" r:id="rId21"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="126">
   <si>
     <t>0</t>
   </si>
@@ -803,19 +803,13 @@
     <t>Raw  Data</t>
   </si>
   <si>
-    <t>20% excision</t>
+    <t>L1 -rank 1 knee (line fit error)</t>
   </si>
   <si>
-    <t>knee error</t>
+    <t>L1 rank 1 20% excision</t>
   </si>
   <si>
-    <t>knee</t>
-  </si>
-  <si>
-    <t>Raw</t>
-  </si>
-  <si>
-    <t>knee opt</t>
+    <t>knee error + opt rank (1 to 3) using angle</t>
   </si>
 </sst>
 </file>
@@ -930,7 +924,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1036,12 +1030,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1605,7 +1593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1933,8 +1921,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1953,41 +1939,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2103,33 +2054,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2676,12 +2600,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="184" t="s">
+      <c r="J1" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -5344,10 +5268,10 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="192" t="s">
+      <c r="G1" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="193"/>
+      <c r="H1" s="174"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2"/>
@@ -5442,8 +5366,8 @@
         <v>41</v>
       </c>
       <c r="G6" s="47"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="195"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="176"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
@@ -5772,30 +5696,30 @@
     <row r="2" spans="1:14" ht="15" thickBot="1">
       <c r="B2" s="76"/>
       <c r="C2" s="76"/>
-      <c r="D2" s="198" t="s">
+      <c r="D2" s="179" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="199"/>
-      <c r="F2" s="208"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="189"/>
       <c r="G2" s="77"/>
-      <c r="K2" s="198" t="s">
+      <c r="K2" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="199"/>
+      <c r="L2" s="180"/>
       <c r="M2" s="105"/>
     </row>
     <row r="3" spans="1:14" ht="14.55" customHeight="1" thickBot="1">
-      <c r="D3" s="205" t="s">
+      <c r="D3" s="186" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="206"/>
-      <c r="F3" s="207"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="188"/>
       <c r="G3" s="78"/>
-      <c r="K3" s="209" t="s">
+      <c r="K3" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="210"/>
-      <c r="M3" s="211"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="192"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="D4" s="100" t="s">
@@ -5819,7 +5743,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.55" customHeight="1">
-      <c r="B5" s="202" t="b">
+      <c r="B5" s="183" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="97" t="s">
@@ -5834,10 +5758,10 @@
       <c r="F5" s="82">
         <v>0</v>
       </c>
-      <c r="G5" s="200" t="s">
+      <c r="G5" s="181" t="s">
         <v>105</v>
       </c>
-      <c r="I5" s="202" t="b">
+      <c r="I5" s="183" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="97" t="s">
@@ -5852,12 +5776,12 @@
       <c r="M5" s="82">
         <v>0</v>
       </c>
-      <c r="N5" s="196" t="s">
+      <c r="N5" s="177" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="B6" s="203"/>
+      <c r="B6" s="184"/>
       <c r="C6" s="98" t="s">
         <v>56</v>
       </c>
@@ -5870,8 +5794,8 @@
       <c r="F6" s="82">
         <v>1.2</v>
       </c>
-      <c r="G6" s="201"/>
-      <c r="I6" s="203"/>
+      <c r="G6" s="182"/>
+      <c r="I6" s="184"/>
       <c r="J6" s="98" t="s">
         <v>56</v>
       </c>
@@ -5884,10 +5808,10 @@
       <c r="M6" s="82">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N6" s="197"/>
+      <c r="N6" s="178"/>
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1">
-      <c r="B7" s="204"/>
+      <c r="B7" s="185"/>
       <c r="C7" s="99" t="s">
         <v>57</v>
       </c>
@@ -5901,7 +5825,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="G7" s="93"/>
-      <c r="I7" s="204"/>
+      <c r="I7" s="185"/>
       <c r="J7" s="99" t="s">
         <v>57</v>
       </c>
@@ -6719,10 +6643,10 @@
   <sheetData>
     <row r="2" spans="3:6">
       <c r="C2" s="73"/>
-      <c r="D2" s="212" t="s">
+      <c r="D2" s="193" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="213"/>
+      <c r="E2" s="194"/>
       <c r="F2" s="74"/>
     </row>
     <row r="3" spans="3:6">
@@ -6796,30 +6720,30 @@
     <row r="2" spans="1:14" ht="15" thickBot="1">
       <c r="B2" s="76"/>
       <c r="C2" s="76"/>
-      <c r="D2" s="198" t="s">
+      <c r="D2" s="179" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="199"/>
-      <c r="F2" s="208"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="189"/>
       <c r="G2" s="77"/>
-      <c r="K2" s="198" t="s">
+      <c r="K2" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="199"/>
+      <c r="L2" s="180"/>
       <c r="M2" s="105"/>
     </row>
     <row r="3" spans="1:14" ht="14.55" customHeight="1" thickBot="1">
-      <c r="D3" s="205" t="s">
+      <c r="D3" s="186" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="206"/>
-      <c r="F3" s="207"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="188"/>
       <c r="G3" s="78"/>
-      <c r="K3" s="209" t="s">
+      <c r="K3" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="210"/>
-      <c r="M3" s="211"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="192"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="D4" s="100" t="s">
@@ -6843,7 +6767,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.55" customHeight="1">
-      <c r="B5" s="202" t="b">
+      <c r="B5" s="183" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="97" t="s">
@@ -6858,10 +6782,10 @@
       <c r="F5" s="82">
         <v>0</v>
       </c>
-      <c r="G5" s="200" t="s">
+      <c r="G5" s="181" t="s">
         <v>111</v>
       </c>
-      <c r="I5" s="202" t="b">
+      <c r="I5" s="183" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="97" t="s">
@@ -6876,12 +6800,12 @@
       <c r="M5" s="82">
         <v>0</v>
       </c>
-      <c r="N5" s="196" t="s">
+      <c r="N5" s="177" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="B6" s="203"/>
+      <c r="B6" s="184"/>
       <c r="C6" s="98" t="s">
         <v>56</v>
       </c>
@@ -6896,8 +6820,8 @@
         <f>D15</f>
         <v>1.8</v>
       </c>
-      <c r="G6" s="201"/>
-      <c r="I6" s="203"/>
+      <c r="G6" s="182"/>
+      <c r="I6" s="184"/>
       <c r="J6" s="98" t="s">
         <v>56</v>
       </c>
@@ -6910,10 +6834,10 @@
       <c r="M6" s="82">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N6" s="197"/>
+      <c r="N6" s="178"/>
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1">
-      <c r="B7" s="204"/>
+      <c r="B7" s="185"/>
       <c r="C7" s="99" t="s">
         <v>57</v>
       </c>
@@ -6929,7 +6853,7 @@
         <v>17.7</v>
       </c>
       <c r="G7" s="93"/>
-      <c r="I7" s="204"/>
+      <c r="I7" s="185"/>
       <c r="J7" s="99" t="s">
         <v>57</v>
       </c>
@@ -7458,34 +7382,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="198" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="219"/>
-      <c r="H1" s="217" t="s">
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="200"/>
+      <c r="H1" s="198" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="219"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="200"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1"/>
     <row r="3" spans="1:13" ht="15" thickBot="1">
       <c r="A3" s="75"/>
       <c r="B3" s="75"/>
-      <c r="C3" s="205" t="s">
+      <c r="C3" s="186" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="206"/>
-      <c r="E3" s="207"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="188"/>
       <c r="H3" s="75"/>
-      <c r="I3" s="214" t="s">
+      <c r="I3" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="215"/>
-      <c r="K3" s="216"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="197"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1">
       <c r="A4" s="75"/>
@@ -7511,7 +7435,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="202" t="b">
+      <c r="A5" s="183" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="97" t="s">
@@ -7540,7 +7464,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="203"/>
+      <c r="A6" s="184"/>
       <c r="B6" s="98" t="s">
         <v>56</v>
       </c>
@@ -7567,7 +7491,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1">
-      <c r="A7" s="204"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="99" t="s">
         <v>57</v>
       </c>
@@ -7682,109 +7606,68 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530437CA-F5F7-4195-B3B1-6D72A17D47A6}">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="9" max="10" width="11.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" thickBot="1">
-      <c r="C1" s="220" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1">
+      <c r="C1" s="201" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="202"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="201" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="221"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="220" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="221"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="220" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="221"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="220" t="s">
+      <c r="G1" s="202"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="201" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="202"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="201" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="221"/>
-      <c r="N1" s="222"/>
-      <c r="Q1" s="223" t="s">
-        <v>125</v>
-      </c>
-      <c r="R1" s="224"/>
-      <c r="S1" s="225"/>
-      <c r="T1" s="223" t="s">
-        <v>126</v>
-      </c>
-      <c r="U1" s="224"/>
-      <c r="V1" s="225"/>
-      <c r="W1" s="223" t="s">
-        <v>127</v>
-      </c>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="225"/>
-      <c r="Z1" s="167"/>
-    </row>
-    <row r="2" spans="1:26" ht="15" thickBot="1">
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
-      <c r="X2" s="167"/>
-      <c r="Y2" s="167"/>
-      <c r="Z2" s="167"/>
-    </row>
-    <row r="3" spans="1:26" ht="15" thickBot="1">
+      <c r="M1" s="202"/>
+      <c r="N1" s="203"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1"/>
+    <row r="3" spans="1:14" ht="15" thickBot="1">
       <c r="A3" s="75"/>
       <c r="B3" s="75"/>
-      <c r="C3" s="214" t="s">
+      <c r="C3" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="215"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="214" t="s">
+      <c r="D3" s="196"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="215"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="214" t="s">
+      <c r="G3" s="196"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="215"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="214" t="s">
+      <c r="J3" s="196"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="215"/>
-      <c r="N3" s="216"/>
-      <c r="Q3" s="226" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" s="227"/>
-      <c r="S3" s="228"/>
-      <c r="T3" s="226" t="s">
-        <v>50</v>
-      </c>
-      <c r="U3" s="227"/>
-      <c r="V3" s="228"/>
-      <c r="W3" s="226" t="s">
-        <v>50</v>
-      </c>
-      <c r="X3" s="227"/>
-      <c r="Y3" s="228"/>
-      <c r="Z3" s="167"/>
-    </row>
-    <row r="4" spans="1:26" ht="15" thickBot="1">
+      <c r="M3" s="196"/>
+      <c r="N3" s="197"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="75"/>
       <c r="B4" s="75"/>
       <c r="C4" s="100" t="s">
@@ -7823,37 +7706,9 @@
       <c r="N4" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" s="168" t="s">
-        <v>58</v>
-      </c>
-      <c r="R4" s="169" t="s">
-        <v>56</v>
-      </c>
-      <c r="S4" s="170" t="s">
-        <v>57</v>
-      </c>
-      <c r="T4" s="168" t="s">
-        <v>58</v>
-      </c>
-      <c r="U4" s="169" t="s">
-        <v>56</v>
-      </c>
-      <c r="V4" s="170" t="s">
-        <v>57</v>
-      </c>
-      <c r="W4" s="168" t="s">
-        <v>58</v>
-      </c>
-      <c r="X4" s="169" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y4" s="170" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z4" s="167"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="202" t="b">
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="183" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="97" t="s">
@@ -7878,10 +7733,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="143">
-        <v>0.993865</v>
+        <v>1</v>
       </c>
       <c r="J5" s="144">
-        <v>6.1349999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="K5" s="145">
         <v>0</v>
@@ -7895,37 +7750,9 @@
       <c r="N5" s="145">
         <v>0</v>
       </c>
-      <c r="Q5" s="171">
-        <v>1</v>
-      </c>
-      <c r="R5" s="172">
-        <v>0</v>
-      </c>
-      <c r="S5" s="173">
-        <v>0</v>
-      </c>
-      <c r="T5" s="171">
-        <v>1</v>
-      </c>
-      <c r="U5" s="172">
-        <v>0</v>
-      </c>
-      <c r="V5" s="173">
-        <v>0</v>
-      </c>
-      <c r="W5" s="171">
-        <v>1</v>
-      </c>
-      <c r="X5" s="172">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="167"/>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="203"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="184"/>
       <c r="B6" s="98" t="s">
         <v>56</v>
       </c>
@@ -7933,69 +7760,41 @@
         <v>0</v>
       </c>
       <c r="D6" s="144">
-        <v>0.96685100000000002</v>
+        <v>0.93922700000000003</v>
       </c>
       <c r="E6" s="145">
-        <v>3.3148999999999998E-2</v>
+        <v>6.0773000000000001E-2</v>
       </c>
       <c r="F6" s="143">
         <v>0</v>
       </c>
       <c r="G6" s="144">
-        <v>0.96685100000000002</v>
+        <v>0.94475100000000001</v>
       </c>
       <c r="H6" s="145">
-        <v>3.3148999999999998E-2</v>
+        <v>5.5248999999999999E-2</v>
       </c>
       <c r="I6" s="143">
         <v>0</v>
       </c>
       <c r="J6" s="144">
-        <v>0.92817700000000003</v>
+        <v>0.94475100000000001</v>
       </c>
       <c r="K6" s="145">
-        <v>7.1822999999999998E-2</v>
+        <v>5.5248999999999999E-2</v>
       </c>
       <c r="L6" s="143">
         <v>0</v>
       </c>
       <c r="M6" s="144">
-        <v>0.96132600000000001</v>
+        <v>0.93922700000000003</v>
       </c>
       <c r="N6" s="145">
-        <v>3.8674E-2</v>
-      </c>
-      <c r="Q6" s="171">
-        <v>0</v>
-      </c>
-      <c r="R6" s="172">
-        <v>0.92265200000000003</v>
-      </c>
-      <c r="S6" s="173">
-        <v>7.7348E-2</v>
-      </c>
-      <c r="T6" s="171">
-        <v>4.4199000000000002E-2</v>
-      </c>
-      <c r="U6" s="172">
-        <v>0.90055200000000002</v>
-      </c>
-      <c r="V6" s="173">
-        <v>5.5248999999999999E-2</v>
-      </c>
-      <c r="W6" s="171">
-        <v>0</v>
-      </c>
-      <c r="X6" s="172">
-        <v>0.94475100000000001</v>
-      </c>
-      <c r="Y6" s="173">
-        <v>5.5248999999999999E-2</v>
-      </c>
-      <c r="Z6" s="167"/>
-    </row>
-    <row r="7" spans="1:26" ht="15" thickBot="1">
-      <c r="A7" s="204"/>
+        <v>6.0773000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1">
+      <c r="A7" s="185"/>
       <c r="B7" s="99" t="s">
         <v>57</v>
       </c>
@@ -8003,68 +7802,40 @@
         <v>0</v>
       </c>
       <c r="D7" s="147">
-        <v>0</v>
+        <v>3.7634000000000001E-2</v>
       </c>
       <c r="E7" s="148">
+        <v>0.96236600000000005</v>
+      </c>
+      <c r="F7" s="146">
+        <v>0</v>
+      </c>
+      <c r="G7" s="147">
+        <v>0</v>
+      </c>
+      <c r="H7" s="148">
         <v>1</v>
       </c>
-      <c r="F7" s="146">
-        <v>0</v>
-      </c>
-      <c r="G7" s="147">
-        <v>1.0753E-2</v>
-      </c>
-      <c r="H7" s="148">
-        <v>0.98924699999999999</v>
-      </c>
       <c r="I7" s="146">
         <v>0</v>
       </c>
       <c r="J7" s="147">
-        <v>0.16666700000000001</v>
+        <v>2.6882E-2</v>
       </c>
       <c r="K7" s="148">
-        <v>0.83333299999999999</v>
+        <v>0.97311800000000004</v>
       </c>
       <c r="L7" s="146">
         <v>0</v>
       </c>
       <c r="M7" s="147">
-        <v>2.1505E-2</v>
+        <v>3.7634000000000001E-2</v>
       </c>
       <c r="N7" s="148">
-        <v>0.978495</v>
-      </c>
-      <c r="Q7" s="174">
-        <v>0</v>
-      </c>
-      <c r="R7" s="175">
-        <v>7.5269000000000003E-2</v>
-      </c>
-      <c r="S7" s="176">
-        <v>0.92473099999999997</v>
-      </c>
-      <c r="T7" s="174">
-        <v>2.6882E-2</v>
-      </c>
-      <c r="U7" s="175">
-        <v>6.9891999999999996E-2</v>
-      </c>
-      <c r="V7" s="176">
-        <v>0.90322599999999997</v>
-      </c>
-      <c r="W7" s="174">
-        <v>0</v>
-      </c>
-      <c r="X7" s="175">
-        <v>5.3762999999999998E-2</v>
-      </c>
-      <c r="Y7" s="176">
-        <v>0.94623699999999999</v>
-      </c>
-      <c r="Z7" s="167"/>
-    </row>
-    <row r="8" spans="1:26" ht="15" thickBot="1">
+        <v>0.96236600000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="C8" s="149"/>
       <c r="D8" s="149"/>
       <c r="E8" s="149"/>
@@ -8077,19 +7848,9 @@
       <c r="L8" s="149"/>
       <c r="M8" s="149"/>
       <c r="N8" s="149"/>
-      <c r="Q8" s="177"/>
-      <c r="R8" s="177"/>
-      <c r="S8" s="177"/>
-      <c r="T8" s="177"/>
-      <c r="U8" s="177"/>
-      <c r="V8" s="177"/>
-      <c r="W8" s="177"/>
-      <c r="X8" s="177"/>
-      <c r="Y8" s="177"/>
-      <c r="Z8" s="167"/>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="161" t="s">
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="159" t="s">
         <v>119</v>
       </c>
       <c r="B9" s="100" t="s">
@@ -8099,69 +7860,41 @@
         <v>1</v>
       </c>
       <c r="D9" s="150">
-        <v>0.96699999999999997</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="E9" s="151">
-        <v>1</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="F9" s="152">
         <v>1</v>
       </c>
       <c r="G9" s="153">
-        <v>0.96699999999999997</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="H9" s="154">
-        <v>0.98899999999999999</v>
+        <v>1</v>
       </c>
       <c r="I9" s="152">
-        <v>0.99399999999999999</v>
+        <v>1</v>
       </c>
       <c r="J9" s="153">
-        <v>0.92800000000000005</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="K9" s="154">
-        <v>0.83299999999999996</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="L9" s="152">
         <v>1</v>
       </c>
       <c r="M9" s="153">
-        <v>0.96099999999999997</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="N9" s="154">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="Q9" s="178">
-        <v>1</v>
-      </c>
-      <c r="R9" s="179">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="S9" s="180">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="T9" s="178">
-        <v>1</v>
-      </c>
-      <c r="U9" s="179">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="V9" s="180">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="W9" s="178">
-        <v>1</v>
-      </c>
-      <c r="X9" s="179">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="Y9" s="180">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="Z9" s="167"/>
-    </row>
-    <row r="10" spans="1:26" ht="15" thickBot="1">
-      <c r="A10" s="162" t="s">
+        <v>0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1">
+      <c r="A10" s="160" t="s">
         <v>118</v>
       </c>
       <c r="B10" s="137" t="s">
@@ -8171,10 +7904,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="147">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E10" s="148">
-        <v>1.7000000000000001E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="F10" s="155">
         <v>0</v>
@@ -8183,56 +7916,28 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="H10" s="157">
-        <v>1.7000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="I10" s="155">
         <v>0</v>
       </c>
       <c r="J10" s="156">
-        <v>9.1999999999999998E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="K10" s="157">
-        <v>3.7999999999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="L10" s="155">
         <v>0</v>
       </c>
       <c r="M10" s="156">
-        <v>1.0999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="N10" s="157">
-        <v>0.02</v>
-      </c>
-      <c r="Q10" s="181">
-        <v>0</v>
-      </c>
-      <c r="R10" s="182">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="183">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="T10" s="181">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="U10" s="182">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="V10" s="183">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="W10" s="181">
-        <v>0</v>
-      </c>
-      <c r="X10" s="182">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="Y10" s="183">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="Z10" s="167"/>
-    </row>
-    <row r="11" spans="1:26">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="C11" s="149"/>
       <c r="D11" s="149"/>
       <c r="E11" s="149"/>
@@ -8243,7 +7948,7 @@
       <c r="M11" s="149"/>
       <c r="N11" s="149"/>
     </row>
-    <row r="12" spans="1:26" ht="15" thickBot="1">
+    <row r="12" spans="1:14">
       <c r="C12" s="149"/>
       <c r="D12" s="149"/>
       <c r="E12" s="149"/>
@@ -8254,49 +7959,17 @@
       <c r="M12" s="149"/>
       <c r="N12" s="149"/>
     </row>
-    <row r="13" spans="1:26" ht="15" thickBot="1">
-      <c r="A13" s="138" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="139"/>
-      <c r="C13" s="159">
-        <v>1.1320999999999999E-2</v>
-      </c>
-      <c r="D13" s="159"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="229">
-        <v>1.5094E-2</v>
-      </c>
-      <c r="G13" s="230"/>
-      <c r="H13" s="231"/>
-      <c r="L13" s="229">
-        <v>2.0754999999999999E-2</v>
-      </c>
-      <c r="M13" s="230"/>
-      <c r="N13" s="231"/>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="132"/>
-    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F13:H13"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="I3:K3"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Q3:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8305,66 +7978,70 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE34F46-5B5F-40B1-84FA-2526652B640D}">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N10"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
-      <c r="C1" s="220" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1">
+      <c r="C1" s="201" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="202"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="201" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="221"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="220" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="221"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="220" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="221"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="220" t="s">
+      <c r="G1" s="202"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="201" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="202"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="201" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="221"/>
-      <c r="N1" s="222"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1"/>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1">
+      <c r="M1" s="202"/>
+      <c r="N1" s="203"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1"/>
+    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="75"/>
       <c r="B3" s="75"/>
-      <c r="C3" s="214" t="s">
+      <c r="C3" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="215"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="214" t="s">
+      <c r="D3" s="196"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="215"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="214" t="s">
+      <c r="G3" s="196"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="215"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="214" t="s">
+      <c r="J3" s="196"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="215"/>
-      <c r="N3" s="216"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
+      <c r="M3" s="196"/>
+      <c r="N3" s="197"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="75"/>
       <c r="B4" s="75"/>
       <c r="C4" s="100" t="s">
@@ -8385,113 +8062,113 @@
       <c r="H4" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="163" t="s">
+      <c r="I4" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="164" t="s">
+      <c r="J4" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="165" t="s">
+      <c r="K4" s="163" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="163" t="s">
+      <c r="L4" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="164" t="s">
+      <c r="M4" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="165" t="s">
+      <c r="N4" s="163" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="202" t="b">
+    <row r="5" spans="1:14">
+      <c r="A5" s="183" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="97" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="143">
-        <v>0.993865</v>
+        <v>1</v>
       </c>
       <c r="D5" s="144">
-        <v>6.1349999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="E5" s="145">
         <v>0</v>
       </c>
       <c r="F5" s="143">
-        <v>0.993865</v>
+        <v>1</v>
       </c>
       <c r="G5" s="144">
-        <v>6.1349999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="H5" s="145">
         <v>0</v>
       </c>
-      <c r="I5" s="166">
-        <v>0.993865</v>
+      <c r="I5" s="164">
+        <v>1</v>
       </c>
       <c r="J5" s="150">
-        <v>6.1349999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="K5" s="151">
         <v>0</v>
       </c>
-      <c r="L5" s="166">
-        <v>0.993865</v>
+      <c r="L5" s="164">
+        <v>1</v>
       </c>
       <c r="M5" s="150">
-        <v>6.1349999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="N5" s="151">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="203"/>
+    <row r="6" spans="1:14">
+      <c r="A6" s="184"/>
       <c r="B6" s="98" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="143">
-        <v>5.5250000000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="144">
+        <v>0.95027600000000001</v>
+      </c>
+      <c r="E6" s="145">
+        <v>4.9723999999999997E-2</v>
+      </c>
+      <c r="F6" s="143">
+        <v>0</v>
+      </c>
+      <c r="G6" s="144">
         <v>0.93922700000000003</v>
       </c>
-      <c r="E6" s="145">
-        <v>5.5248999999999999E-2</v>
-      </c>
-      <c r="F6" s="143">
-        <v>0</v>
-      </c>
-      <c r="G6" s="144">
+      <c r="H6" s="145">
+        <v>6.0773000000000001E-2</v>
+      </c>
+      <c r="I6" s="143">
+        <v>0</v>
+      </c>
+      <c r="J6" s="144">
         <v>0.96132600000000001</v>
       </c>
-      <c r="H6" s="145">
+      <c r="K6" s="145">
         <v>3.8674E-2</v>
       </c>
-      <c r="I6" s="143">
-        <v>5.5250000000000004E-3</v>
-      </c>
-      <c r="J6" s="144">
-        <v>0.95027600000000001</v>
-      </c>
-      <c r="K6" s="145">
-        <v>4.4199000000000002E-2</v>
-      </c>
       <c r="L6" s="143">
-        <v>0</v>
+        <v>1.6574999999999999E-2</v>
       </c>
       <c r="M6" s="144">
-        <v>0.92817700000000003</v>
+        <v>0.94475100000000001</v>
       </c>
       <c r="N6" s="145">
-        <v>7.1822999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1">
-      <c r="A7" s="204"/>
+        <v>3.8674E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1">
+      <c r="A7" s="185"/>
       <c r="B7" s="99" t="s">
         <v>57</v>
       </c>
@@ -8499,40 +8176,40 @@
         <v>0</v>
       </c>
       <c r="D7" s="147">
-        <v>0.15053800000000001</v>
+        <v>2.1505E-2</v>
       </c>
       <c r="E7" s="148">
-        <v>0.84946200000000005</v>
+        <v>0.978495</v>
       </c>
       <c r="F7" s="146">
         <v>0</v>
       </c>
       <c r="G7" s="147">
-        <v>0.12903200000000001</v>
+        <v>0</v>
       </c>
       <c r="H7" s="148">
-        <v>0.87096799999999996</v>
+        <v>1</v>
       </c>
       <c r="I7" s="22">
         <v>0</v>
       </c>
       <c r="J7" s="147">
-        <v>0.155914</v>
+        <v>1.6129000000000001E-2</v>
       </c>
       <c r="K7" s="148">
-        <v>0.844086</v>
+        <v>0.98387100000000005</v>
       </c>
       <c r="L7" s="22">
         <v>0</v>
       </c>
       <c r="M7" s="147">
-        <v>0.16666700000000001</v>
+        <v>4.8386999999999999E-2</v>
       </c>
       <c r="N7" s="148">
-        <v>0.83333299999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15" thickBot="1">
+        <v>0.95161300000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="C8" s="149"/>
       <c r="D8" s="149"/>
       <c r="E8" s="149"/>
@@ -8546,95 +8223,95 @@
       <c r="M8" s="149"/>
       <c r="N8" s="149"/>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="161" t="s">
+    <row r="9" spans="1:14">
+      <c r="A9" s="159" t="s">
         <v>119</v>
       </c>
       <c r="B9" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="150">
-        <v>0.99399999999999999</v>
+      <c r="C9" s="152">
+        <v>1</v>
       </c>
       <c r="D9" s="150">
+        <v>0.95</v>
+      </c>
+      <c r="E9" s="151">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="F9" s="152">
+        <v>1</v>
+      </c>
+      <c r="G9" s="150">
         <v>0.93899999999999995</v>
       </c>
-      <c r="E9" s="151">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="F9" s="152">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="G9" s="153">
+      <c r="H9" s="151">
+        <v>1</v>
+      </c>
+      <c r="I9" s="152">
+        <v>1</v>
+      </c>
+      <c r="J9" s="153">
         <v>0.96099999999999997</v>
       </c>
-      <c r="H9" s="154">
-        <v>0.871</v>
-      </c>
-      <c r="I9" s="152">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="J9" s="153">
-        <v>0.95</v>
-      </c>
       <c r="K9" s="154">
-        <v>0.84399999999999997</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="L9" s="152">
-        <v>0.99399999999999999</v>
+        <v>1</v>
       </c>
       <c r="M9" s="153">
-        <v>0.92800000000000005</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="N9" s="154">
-        <v>0.83299999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15" thickBot="1">
-      <c r="A10" s="162" t="s">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1">
+      <c r="A10" s="160" t="s">
         <v>118</v>
       </c>
       <c r="B10" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="147">
-        <v>3.0000000000000001E-3</v>
+      <c r="C10" s="155">
+        <v>0</v>
       </c>
       <c r="D10" s="147">
-        <v>8.3000000000000004E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E10" s="148">
-        <v>2.9000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F10" s="155">
         <v>0</v>
       </c>
-      <c r="G10" s="156">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="H10" s="157">
+      <c r="G10" s="147">
+        <v>0</v>
+      </c>
+      <c r="H10" s="148">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I10" s="155">
+        <v>0</v>
+      </c>
+      <c r="J10" s="156">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K10" s="157">
         <v>0.02</v>
       </c>
-      <c r="I10" s="155">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J10" s="156">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="K10" s="157">
-        <v>2.3E-2</v>
-      </c>
       <c r="L10" s="155">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="M10" s="156">
-        <v>9.1999999999999998E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="N10" s="157">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="C11" s="149"/>
       <c r="D11" s="149"/>
       <c r="E11" s="149"/>
@@ -8645,176 +8322,17 @@
       <c r="M11" s="149"/>
       <c r="N11" s="149"/>
     </row>
-    <row r="12" spans="1:19" ht="15" thickBot="1">
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="149"/>
-      <c r="N12" s="149"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1">
-      <c r="A13" s="138" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="139"/>
-      <c r="C13" s="159"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="229"/>
-      <c r="G13" s="230"/>
-      <c r="H13" s="231"/>
-      <c r="J13" t="e">
-        <f>(L13-C13)/L13*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="229"/>
-      <c r="M13" s="230"/>
-      <c r="N13" s="231"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" thickBot="1">
-      <c r="A14" s="132"/>
-      <c r="Q14" s="220"/>
-      <c r="R14" s="221"/>
-      <c r="S14" s="222"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" thickBot="1"/>
-    <row r="16" spans="1:19" ht="15" thickBot="1">
-      <c r="Q16" s="214"/>
-      <c r="R16" s="215"/>
-      <c r="S16" s="216"/>
-    </row>
-    <row r="17" spans="6:19" ht="15" thickBot="1">
-      <c r="Q17" s="163"/>
-      <c r="R17" s="164"/>
-      <c r="S17" s="165"/>
-    </row>
-    <row r="18" spans="6:19">
-      <c r="Q18" s="166"/>
-      <c r="R18" s="150"/>
-      <c r="S18" s="151"/>
-    </row>
-    <row r="19" spans="6:19">
-      <c r="Q19" s="143"/>
-      <c r="R19" s="144"/>
-      <c r="S19" s="145"/>
-    </row>
-    <row r="20" spans="6:19" ht="15" thickBot="1">
-      <c r="Q20" s="22"/>
-      <c r="R20" s="147"/>
-      <c r="S20" s="148"/>
-    </row>
-    <row r="21" spans="6:19" ht="15" thickBot="1">
-      <c r="F21" s="220"/>
-      <c r="G21" s="221"/>
-      <c r="H21" s="222"/>
-      <c r="Q21" s="149"/>
-      <c r="R21" s="149"/>
-      <c r="S21" s="149"/>
-    </row>
-    <row r="22" spans="6:19" ht="15" thickBot="1">
-      <c r="Q22" s="152"/>
-      <c r="R22" s="153"/>
-      <c r="S22" s="154"/>
-    </row>
-    <row r="23" spans="6:19" ht="15" thickBot="1">
-      <c r="F23" s="214"/>
-      <c r="G23" s="215"/>
-      <c r="H23" s="216"/>
-      <c r="Q23" s="155"/>
-      <c r="R23" s="156"/>
-      <c r="S23" s="157"/>
-    </row>
-    <row r="24" spans="6:19" ht="15" thickBot="1">
-      <c r="F24" s="163"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="220"/>
-      <c r="J24" s="221"/>
-      <c r="K24" s="222"/>
-    </row>
-    <row r="25" spans="6:19" ht="15" thickBot="1">
-      <c r="F25" s="166"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="151"/>
-    </row>
-    <row r="26" spans="6:19" ht="15" thickBot="1">
-      <c r="F26" s="143"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="214"/>
-      <c r="J26" s="215"/>
-      <c r="K26" s="216"/>
-    </row>
-    <row r="27" spans="6:19" ht="15" thickBot="1">
-      <c r="F27" s="22"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="164"/>
-      <c r="K27" s="165"/>
-    </row>
-    <row r="28" spans="6:19" ht="15" thickBot="1">
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="151"/>
-    </row>
-    <row r="29" spans="6:19">
-      <c r="F29" s="152"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="145"/>
-    </row>
-    <row r="30" spans="6:19" ht="15" thickBot="1">
-      <c r="F30" s="155"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="147"/>
-      <c r="K30" s="148"/>
-    </row>
-    <row r="31" spans="6:19" ht="15" thickBot="1">
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-    </row>
-    <row r="32" spans="6:19">
-      <c r="I32" s="152"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="154"/>
-    </row>
-    <row r="33" spans="9:11" ht="15" thickBot="1">
-      <c r="I33" s="155"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="157"/>
-    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="L3:N3"/>
+  <mergeCells count="9">
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="A5:A7"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8826,59 +8344,63 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="B1" s="220" t="s">
+      <c r="B1" s="201" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="202"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="201" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="221"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="220" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="221"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="220" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" s="221"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="220" t="s">
+      <c r="F1" s="202"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="201" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="202"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="201" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="221"/>
-      <c r="M1" s="222"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="203"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1"/>
     <row r="3" spans="1:13" ht="15" thickBot="1">
       <c r="A3" s="75"/>
-      <c r="B3" s="214" t="s">
+      <c r="B3" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="214" t="s">
+      <c r="C3" s="196"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="215"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="214" t="s">
+      <c r="F3" s="196"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="215"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="214" t="s">
+      <c r="I3" s="196"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="215"/>
-      <c r="M3" s="216"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="197"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1">
       <c r="A4" s="75"/>
@@ -8900,22 +8422,22 @@
       <c r="G4" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="163" t="s">
+      <c r="H4" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="164" t="s">
+      <c r="I4" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="165" t="s">
+      <c r="J4" s="163" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="163" t="s">
+      <c r="K4" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="164" t="s">
+      <c r="L4" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="165" t="s">
+      <c r="M4" s="163" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8924,10 +8446,10 @@
         <v>58</v>
       </c>
       <c r="B5" s="143">
-        <v>0.993865</v>
+        <v>1</v>
       </c>
       <c r="C5" s="144">
-        <v>6.1349999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="145">
         <v>0</v>
@@ -8941,14 +8463,20 @@
       <c r="G5" s="145">
         <v>0</v>
       </c>
-      <c r="H5" s="166"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="166">
-        <v>0.993865</v>
+      <c r="H5" s="164">
+        <v>1</v>
+      </c>
+      <c r="I5" s="150">
+        <v>0</v>
+      </c>
+      <c r="J5" s="151">
+        <v>0</v>
+      </c>
+      <c r="K5" s="164">
+        <v>1</v>
       </c>
       <c r="L5" s="150">
-        <v>6.1349999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="M5" s="151">
         <v>0</v>
@@ -8962,31 +8490,37 @@
         <v>0</v>
       </c>
       <c r="C6" s="144">
-        <v>0.94475100000000001</v>
+        <v>0.92817700000000003</v>
       </c>
       <c r="D6" s="145">
-        <v>5.5248999999999999E-2</v>
+        <v>7.1822999999999998E-2</v>
       </c>
       <c r="E6" s="143">
         <v>0</v>
       </c>
       <c r="F6" s="144">
-        <v>0.96132600000000001</v>
+        <v>0.93370200000000003</v>
       </c>
       <c r="G6" s="145">
-        <v>3.8674E-2</v>
-      </c>
-      <c r="H6" s="143"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="145"/>
+        <v>6.6297999999999996E-2</v>
+      </c>
+      <c r="H6" s="143">
+        <v>0</v>
+      </c>
+      <c r="I6" s="144">
+        <v>0.93922700000000003</v>
+      </c>
+      <c r="J6" s="145">
+        <v>6.0773000000000001E-2</v>
+      </c>
       <c r="K6" s="143">
         <v>0</v>
       </c>
       <c r="L6" s="144">
-        <v>0.95580100000000001</v>
+        <v>0.93370200000000003</v>
       </c>
       <c r="M6" s="145">
-        <v>4.4199000000000002E-2</v>
+        <v>6.6297999999999996E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1">
@@ -8997,31 +8531,37 @@
         <v>0</v>
       </c>
       <c r="C7" s="147">
-        <v>0.22580600000000001</v>
+        <v>1.0753E-2</v>
       </c>
       <c r="D7" s="148">
-        <v>0.77419400000000005</v>
+        <v>0.98924699999999999</v>
       </c>
       <c r="E7" s="146">
         <v>0</v>
       </c>
       <c r="F7" s="147">
-        <v>0.155914</v>
+        <v>2.1505E-2</v>
       </c>
       <c r="G7" s="148">
-        <v>0.844086</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="148"/>
+        <v>0.978495</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
+      <c r="I7" s="147">
+        <v>1.6129000000000001E-2</v>
+      </c>
+      <c r="J7" s="148">
+        <v>0.98387100000000005</v>
+      </c>
       <c r="K7" s="22">
         <v>0</v>
       </c>
       <c r="L7" s="147">
-        <v>0.14516100000000001</v>
+        <v>4.3011000000000001E-2</v>
       </c>
       <c r="M7" s="148">
-        <v>0.85483900000000002</v>
+        <v>0.95698899999999998</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" thickBot="1">
@@ -9042,70 +8582,82 @@
       <c r="A9" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="150">
-        <v>0.99399999999999999</v>
+      <c r="B9" s="152">
+        <v>1</v>
       </c>
       <c r="C9" s="150">
-        <v>0.94499999999999995</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="D9" s="151">
-        <v>0.77400000000000002</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="E9" s="152">
         <v>1</v>
       </c>
       <c r="F9" s="153">
-        <v>0.96099999999999997</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="G9" s="154">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="154"/>
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="H9" s="152">
+        <v>1</v>
+      </c>
+      <c r="I9" s="153">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="J9" s="154">
+        <v>0.98399999999999999</v>
+      </c>
       <c r="K9" s="152">
-        <v>0.99399999999999999</v>
+        <v>1</v>
       </c>
       <c r="L9" s="153">
-        <v>0.95599999999999996</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="M9" s="154">
-        <v>0.85499999999999998</v>
+        <v>0.95699999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1">
       <c r="A10" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="147">
+      <c r="B10" s="155">
         <v>0</v>
       </c>
       <c r="C10" s="147">
-        <v>0.123</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D10" s="148">
-        <v>2.9000000000000001E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E10" s="155">
         <v>0</v>
       </c>
       <c r="F10" s="156">
-        <v>8.3000000000000004E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G10" s="157">
-        <v>0.02</v>
-      </c>
-      <c r="H10" s="155"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="157"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H10" s="155">
+        <v>0</v>
+      </c>
+      <c r="I10" s="156">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J10" s="157">
+        <v>3.2000000000000001E-2</v>
+      </c>
       <c r="K10" s="155">
         <v>0</v>
       </c>
       <c r="L10" s="156">
-        <v>0.08</v>
+        <v>2.3E-2</v>
       </c>
       <c r="M10" s="157">
-        <v>2.3E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9143,12 +8695,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="184" t="s">
+      <c r="J1" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -11788,12 +11340,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="184" t="s">
+      <c r="J1" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -14329,12 +13881,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="184" t="s">
+      <c r="J1" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -16811,12 +16363,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="184" t="s">
+      <c r="J1" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -19350,12 +18902,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="184" t="s">
+      <c r="J1" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -21809,12 +21361,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="184" t="s">
+      <c r="J1" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -24268,12 +23820,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="184" t="s">
+      <c r="J1" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -26730,12 +26282,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="184" t="s">
+      <c r="J1" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -29199,12 +28751,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="184" t="s">
+      <c r="J1" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -31887,12 +31439,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="184" t="s">
+      <c r="J1" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -34351,12 +33903,12 @@
         <v>13</v>
       </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="184" t="s">
+      <c r="J1" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
       <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
@@ -34983,16 +34535,16 @@
       <c r="G15" s="4">
         <v>16.981131999999999</v>
       </c>
-      <c r="I15" s="185" t="s">
+      <c r="I15" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="185"/>
-      <c r="K15" s="185"/>
-      <c r="L15" s="185"/>
-      <c r="M15" s="185"/>
-      <c r="N15" s="185"/>
-      <c r="O15" s="185"/>
-      <c r="P15" s="185"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="166"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="166"/>
+      <c r="O15" s="166"/>
+      <c r="P15" s="166"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="3">
@@ -36862,20 +36414,20 @@
         <v>13</v>
       </c>
       <c r="I1" s="19"/>
-      <c r="J1" s="186" t="s">
+      <c r="J1" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
       <c r="N1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="189" t="s">
+      <c r="P1" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="191"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="172"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2"/>
@@ -37392,13 +36944,13 @@
         <v>1</v>
       </c>
       <c r="I11" s="22"/>
-      <c r="J11" s="187" t="s">
+      <c r="J11" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="187"/>
-      <c r="L11" s="187"/>
-      <c r="M11" s="187"/>
-      <c r="N11" s="188"/>
+      <c r="K11" s="168"/>
+      <c r="L11" s="168"/>
+      <c r="M11" s="168"/>
+      <c r="N11" s="169"/>
       <c r="P11" s="24"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="21"/>
@@ -37507,16 +37059,16 @@
       <c r="G15" s="4">
         <v>16.981131999999999</v>
       </c>
-      <c r="I15" s="185" t="s">
+      <c r="I15" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="185"/>
-      <c r="K15" s="185"/>
-      <c r="L15" s="185"/>
-      <c r="M15" s="185"/>
-      <c r="N15" s="185"/>
-      <c r="O15" s="185"/>
-      <c r="P15" s="185"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="166"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="166"/>
+      <c r="O15" s="166"/>
+      <c r="P15" s="166"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="3">
@@ -39387,10 +38939,10 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="192" t="s">
+      <c r="G1" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="193"/>
+      <c r="H1" s="174"/>
       <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:13">
@@ -40203,10 +39755,10 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="192" t="s">
+      <c r="G1" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="193"/>
+      <c r="H1" s="174"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2"/>
@@ -40265,8 +39817,8 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="192"/>
-      <c r="O4" s="193"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="174"/>
     </row>
     <row r="5" spans="1:17" ht="15" thickBot="1">
       <c r="A5" s="2"/>

--- a/Iris_Rank_filtering_implementation.xlsx
+++ b/Iris_Rank_filtering_implementation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Decision-Trees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3213431E-906D-4324-82D8-9F21D0BC1930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC6F5E7-A7AB-40E2-AC26-A47BE2BB0893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="823" firstSheet="9" activeTab="17" xr2:uid="{6C67A883-E7E1-4B49-B51F-4602C047CF2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="823" firstSheet="9" activeTab="16" xr2:uid="{6C67A883-E7E1-4B49-B51F-4602C047CF2B}"/>
   </bookViews>
   <sheets>
     <sheet name="IRIS_DT_DIST80" sheetId="8" state="hidden" r:id="rId1"/>
@@ -7980,8 +7980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE34F46-5B5F-40B1-84FA-2526652B640D}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8152,19 +8152,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="144">
-        <v>0.96132600000000001</v>
+        <v>0.93922700000000003</v>
       </c>
       <c r="K6" s="145">
-        <v>3.8674E-2</v>
+        <v>6.0773000000000001E-2</v>
       </c>
       <c r="L6" s="143">
-        <v>1.6574999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="M6" s="144">
-        <v>0.94475100000000001</v>
+        <v>0.93370200000000003</v>
       </c>
       <c r="N6" s="145">
-        <v>3.8674E-2</v>
+        <v>6.6297999999999996E-2</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1">
@@ -8203,10 +8203,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="147">
-        <v>4.8386999999999999E-2</v>
+        <v>4.3011000000000001E-2</v>
       </c>
       <c r="N7" s="148">
-        <v>0.95161300000000004</v>
+        <v>0.95698899999999998</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1">
@@ -8252,7 +8252,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="153">
-        <v>0.96099999999999997</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="K9" s="154">
         <v>0.98399999999999999</v>
@@ -8261,10 +8261,10 @@
         <v>1</v>
       </c>
       <c r="M9" s="153">
-        <v>0.94499999999999995</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="N9" s="154">
-        <v>0.95199999999999996</v>
+        <v>0.95699999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1">
@@ -8299,16 +8299,16 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="K10" s="157">
-        <v>0.02</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="L10" s="155">
-        <v>8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="M10" s="156">
-        <v>2.5999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="N10" s="157">
-        <v>0.02</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -8343,8 +8343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8628703-0CAA-4F07-98E5-96A9CD16B317}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8508,19 +8508,19 @@
         <v>0</v>
       </c>
       <c r="I6" s="144">
-        <v>0.93922700000000003</v>
+        <v>0.96132600000000001</v>
       </c>
       <c r="J6" s="145">
-        <v>6.0773000000000001E-2</v>
+        <v>3.8674E-2</v>
       </c>
       <c r="K6" s="143">
-        <v>0</v>
+        <v>1.6574999999999999E-2</v>
       </c>
       <c r="L6" s="144">
-        <v>0.93370200000000003</v>
+        <v>0.94475100000000001</v>
       </c>
       <c r="M6" s="145">
-        <v>6.6297999999999996E-2</v>
+        <v>3.8674E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1">
@@ -8558,10 +8558,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="147">
-        <v>4.3011000000000001E-2</v>
+        <v>4.8386999999999999E-2</v>
       </c>
       <c r="M7" s="148">
-        <v>0.95698899999999998</v>
+        <v>0.95161300000000004</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" thickBot="1">
@@ -8604,7 +8604,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="153">
-        <v>0.93899999999999995</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="J9" s="154">
         <v>0.98399999999999999</v>
@@ -8613,10 +8613,10 @@
         <v>1</v>
       </c>
       <c r="L9" s="153">
-        <v>0.93400000000000005</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="M9" s="154">
-        <v>0.95699999999999996</v>
+        <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1">
@@ -8648,16 +8648,16 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="J10" s="157">
-        <v>3.2000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="K10" s="155">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="L10" s="156">
-        <v>2.3E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="M10" s="157">
-        <v>3.5000000000000003E-2</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
